--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -231,13 +231,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J539"/>
+  <dimension ref="A1:J573"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.83"/>
@@ -9490,6 +9490,567 @@
         <v>1</v>
       </c>
     </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B540" s="1" t="n">
+        <v>1255</v>
+      </c>
+      <c r="C540" s="3" t="n">
+        <v>44436</v>
+      </c>
+      <c r="D540" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E540" s="1" t="n">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B541" s="1" t="n">
+        <v>1256</v>
+      </c>
+      <c r="C541" s="3" t="n">
+        <v>44436</v>
+      </c>
+      <c r="D541" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B542" s="1" t="n">
+        <v>1258</v>
+      </c>
+      <c r="C542" s="3" t="n">
+        <v>44436</v>
+      </c>
+      <c r="D542" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B543" s="1" t="n">
+        <v>1261</v>
+      </c>
+      <c r="C543" s="3" t="n">
+        <v>44436</v>
+      </c>
+      <c r="D543" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B544" s="1" t="n">
+        <v>1262</v>
+      </c>
+      <c r="C544" s="3" t="n">
+        <v>44436</v>
+      </c>
+      <c r="D544" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E544" s="1" t="n">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B545" s="1" t="n">
+        <v>1264</v>
+      </c>
+      <c r="C545" s="3" t="n">
+        <v>44436</v>
+      </c>
+      <c r="D545" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B546" s="1" t="n">
+        <v>1265</v>
+      </c>
+      <c r="C546" s="3" t="n">
+        <v>44436</v>
+      </c>
+      <c r="D546" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B547" s="1" t="n">
+        <v>1266</v>
+      </c>
+      <c r="C547" s="3" t="n">
+        <v>44436</v>
+      </c>
+      <c r="D547" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E547" s="1" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B548" s="1" t="n">
+        <v>1267</v>
+      </c>
+      <c r="C548" s="3" t="n">
+        <v>44436</v>
+      </c>
+      <c r="D548" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B549" s="1" t="n">
+        <v>1290</v>
+      </c>
+      <c r="C549" s="3" t="n">
+        <v>44437</v>
+      </c>
+      <c r="D549" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E549" s="1" t="n">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B550" s="1" t="n">
+        <v>1293</v>
+      </c>
+      <c r="C550" s="3" t="n">
+        <v>44437</v>
+      </c>
+      <c r="D550" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B551" s="1" t="n">
+        <v>1294</v>
+      </c>
+      <c r="C551" s="3" t="n">
+        <v>44437</v>
+      </c>
+      <c r="D551" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E551" s="1" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B552" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="C552" s="3" t="n">
+        <v>44437</v>
+      </c>
+      <c r="D552" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E552" s="1" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B553" s="1" t="n">
+        <v>1296</v>
+      </c>
+      <c r="C553" s="3" t="n">
+        <v>44437</v>
+      </c>
+      <c r="D553" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E553" s="1" t="n">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B554" s="1" t="n">
+        <v>1297</v>
+      </c>
+      <c r="C554" s="3" t="n">
+        <v>44437</v>
+      </c>
+      <c r="D554" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E554" s="1" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B555" s="1" t="n">
+        <v>1298</v>
+      </c>
+      <c r="C555" s="3" t="n">
+        <v>44437</v>
+      </c>
+      <c r="D555" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E555" s="1" t="n">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B556" s="1" t="n">
+        <v>1299</v>
+      </c>
+      <c r="C556" s="3" t="n">
+        <v>44437</v>
+      </c>
+      <c r="D556" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E556" s="1" t="n">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B557" s="1" t="n">
+        <v>1311</v>
+      </c>
+      <c r="C557" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D557" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B558" s="1" t="n">
+        <v>1312</v>
+      </c>
+      <c r="C558" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D558" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B559" s="1" t="n">
+        <v>1313</v>
+      </c>
+      <c r="C559" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D559" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E559" s="1" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B560" s="1" t="n">
+        <v>1315</v>
+      </c>
+      <c r="C560" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D560" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E560" s="1" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B561" s="1" t="n">
+        <v>1316</v>
+      </c>
+      <c r="C561" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D561" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B562" s="1" t="n">
+        <v>1317</v>
+      </c>
+      <c r="C562" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D562" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B563" s="1" t="n">
+        <v>1318</v>
+      </c>
+      <c r="C563" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D563" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B564" s="1" t="n">
+        <v>1319</v>
+      </c>
+      <c r="C564" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D564" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B565" s="1" t="n">
+        <v>1320</v>
+      </c>
+      <c r="C565" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D565" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B566" s="1" t="n">
+        <v>1322</v>
+      </c>
+      <c r="C566" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D566" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B567" s="1" t="n">
+        <v>1325</v>
+      </c>
+      <c r="C567" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D567" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B568" s="1" t="n">
+        <v>1328</v>
+      </c>
+      <c r="C568" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D568" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B569" s="1" t="n">
+        <v>1329</v>
+      </c>
+      <c r="C569" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D569" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E569" s="1" t="n">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B570" s="1" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C570" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D570" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E570" s="1" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B571" s="1" t="n">
+        <v>1331</v>
+      </c>
+      <c r="C571" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D571" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E571" s="1" t="n">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B572" s="1" t="n">
+        <v>1332</v>
+      </c>
+      <c r="C572" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D572" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E572" s="1" t="n">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B573" s="1" t="n">
+        <v>1333</v>
+      </c>
+      <c r="C573" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D573" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E573" s="1" t="n">
+        <v>562</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="27">
   <si>
     <t xml:space="preserve">num_matsue</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">s1183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1336</t>
   </si>
 </sst>
 </file>
@@ -231,13 +234,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J573"/>
+  <dimension ref="A1:J609"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.83"/>
@@ -10051,6 +10054,621 @@
         <v>562</v>
       </c>
     </row>
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B574" s="1" t="n">
+        <v>1344</v>
+      </c>
+      <c r="C574" s="3" t="n">
+        <v>44439</v>
+      </c>
+      <c r="D574" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E574" s="1" t="n">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B575" s="1" t="n">
+        <v>1345</v>
+      </c>
+      <c r="C575" s="3" t="n">
+        <v>44439</v>
+      </c>
+      <c r="D575" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E575" s="1" t="n">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B576" s="1" t="n">
+        <v>1346</v>
+      </c>
+      <c r="C576" s="3" t="n">
+        <v>44439</v>
+      </c>
+      <c r="D576" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E576" s="1" t="n">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B577" s="1" t="n">
+        <v>1347</v>
+      </c>
+      <c r="C577" s="3" t="n">
+        <v>44439</v>
+      </c>
+      <c r="D577" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E577" s="1" t="n">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B578" s="1" t="n">
+        <v>1348</v>
+      </c>
+      <c r="C578" s="3" t="n">
+        <v>44439</v>
+      </c>
+      <c r="D578" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B579" s="1" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C579" s="3" t="n">
+        <v>44439</v>
+      </c>
+      <c r="D579" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E579" s="1" t="n">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B580" s="1" t="n">
+        <v>1351</v>
+      </c>
+      <c r="C580" s="3" t="n">
+        <v>44439</v>
+      </c>
+      <c r="D580" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E580" s="1" t="n">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B581" s="1" t="n">
+        <v>1355</v>
+      </c>
+      <c r="C581" s="3" t="n">
+        <v>44439</v>
+      </c>
+      <c r="D581" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E581" s="1" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B582" s="1" t="n">
+        <v>1356</v>
+      </c>
+      <c r="C582" s="3" t="n">
+        <v>44439</v>
+      </c>
+      <c r="D582" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E582" s="1" t="n">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B583" s="1" t="n">
+        <v>1357</v>
+      </c>
+      <c r="C583" s="3" t="n">
+        <v>44439</v>
+      </c>
+      <c r="D583" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B584" s="1" t="n">
+        <v>1365</v>
+      </c>
+      <c r="C584" s="3" t="n">
+        <v>44439</v>
+      </c>
+      <c r="D584" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B585" s="1" t="n">
+        <v>1370</v>
+      </c>
+      <c r="C585" s="3" t="n">
+        <v>44440</v>
+      </c>
+      <c r="D585" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E585" s="1" t="n">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B586" s="1" t="n">
+        <v>1371</v>
+      </c>
+      <c r="C586" s="3" t="n">
+        <v>44440</v>
+      </c>
+      <c r="D586" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B587" s="1" t="n">
+        <v>1374</v>
+      </c>
+      <c r="C587" s="3" t="n">
+        <v>44440</v>
+      </c>
+      <c r="D587" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B588" s="1" t="n">
+        <v>1375</v>
+      </c>
+      <c r="C588" s="3" t="n">
+        <v>44440</v>
+      </c>
+      <c r="D588" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B589" s="1" t="n">
+        <v>1376</v>
+      </c>
+      <c r="C589" s="3" t="n">
+        <v>44440</v>
+      </c>
+      <c r="D589" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I589" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B590" s="1" t="n">
+        <v>1377</v>
+      </c>
+      <c r="C590" s="3" t="n">
+        <v>44440</v>
+      </c>
+      <c r="D590" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I590" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B591" s="1" t="n">
+        <v>1378</v>
+      </c>
+      <c r="C591" s="3" t="n">
+        <v>44440</v>
+      </c>
+      <c r="D591" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I591" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B592" s="1" t="n">
+        <v>1379</v>
+      </c>
+      <c r="C592" s="3" t="n">
+        <v>44440</v>
+      </c>
+      <c r="D592" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E592" s="1" t="n">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B593" s="1" t="n">
+        <v>1380</v>
+      </c>
+      <c r="C593" s="3" t="n">
+        <v>44440</v>
+      </c>
+      <c r="D593" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E593" s="1" t="n">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B594" s="1" t="n">
+        <v>1381</v>
+      </c>
+      <c r="C594" s="3" t="n">
+        <v>44440</v>
+      </c>
+      <c r="D594" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E594" s="1" t="n">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B595" s="1" t="n">
+        <v>1382</v>
+      </c>
+      <c r="C595" s="3" t="n">
+        <v>44440</v>
+      </c>
+      <c r="D595" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E595" s="1" t="n">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B596" s="1" t="n">
+        <v>1383</v>
+      </c>
+      <c r="C596" s="3" t="n">
+        <v>44440</v>
+      </c>
+      <c r="D596" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E596" s="1" t="n">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B597" s="1" t="n">
+        <v>1384</v>
+      </c>
+      <c r="C597" s="3" t="n">
+        <v>44440</v>
+      </c>
+      <c r="D597" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E597" s="1" t="n">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B598" s="1" t="n">
+        <v>1397</v>
+      </c>
+      <c r="C598" s="3" t="n">
+        <v>44441</v>
+      </c>
+      <c r="D598" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B599" s="1" t="n">
+        <v>1399</v>
+      </c>
+      <c r="C599" s="3" t="n">
+        <v>44441</v>
+      </c>
+      <c r="D599" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E599" s="1" t="n">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B600" s="1" t="n">
+        <v>1406</v>
+      </c>
+      <c r="C600" s="3" t="n">
+        <v>44441</v>
+      </c>
+      <c r="D600" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E600" s="1" t="n">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B601" s="1" t="n">
+        <v>1407</v>
+      </c>
+      <c r="C601" s="3" t="n">
+        <v>44441</v>
+      </c>
+      <c r="D601" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E601" s="1" t="n">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B602" s="1" t="n">
+        <v>1408</v>
+      </c>
+      <c r="C602" s="3" t="n">
+        <v>44441</v>
+      </c>
+      <c r="D602" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B603" s="1" t="n">
+        <v>1409</v>
+      </c>
+      <c r="C603" s="3" t="n">
+        <v>44441</v>
+      </c>
+      <c r="D603" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E603" s="1" t="n">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B604" s="1" t="n">
+        <v>1410</v>
+      </c>
+      <c r="C604" s="3" t="n">
+        <v>44441</v>
+      </c>
+      <c r="D604" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E604" s="1" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B605" s="1" t="n">
+        <v>1413</v>
+      </c>
+      <c r="C605" s="3" t="n">
+        <v>44441</v>
+      </c>
+      <c r="D605" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B606" s="1" t="n">
+        <v>1414</v>
+      </c>
+      <c r="C606" s="3" t="n">
+        <v>44441</v>
+      </c>
+      <c r="D606" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E606" s="1" t="n">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B607" s="1" t="n">
+        <v>1415</v>
+      </c>
+      <c r="C607" s="3" t="n">
+        <v>44441</v>
+      </c>
+      <c r="D607" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E607" s="1" t="n">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B608" s="1" t="n">
+        <v>1417</v>
+      </c>
+      <c r="C608" s="3" t="n">
+        <v>44441</v>
+      </c>
+      <c r="D608" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B609" s="1" t="n">
+        <v>1418</v>
+      </c>
+      <c r="C609" s="3" t="n">
+        <v>44441</v>
+      </c>
+      <c r="D609" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -234,13 +234,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J609"/>
+  <dimension ref="A1:J614"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.83"/>
@@ -10669,6 +10669,87 @@
         <v>1</v>
       </c>
     </row>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B610" s="1" t="n">
+        <v>1423</v>
+      </c>
+      <c r="C610" s="3" t="n">
+        <v>44442</v>
+      </c>
+      <c r="D610" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B611" s="1" t="n">
+        <v>1424</v>
+      </c>
+      <c r="C611" s="3" t="n">
+        <v>44442</v>
+      </c>
+      <c r="D611" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B612" s="1" t="n">
+        <v>1425</v>
+      </c>
+      <c r="C612" s="3" t="n">
+        <v>44442</v>
+      </c>
+      <c r="D612" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E612" s="1" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B613" s="1" t="n">
+        <v>1426</v>
+      </c>
+      <c r="C613" s="3" t="n">
+        <v>44442</v>
+      </c>
+      <c r="D613" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B614" s="1" t="n">
+        <v>1427</v>
+      </c>
+      <c r="C614" s="3" t="n">
+        <v>44442</v>
+      </c>
+      <c r="D614" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E614" s="1" t="n">
+        <v>587</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="28">
   <si>
     <t xml:space="preserve">num_matsue</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve">s1336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1308</t>
   </si>
 </sst>
 </file>
@@ -234,13 +237,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J614"/>
+  <dimension ref="A1:J640"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.83"/>
@@ -10750,6 +10753,447 @@
         <v>587</v>
       </c>
     </row>
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B615" s="1" t="n">
+        <v>1437</v>
+      </c>
+      <c r="C615" s="3" t="n">
+        <v>44443</v>
+      </c>
+      <c r="D615" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E615" s="1" t="n">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B616" s="1" t="n">
+        <v>1439</v>
+      </c>
+      <c r="C616" s="3" t="n">
+        <v>44443</v>
+      </c>
+      <c r="D616" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B617" s="1" t="n">
+        <v>1440</v>
+      </c>
+      <c r="C617" s="3" t="n">
+        <v>44443</v>
+      </c>
+      <c r="D617" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B618" s="1" t="n">
+        <v>1441</v>
+      </c>
+      <c r="C618" s="3" t="n">
+        <v>44443</v>
+      </c>
+      <c r="D618" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E618" s="1" t="n">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B619" s="1" t="n">
+        <v>1442</v>
+      </c>
+      <c r="C619" s="3" t="n">
+        <v>44443</v>
+      </c>
+      <c r="D619" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E619" s="1" t="n">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B620" s="1" t="n">
+        <v>1445</v>
+      </c>
+      <c r="C620" s="3" t="n">
+        <v>44444</v>
+      </c>
+      <c r="D620" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E620" s="1" t="n">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B621" s="1" t="n">
+        <v>1453</v>
+      </c>
+      <c r="C621" s="3" t="n">
+        <v>44445</v>
+      </c>
+      <c r="D621" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E621" s="1" t="n">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B622" s="1" t="n">
+        <v>1460</v>
+      </c>
+      <c r="C622" s="3" t="n">
+        <v>44446</v>
+      </c>
+      <c r="D622" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E622" s="1" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B623" s="1" t="n">
+        <v>1461</v>
+      </c>
+      <c r="C623" s="3" t="n">
+        <v>44446</v>
+      </c>
+      <c r="D623" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E623" s="1" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B624" s="1" t="n">
+        <v>1462</v>
+      </c>
+      <c r="C624" s="3" t="n">
+        <v>44446</v>
+      </c>
+      <c r="D624" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E624" s="1" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B625" s="1" t="n">
+        <v>1463</v>
+      </c>
+      <c r="C625" s="3" t="n">
+        <v>44446</v>
+      </c>
+      <c r="D625" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B626" s="1" t="n">
+        <v>1464</v>
+      </c>
+      <c r="C626" s="3" t="n">
+        <v>44446</v>
+      </c>
+      <c r="D626" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B627" s="1" t="n">
+        <v>1471</v>
+      </c>
+      <c r="C627" s="3" t="n">
+        <v>44446</v>
+      </c>
+      <c r="D627" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I627" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B628" s="1" t="n">
+        <v>1472</v>
+      </c>
+      <c r="C628" s="3" t="n">
+        <v>44446</v>
+      </c>
+      <c r="D628" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I628" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B629" s="1" t="n">
+        <v>1473</v>
+      </c>
+      <c r="C629" s="3" t="n">
+        <v>44446</v>
+      </c>
+      <c r="D629" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B630" s="1" t="n">
+        <v>1481</v>
+      </c>
+      <c r="C630" s="3" t="n">
+        <v>44447</v>
+      </c>
+      <c r="D630" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B631" s="1" t="n">
+        <v>1486</v>
+      </c>
+      <c r="C631" s="3" t="n">
+        <v>44447</v>
+      </c>
+      <c r="D631" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B632" s="1" t="n">
+        <v>1487</v>
+      </c>
+      <c r="C632" s="3" t="n">
+        <v>44447</v>
+      </c>
+      <c r="D632" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E632" s="1" t="n">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B633" s="1" t="n">
+        <v>1488</v>
+      </c>
+      <c r="C633" s="3" t="n">
+        <v>44447</v>
+      </c>
+      <c r="D633" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E633" s="1" t="n">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B634" s="1" t="n">
+        <v>1490</v>
+      </c>
+      <c r="C634" s="3" t="n">
+        <v>44447</v>
+      </c>
+      <c r="D634" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I634" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B635" s="1" t="n">
+        <v>1492</v>
+      </c>
+      <c r="C635" s="3" t="n">
+        <v>44447</v>
+      </c>
+      <c r="D635" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B636" s="1" t="n">
+        <v>1494</v>
+      </c>
+      <c r="C636" s="3" t="n">
+        <v>44448</v>
+      </c>
+      <c r="D636" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E636" s="1" t="n">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B637" s="1" t="n">
+        <v>1495</v>
+      </c>
+      <c r="C637" s="3" t="n">
+        <v>44448</v>
+      </c>
+      <c r="D637" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E637" s="1" t="n">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B638" s="1" t="n">
+        <v>1496</v>
+      </c>
+      <c r="C638" s="3" t="n">
+        <v>44448</v>
+      </c>
+      <c r="D638" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E638" s="1" t="n">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B639" s="1" t="n">
+        <v>1497</v>
+      </c>
+      <c r="C639" s="3" t="n">
+        <v>44448</v>
+      </c>
+      <c r="D639" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E639" s="1" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B640" s="1" t="n">
+        <v>1502</v>
+      </c>
+      <c r="C640" s="3" t="n">
+        <v>44448</v>
+      </c>
+      <c r="D640" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -237,13 +237,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J640"/>
+  <dimension ref="A1:J666"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.83"/>
@@ -11194,6 +11194,450 @@
         <v>1</v>
       </c>
     </row>
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B641" s="1" t="n">
+        <v>1506</v>
+      </c>
+      <c r="C641" s="3" t="n">
+        <v>44449</v>
+      </c>
+      <c r="D641" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E641" s="1" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B642" s="1" t="n">
+        <v>1507</v>
+      </c>
+      <c r="C642" s="3" t="n">
+        <v>44449</v>
+      </c>
+      <c r="D642" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E642" s="1" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B643" s="1" t="n">
+        <v>1513</v>
+      </c>
+      <c r="C643" s="3" t="n">
+        <v>44450</v>
+      </c>
+      <c r="D643" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E643" s="1" t="n">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B644" s="1" t="n">
+        <v>1514</v>
+      </c>
+      <c r="C644" s="3" t="n">
+        <v>44450</v>
+      </c>
+      <c r="D644" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E644" s="1" t="n">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B645" s="1" t="n">
+        <v>1515</v>
+      </c>
+      <c r="C645" s="3" t="n">
+        <v>44450</v>
+      </c>
+      <c r="D645" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E645" s="1" t="n">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B646" s="1" t="n">
+        <v>1516</v>
+      </c>
+      <c r="C646" s="3" t="n">
+        <v>44450</v>
+      </c>
+      <c r="D646" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E646" s="1" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B647" s="1" t="n">
+        <v>1517</v>
+      </c>
+      <c r="C647" s="3" t="n">
+        <v>44450</v>
+      </c>
+      <c r="D647" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E647" s="1" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B648" s="1" t="n">
+        <v>1518</v>
+      </c>
+      <c r="C648" s="3" t="n">
+        <v>44450</v>
+      </c>
+      <c r="D648" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E648" s="1" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B649" s="1" t="n">
+        <v>1519</v>
+      </c>
+      <c r="C649" s="3" t="n">
+        <v>44450</v>
+      </c>
+      <c r="D649" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E649" s="1" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B650" s="1" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C650" s="3" t="n">
+        <v>44450</v>
+      </c>
+      <c r="D650" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E650" s="1" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B651" s="1" t="n">
+        <v>1521</v>
+      </c>
+      <c r="C651" s="3" t="n">
+        <v>44451</v>
+      </c>
+      <c r="D651" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E651" s="1" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B652" s="1" t="n">
+        <v>1522</v>
+      </c>
+      <c r="C652" s="3" t="n">
+        <v>44452</v>
+      </c>
+      <c r="D652" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E652" s="1" t="n">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B653" s="1" t="n">
+        <v>1523</v>
+      </c>
+      <c r="C653" s="3" t="n">
+        <v>44452</v>
+      </c>
+      <c r="D653" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B654" s="1" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C654" s="3" t="n">
+        <v>44453</v>
+      </c>
+      <c r="D654" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E654" s="1" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B655" s="1" t="n">
+        <v>1526</v>
+      </c>
+      <c r="C655" s="3" t="n">
+        <v>44454</v>
+      </c>
+      <c r="D655" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B656" s="1" t="n">
+        <v>1527</v>
+      </c>
+      <c r="C656" s="3" t="n">
+        <v>44454</v>
+      </c>
+      <c r="D656" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E656" s="1" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B657" s="1" t="n">
+        <v>1531</v>
+      </c>
+      <c r="C657" s="3" t="n">
+        <v>44455</v>
+      </c>
+      <c r="D657" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B658" s="1" t="n">
+        <v>1534</v>
+      </c>
+      <c r="C658" s="3" t="n">
+        <v>44455</v>
+      </c>
+      <c r="D658" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E658" s="1" t="n">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B659" s="1" t="n">
+        <v>1535</v>
+      </c>
+      <c r="C659" s="3" t="n">
+        <v>44455</v>
+      </c>
+      <c r="D659" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E659" s="1" t="n">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B660" s="1" t="n">
+        <v>1536</v>
+      </c>
+      <c r="C660" s="3" t="n">
+        <v>44455</v>
+      </c>
+      <c r="D660" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E660" s="1" t="n">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B661" s="1" t="n">
+        <v>1537</v>
+      </c>
+      <c r="C661" s="3" t="n">
+        <v>44455</v>
+      </c>
+      <c r="D661" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B662" s="1" t="n">
+        <v>1538</v>
+      </c>
+      <c r="C662" s="3" t="n">
+        <v>44455</v>
+      </c>
+      <c r="D662" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B663" s="1" t="n">
+        <v>1539</v>
+      </c>
+      <c r="C663" s="3" t="n">
+        <v>44455</v>
+      </c>
+      <c r="D663" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B664" s="1" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C664" s="3" t="n">
+        <v>44455</v>
+      </c>
+      <c r="D664" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B665" s="1" t="n">
+        <v>1542</v>
+      </c>
+      <c r="C665" s="3" t="n">
+        <v>44456</v>
+      </c>
+      <c r="D665" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B666" s="1" t="n">
+        <v>1543</v>
+      </c>
+      <c r="C666" s="3" t="n">
+        <v>44456</v>
+      </c>
+      <c r="D666" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E666" s="1" t="n">
+        <v>624</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="30">
   <si>
     <t xml:space="preserve">num_matsue</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t xml:space="preserve">s1308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1556</t>
   </si>
 </sst>
 </file>
@@ -237,13 +243,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J666"/>
+  <dimension ref="A1:J690"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.83"/>
@@ -11638,6 +11644,417 @@
         <v>624</v>
       </c>
     </row>
+    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B667" s="1" t="n">
+        <v>1545</v>
+      </c>
+      <c r="C667" s="3" t="n">
+        <v>44457</v>
+      </c>
+      <c r="D667" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E667" s="1" t="n">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B668" s="1" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C668" s="3" t="n">
+        <v>44458</v>
+      </c>
+      <c r="D668" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I668" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B669" s="1" t="n">
+        <v>1548</v>
+      </c>
+      <c r="C669" s="3" t="n">
+        <v>44458</v>
+      </c>
+      <c r="D669" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E669" s="1" t="n">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B670" s="1" t="n">
+        <v>1549</v>
+      </c>
+      <c r="C670" s="3" t="n">
+        <v>44458</v>
+      </c>
+      <c r="D670" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E670" s="1" t="n">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B671" s="1" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C671" s="3" t="n">
+        <v>44458</v>
+      </c>
+      <c r="D671" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B672" s="1" t="n">
+        <v>1551</v>
+      </c>
+      <c r="C672" s="3" t="n">
+        <v>44458</v>
+      </c>
+      <c r="D672" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B673" s="1" t="n">
+        <v>1552</v>
+      </c>
+      <c r="C673" s="3" t="n">
+        <v>44458</v>
+      </c>
+      <c r="D673" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B674" s="1" t="n">
+        <v>1553</v>
+      </c>
+      <c r="C674" s="3" t="n">
+        <v>44459</v>
+      </c>
+      <c r="D674" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E674" s="1" t="n">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B675" s="1" t="n">
+        <v>1554</v>
+      </c>
+      <c r="C675" s="3" t="n">
+        <v>44459</v>
+      </c>
+      <c r="D675" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E675" s="1" t="n">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B676" s="1" t="n">
+        <v>1555</v>
+      </c>
+      <c r="C676" s="3" t="n">
+        <v>44459</v>
+      </c>
+      <c r="D676" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E676" s="1" t="n">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B677" s="1" t="n">
+        <v>1558</v>
+      </c>
+      <c r="C677" s="3" t="n">
+        <v>44459</v>
+      </c>
+      <c r="D677" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E677" s="1" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B678" s="1" t="n">
+        <v>1559</v>
+      </c>
+      <c r="C678" s="3" t="n">
+        <v>44459</v>
+      </c>
+      <c r="D678" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E678" s="1" t="n">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B679" s="1" t="n">
+        <v>1560</v>
+      </c>
+      <c r="C679" s="3" t="n">
+        <v>44459</v>
+      </c>
+      <c r="D679" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E679" s="1" t="n">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B680" s="1" t="n">
+        <v>1561</v>
+      </c>
+      <c r="C680" s="3" t="n">
+        <v>44459</v>
+      </c>
+      <c r="D680" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B681" s="1" t="n">
+        <v>1563</v>
+      </c>
+      <c r="C681" s="3" t="n">
+        <v>44460</v>
+      </c>
+      <c r="D681" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E681" s="1" t="n">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B682" s="1" t="n">
+        <v>1564</v>
+      </c>
+      <c r="C682" s="3" t="n">
+        <v>44460</v>
+      </c>
+      <c r="D682" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E682" s="1" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B683" s="1" t="n">
+        <v>1565</v>
+      </c>
+      <c r="C683" s="3" t="n">
+        <v>44460</v>
+      </c>
+      <c r="D683" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I683" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B684" s="1" t="n">
+        <v>1566</v>
+      </c>
+      <c r="C684" s="3" t="n">
+        <v>44460</v>
+      </c>
+      <c r="D684" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E684" s="1" t="n">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B685" s="1" t="n">
+        <v>1571</v>
+      </c>
+      <c r="C685" s="3" t="n">
+        <v>44460</v>
+      </c>
+      <c r="D685" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B686" s="1" t="n">
+        <v>1572</v>
+      </c>
+      <c r="C686" s="3" t="n">
+        <v>44460</v>
+      </c>
+      <c r="D686" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B687" s="1" t="n">
+        <v>1578</v>
+      </c>
+      <c r="C687" s="3" t="n">
+        <v>44461</v>
+      </c>
+      <c r="D687" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B688" s="1" t="n">
+        <v>1579</v>
+      </c>
+      <c r="C688" s="3" t="n">
+        <v>44461</v>
+      </c>
+      <c r="D688" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E688" s="1" t="n">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B689" s="1" t="n">
+        <v>1580</v>
+      </c>
+      <c r="C689" s="3" t="n">
+        <v>44461</v>
+      </c>
+      <c r="D689" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E689" s="1" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B690" s="1" t="n">
+        <v>1581</v>
+      </c>
+      <c r="C690" s="3" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D690" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I690" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -243,13 +243,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J690"/>
+  <dimension ref="A1:J696"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.83"/>
@@ -11994,7 +11994,7 @@
         <v>1578</v>
       </c>
       <c r="C687" s="3" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="D687" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -12009,7 +12009,7 @@
         <v>1579</v>
       </c>
       <c r="C688" s="3" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="D688" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -12027,7 +12027,7 @@
         <v>1580</v>
       </c>
       <c r="C689" s="3" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="D689" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -12045,7 +12045,7 @@
         <v>1581</v>
       </c>
       <c r="C690" s="3" t="n">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="D690" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -12053,6 +12053,105 @@
       </c>
       <c r="I690" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B691" s="1" t="n">
+        <v>1582</v>
+      </c>
+      <c r="C691" s="3" t="n">
+        <v>44464</v>
+      </c>
+      <c r="D691" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E691" s="1" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B692" s="1" t="n">
+        <v>1594</v>
+      </c>
+      <c r="C692" s="3" t="n">
+        <v>44466</v>
+      </c>
+      <c r="D692" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B693" s="1" t="n">
+        <v>1598</v>
+      </c>
+      <c r="C693" s="3" t="n">
+        <v>44466</v>
+      </c>
+      <c r="D693" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E693" s="1" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B694" s="1" t="n">
+        <v>1603</v>
+      </c>
+      <c r="C694" s="3" t="n">
+        <v>44466</v>
+      </c>
+      <c r="D694" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B695" s="1" t="n">
+        <v>1605</v>
+      </c>
+      <c r="C695" s="3" t="n">
+        <v>44467</v>
+      </c>
+      <c r="D695" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E695" s="1" t="n">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B696" s="1" t="n">
+        <v>1613</v>
+      </c>
+      <c r="C696" s="3" t="n">
+        <v>44468</v>
+      </c>
+      <c r="D696" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -243,13 +243,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J696"/>
+  <dimension ref="A1:J700"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.83"/>
@@ -12154,6 +12154,69 @@
         <v>0</v>
       </c>
     </row>
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B697" s="1" t="n">
+        <v>1623</v>
+      </c>
+      <c r="C697" s="3" t="n">
+        <v>44471</v>
+      </c>
+      <c r="D697" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B698" s="1" t="n">
+        <v>1624</v>
+      </c>
+      <c r="C698" s="3" t="n">
+        <v>44471</v>
+      </c>
+      <c r="D698" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E698" s="1" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B699" s="1" t="n">
+        <v>1631</v>
+      </c>
+      <c r="C699" s="3" t="n">
+        <v>44474</v>
+      </c>
+      <c r="D699" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B700" s="1" t="n">
+        <v>1632</v>
+      </c>
+      <c r="C700" s="3" t="n">
+        <v>44474</v>
+      </c>
+      <c r="D700" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="30">
   <si>
     <t xml:space="preserve">num_matsue</t>
   </si>
@@ -205,7 +205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -226,6 +226,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,13 +247,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J700"/>
+  <dimension ref="A1:J738"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.83"/>
@@ -12217,6 +12221,655 @@
         <v>1</v>
       </c>
     </row>
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B701" s="1" t="n">
+        <v>1770</v>
+      </c>
+      <c r="C701" s="5" t="n">
+        <v>44564</v>
+      </c>
+      <c r="D701" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B702" s="1" t="n">
+        <v>1771</v>
+      </c>
+      <c r="C702" s="5" t="n">
+        <v>44564</v>
+      </c>
+      <c r="D702" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E702" s="1" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B703" s="1" t="n">
+        <v>1772</v>
+      </c>
+      <c r="C703" s="5" t="n">
+        <v>44564</v>
+      </c>
+      <c r="D703" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E703" s="1" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B704" s="1" t="n">
+        <v>1773</v>
+      </c>
+      <c r="C704" s="5" t="n">
+        <v>44564</v>
+      </c>
+      <c r="D704" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E704" s="1" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B705" s="1" t="n">
+        <v>1777</v>
+      </c>
+      <c r="C705" s="5" t="n">
+        <v>44565</v>
+      </c>
+      <c r="D705" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B706" s="1" t="n">
+        <v>1782</v>
+      </c>
+      <c r="C706" s="5" t="n">
+        <v>44566</v>
+      </c>
+      <c r="D706" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B707" s="1" t="n">
+        <v>1783</v>
+      </c>
+      <c r="C707" s="5" t="n">
+        <v>44566</v>
+      </c>
+      <c r="D707" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B708" s="1" t="n">
+        <v>1791</v>
+      </c>
+      <c r="C708" s="5" t="n">
+        <v>44566</v>
+      </c>
+      <c r="D708" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E708" s="1" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B709" s="1" t="n">
+        <v>1792</v>
+      </c>
+      <c r="C709" s="5" t="n">
+        <v>44566</v>
+      </c>
+      <c r="D709" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E709" s="1" t="n">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B710" s="1" t="n">
+        <v>1799</v>
+      </c>
+      <c r="C710" s="5" t="n">
+        <v>44566</v>
+      </c>
+      <c r="D710" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A711" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B711" s="1" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C711" s="5" t="n">
+        <v>44566</v>
+      </c>
+      <c r="D711" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B712" s="1" t="n">
+        <v>1806</v>
+      </c>
+      <c r="C712" s="5" t="n">
+        <v>44567</v>
+      </c>
+      <c r="D712" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B713" s="1" t="n">
+        <v>1808</v>
+      </c>
+      <c r="C713" s="5" t="n">
+        <v>44567</v>
+      </c>
+      <c r="D713" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B714" s="1" t="n">
+        <v>1811</v>
+      </c>
+      <c r="C714" s="5" t="n">
+        <v>44567</v>
+      </c>
+      <c r="D714" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E714" s="1" t="n">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B715" s="1" t="n">
+        <v>1812</v>
+      </c>
+      <c r="C715" s="5" t="n">
+        <v>44567</v>
+      </c>
+      <c r="D715" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E715" s="1" t="n">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B716" s="1" t="n">
+        <v>1813</v>
+      </c>
+      <c r="C716" s="5" t="n">
+        <v>44567</v>
+      </c>
+      <c r="D716" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I716" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B717" s="1" t="n">
+        <v>1821</v>
+      </c>
+      <c r="C717" s="5" t="n">
+        <v>44567</v>
+      </c>
+      <c r="D717" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I717" s="2"/>
+    </row>
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B718" s="1" t="n">
+        <v>1825</v>
+      </c>
+      <c r="C718" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D718" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E718" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B719" s="1" t="n">
+        <v>1826</v>
+      </c>
+      <c r="C719" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D719" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E719" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A720" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B720" s="1" t="n">
+        <v>1827</v>
+      </c>
+      <c r="C720" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D720" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E720" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B721" s="1" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C721" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D721" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E721" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B722" s="1" t="n">
+        <v>1829</v>
+      </c>
+      <c r="C722" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D722" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E722" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B723" s="1" t="n">
+        <v>1830</v>
+      </c>
+      <c r="C723" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D723" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E723" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A724" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B724" s="1" t="n">
+        <v>1831</v>
+      </c>
+      <c r="C724" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D724" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E724" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A725" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B725" s="1" t="n">
+        <v>1836</v>
+      </c>
+      <c r="C725" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D725" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A726" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B726" s="1" t="n">
+        <v>1841</v>
+      </c>
+      <c r="C726" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D726" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A727" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B727" s="1" t="n">
+        <v>1842</v>
+      </c>
+      <c r="C727" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D727" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E727" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A728" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B728" s="1" t="n">
+        <v>1843</v>
+      </c>
+      <c r="C728" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D728" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E728" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A729" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B729" s="1" t="n">
+        <v>1844</v>
+      </c>
+      <c r="C729" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D729" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E729" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A730" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B730" s="1" t="n">
+        <v>1845</v>
+      </c>
+      <c r="C730" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D730" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E730" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A731" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B731" s="1" t="n">
+        <v>1846</v>
+      </c>
+      <c r="C731" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D731" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E731" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A732" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B732" s="1" t="n">
+        <v>1847</v>
+      </c>
+      <c r="C732" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D732" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E732" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A733" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B733" s="1" t="n">
+        <v>1848</v>
+      </c>
+      <c r="C733" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D733" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E733" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A734" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B734" s="1" t="n">
+        <v>1849</v>
+      </c>
+      <c r="C734" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D734" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E734" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A735" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B735" s="1" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C735" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D735" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E735" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B736" s="1" t="n">
+        <v>1851</v>
+      </c>
+      <c r="C736" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D736" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E736" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A737" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B737" s="1" t="n">
+        <v>1852</v>
+      </c>
+      <c r="C737" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D737" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E737" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A738" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B738" s="1" t="n">
+        <v>1858</v>
+      </c>
+      <c r="C738" s="5" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D738" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="30">
   <si>
     <t xml:space="preserve">num_matsue</t>
   </si>
@@ -247,13 +247,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J738"/>
+  <dimension ref="A1:J788"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.83"/>
@@ -12870,6 +12870,852 @@
         <v>1</v>
       </c>
     </row>
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A739" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B739" s="1" t="n">
+        <v>1864</v>
+      </c>
+      <c r="C739" s="5" t="n">
+        <v>44569</v>
+      </c>
+      <c r="D739" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A740" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B740" s="1" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C740" s="5" t="n">
+        <v>44569</v>
+      </c>
+      <c r="D740" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A741" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B741" s="1" t="n">
+        <v>1885</v>
+      </c>
+      <c r="C741" s="5" t="n">
+        <v>44569</v>
+      </c>
+      <c r="D741" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A742" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B742" s="1" t="n">
+        <v>1886</v>
+      </c>
+      <c r="C742" s="5" t="n">
+        <v>44569</v>
+      </c>
+      <c r="D742" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E742" s="1" t="n">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A743" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B743" s="1" t="n">
+        <v>1887</v>
+      </c>
+      <c r="C743" s="5" t="n">
+        <v>44569</v>
+      </c>
+      <c r="D743" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E743" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B744" s="1" t="n">
+        <v>1888</v>
+      </c>
+      <c r="C744" s="5" t="n">
+        <v>44569</v>
+      </c>
+      <c r="D744" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E744" s="1" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A745" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B745" s="1" t="n">
+        <v>1893</v>
+      </c>
+      <c r="C745" s="5" t="n">
+        <v>44569</v>
+      </c>
+      <c r="D745" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E745" s="1" t="n">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B746" s="1" t="n">
+        <v>1894</v>
+      </c>
+      <c r="C746" s="5" t="n">
+        <v>44569</v>
+      </c>
+      <c r="D746" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E746" s="1" t="n">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A747" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B747" s="1" t="n">
+        <v>1895</v>
+      </c>
+      <c r="C747" s="5" t="n">
+        <v>44569</v>
+      </c>
+      <c r="D747" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E747" s="1" t="n">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A748" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B748" s="1" t="n">
+        <v>1896</v>
+      </c>
+      <c r="C748" s="5" t="n">
+        <v>44569</v>
+      </c>
+      <c r="D748" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B749" s="1" t="n">
+        <v>1897</v>
+      </c>
+      <c r="C749" s="5" t="n">
+        <v>44569</v>
+      </c>
+      <c r="D749" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E749" s="1" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A750" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B750" s="1" t="n">
+        <v>1899</v>
+      </c>
+      <c r="C750" s="5" t="n">
+        <v>44570</v>
+      </c>
+      <c r="D750" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E750" s="1" t="n">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B751" s="1" t="n">
+        <v>1901</v>
+      </c>
+      <c r="C751" s="5" t="n">
+        <v>44570</v>
+      </c>
+      <c r="D751" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A752" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B752" s="1" t="n">
+        <v>1908</v>
+      </c>
+      <c r="C752" s="5" t="n">
+        <v>44570</v>
+      </c>
+      <c r="D752" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E752" s="1" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B753" s="1" t="n">
+        <v>1909</v>
+      </c>
+      <c r="C753" s="5" t="n">
+        <v>44570</v>
+      </c>
+      <c r="D753" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E753" s="1" t="n">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B754" s="1" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C754" s="5" t="n">
+        <v>44570</v>
+      </c>
+      <c r="D754" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E754" s="1" t="n">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A755" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B755" s="1" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C755" s="5" t="n">
+        <v>44571</v>
+      </c>
+      <c r="D755" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A756" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B756" s="1" t="n">
+        <v>1931</v>
+      </c>
+      <c r="C756" s="5" t="n">
+        <v>44571</v>
+      </c>
+      <c r="D756" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A757" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B757" s="1" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C757" s="5" t="n">
+        <v>44571</v>
+      </c>
+      <c r="D757" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E757" s="1" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A758" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B758" s="1" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C758" s="5" t="n">
+        <v>44571</v>
+      </c>
+      <c r="D758" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E758" s="1" t="n">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A759" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B759" s="1" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C759" s="5" t="n">
+        <v>44571</v>
+      </c>
+      <c r="D759" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I759" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A760" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B760" s="1" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C760" s="5" t="n">
+        <v>44572</v>
+      </c>
+      <c r="D760" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A761" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B761" s="1" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C761" s="5" t="n">
+        <v>44572</v>
+      </c>
+      <c r="D761" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E761" s="1" t="n">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A762" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B762" s="1" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C762" s="5" t="n">
+        <v>44572</v>
+      </c>
+      <c r="D762" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E762" s="1" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A763" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B763" s="1" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C763" s="5" t="n">
+        <v>44572</v>
+      </c>
+      <c r="D763" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A764" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B764" s="1" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C764" s="5" t="n">
+        <v>44572</v>
+      </c>
+      <c r="D764" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A765" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B765" s="1" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C765" s="5" t="n">
+        <v>44572</v>
+      </c>
+      <c r="D765" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A766" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B766" s="1" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C766" s="5" t="n">
+        <v>44572</v>
+      </c>
+      <c r="D766" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E766" s="1" t="n">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A767" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B767" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C767" s="5" t="n">
+        <v>44573</v>
+      </c>
+      <c r="D767" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A768" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B768" s="1" t="n">
+        <v>2029</v>
+      </c>
+      <c r="C768" s="5" t="n">
+        <v>44573</v>
+      </c>
+      <c r="D768" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A769" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B769" s="1" t="n">
+        <v>2039</v>
+      </c>
+      <c r="C769" s="5" t="n">
+        <v>44573</v>
+      </c>
+      <c r="D769" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A770" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B770" s="1" t="n">
+        <v>2058</v>
+      </c>
+      <c r="C770" s="5" t="n">
+        <v>44573</v>
+      </c>
+      <c r="D770" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E770" s="1" t="n">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A771" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B771" s="1" t="n">
+        <v>2059</v>
+      </c>
+      <c r="C771" s="5" t="n">
+        <v>44573</v>
+      </c>
+      <c r="D771" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E771" s="1" t="n">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A772" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B772" s="1" t="n">
+        <v>2060</v>
+      </c>
+      <c r="C772" s="5" t="n">
+        <v>44573</v>
+      </c>
+      <c r="D772" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E772" s="1" t="n">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A773" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B773" s="1" t="n">
+        <v>2061</v>
+      </c>
+      <c r="C773" s="5" t="n">
+        <v>44573</v>
+      </c>
+      <c r="D773" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B774" s="1" t="n">
+        <v>2120</v>
+      </c>
+      <c r="C774" s="5" t="n">
+        <v>44574</v>
+      </c>
+      <c r="D774" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A775" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B775" s="1" t="n">
+        <v>2139</v>
+      </c>
+      <c r="C775" s="5" t="n">
+        <v>44574</v>
+      </c>
+      <c r="D775" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E775" s="1" t="n">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A776" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B776" s="1" t="n">
+        <v>2140</v>
+      </c>
+      <c r="C776" s="5" t="n">
+        <v>44574</v>
+      </c>
+      <c r="D776" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E776" s="1" t="n">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B777" s="1" t="n">
+        <v>2141</v>
+      </c>
+      <c r="C777" s="5" t="n">
+        <v>44574</v>
+      </c>
+      <c r="D777" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E777" s="1" t="n">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A778" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B778" s="1" t="n">
+        <v>2142</v>
+      </c>
+      <c r="C778" s="5" t="n">
+        <v>44574</v>
+      </c>
+      <c r="D778" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E778" s="1" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B779" s="1" t="n">
+        <v>2147</v>
+      </c>
+      <c r="C779" s="5" t="n">
+        <v>44574</v>
+      </c>
+      <c r="D779" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E779" s="1" t="n">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A780" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B780" s="1" t="n">
+        <v>2148</v>
+      </c>
+      <c r="C780" s="5" t="n">
+        <v>44574</v>
+      </c>
+      <c r="D780" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E780" s="1" t="n">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B781" s="1" t="n">
+        <v>2149</v>
+      </c>
+      <c r="C781" s="5" t="n">
+        <v>44574</v>
+      </c>
+      <c r="D781" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E781" s="1" t="n">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A782" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B782" s="1" t="n">
+        <v>2150</v>
+      </c>
+      <c r="C782" s="5" t="n">
+        <v>44574</v>
+      </c>
+      <c r="D782" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E782" s="1" t="n">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A783" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B783" s="1" t="n">
+        <v>2182</v>
+      </c>
+      <c r="C783" s="5" t="n">
+        <v>44575</v>
+      </c>
+      <c r="D783" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A784" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B784" s="1" t="n">
+        <v>2183</v>
+      </c>
+      <c r="C784" s="5" t="n">
+        <v>44575</v>
+      </c>
+      <c r="D784" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E784" s="1" t="n">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A785" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B785" s="1" t="n">
+        <v>2239</v>
+      </c>
+      <c r="C785" s="5" t="n">
+        <v>44575</v>
+      </c>
+      <c r="D785" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E785" s="1" t="n">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A786" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B786" s="1" t="n">
+        <v>2240</v>
+      </c>
+      <c r="C786" s="5" t="n">
+        <v>44575</v>
+      </c>
+      <c r="D786" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I786" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A787" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B787" s="1" t="n">
+        <v>2241</v>
+      </c>
+      <c r="C787" s="5" t="n">
+        <v>44575</v>
+      </c>
+      <c r="D787" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A788" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B788" s="1" t="n">
+        <v>2242</v>
+      </c>
+      <c r="C788" s="5" t="n">
+        <v>44575</v>
+      </c>
+      <c r="D788" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I788" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="32">
   <si>
     <t xml:space="preserve">num_matsue</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t xml:space="preserve">s1556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s2659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s2815</t>
   </si>
 </sst>
 </file>
@@ -247,13 +253,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J788"/>
+  <dimension ref="A1:J947"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.83"/>
@@ -13716,6 +13722,2649 @@
         <v>11</v>
       </c>
     </row>
+    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A789" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B789" s="1" t="n">
+        <v>2253</v>
+      </c>
+      <c r="C789" s="5" t="n">
+        <v>44576</v>
+      </c>
+      <c r="D789" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B790" s="1" t="n">
+        <v>2260</v>
+      </c>
+      <c r="C790" s="5" t="n">
+        <v>44576</v>
+      </c>
+      <c r="D790" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A791" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B791" s="1" t="n">
+        <v>2261</v>
+      </c>
+      <c r="C791" s="5" t="n">
+        <v>44576</v>
+      </c>
+      <c r="D791" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B792" s="1" t="n">
+        <v>2266</v>
+      </c>
+      <c r="C792" s="5" t="n">
+        <v>44576</v>
+      </c>
+      <c r="D792" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A793" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B793" s="1" t="n">
+        <v>2277</v>
+      </c>
+      <c r="C793" s="5" t="n">
+        <v>44576</v>
+      </c>
+      <c r="D793" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I793" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A794" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B794" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C794" s="5" t="n">
+        <v>44576</v>
+      </c>
+      <c r="D794" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I794" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A795" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B795" s="1" t="n">
+        <v>2340</v>
+      </c>
+      <c r="C795" s="5" t="n">
+        <v>44577</v>
+      </c>
+      <c r="D795" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E795" s="1" t="n">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A796" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B796" s="1" t="n">
+        <v>2341</v>
+      </c>
+      <c r="C796" s="5" t="n">
+        <v>44577</v>
+      </c>
+      <c r="D796" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E796" s="1" t="n">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A797" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B797" s="1" t="n">
+        <v>2344</v>
+      </c>
+      <c r="C797" s="5" t="n">
+        <v>44577</v>
+      </c>
+      <c r="D797" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A798" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B798" s="1" t="n">
+        <v>2345</v>
+      </c>
+      <c r="C798" s="5" t="n">
+        <v>44577</v>
+      </c>
+      <c r="D798" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A799" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B799" s="1" t="n">
+        <v>2350</v>
+      </c>
+      <c r="C799" s="5" t="n">
+        <v>44577</v>
+      </c>
+      <c r="D799" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A800" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B800" s="1" t="n">
+        <v>2353</v>
+      </c>
+      <c r="C800" s="5" t="n">
+        <v>44577</v>
+      </c>
+      <c r="D800" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A801" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B801" s="1" t="n">
+        <v>2354</v>
+      </c>
+      <c r="C801" s="5" t="n">
+        <v>44577</v>
+      </c>
+      <c r="D801" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A802" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B802" s="1" t="n">
+        <v>2366</v>
+      </c>
+      <c r="C802" s="5" t="n">
+        <v>44577</v>
+      </c>
+      <c r="D802" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E802" s="1" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A803" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B803" s="1" t="n">
+        <v>2367</v>
+      </c>
+      <c r="C803" s="5" t="n">
+        <v>44577</v>
+      </c>
+      <c r="D803" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E803" s="1" t="n">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A804" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B804" s="1" t="n">
+        <v>2368</v>
+      </c>
+      <c r="C804" s="5" t="n">
+        <v>44577</v>
+      </c>
+      <c r="D804" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A805" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B805" s="1" t="n">
+        <v>2369</v>
+      </c>
+      <c r="C805" s="5" t="n">
+        <v>44577</v>
+      </c>
+      <c r="D805" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A806" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B806" s="1" t="n">
+        <v>2378</v>
+      </c>
+      <c r="C806" s="5" t="n">
+        <v>44577</v>
+      </c>
+      <c r="D806" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A807" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B807" s="1" t="n">
+        <v>2456</v>
+      </c>
+      <c r="C807" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D807" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A808" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B808" s="1" t="n">
+        <v>2457</v>
+      </c>
+      <c r="C808" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D808" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E808" s="1" t="n">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A809" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B809" s="1" t="n">
+        <v>2461</v>
+      </c>
+      <c r="C809" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D809" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E809" s="1" t="n">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A810" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B810" s="1" t="n">
+        <v>2462</v>
+      </c>
+      <c r="C810" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D810" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A811" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B811" s="1" t="n">
+        <v>2463</v>
+      </c>
+      <c r="C811" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D811" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A812" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B812" s="1" t="n">
+        <v>2464</v>
+      </c>
+      <c r="C812" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D812" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A813" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B813" s="1" t="n">
+        <v>2465</v>
+      </c>
+      <c r="C813" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D813" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E813" s="1" t="n">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A814" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B814" s="1" t="n">
+        <v>2466</v>
+      </c>
+      <c r="C814" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D814" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E814" s="1" t="n">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B815" s="1" t="n">
+        <v>2467</v>
+      </c>
+      <c r="C815" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D815" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E815" s="1" t="n">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A816" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B816" s="1" t="n">
+        <v>2468</v>
+      </c>
+      <c r="C816" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D816" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E816" s="1" t="n">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A817" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B817" s="1" t="n">
+        <v>2493</v>
+      </c>
+      <c r="C817" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D817" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I817" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B818" s="1" t="n">
+        <v>2494</v>
+      </c>
+      <c r="C818" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D818" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B819" s="1" t="n">
+        <v>2495</v>
+      </c>
+      <c r="C819" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D819" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A820" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B820" s="1" t="n">
+        <v>2496</v>
+      </c>
+      <c r="C820" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D820" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B821" s="1" t="n">
+        <v>2508</v>
+      </c>
+      <c r="C821" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D821" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E821" s="1" t="n">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A822" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B822" s="1" t="n">
+        <v>2509</v>
+      </c>
+      <c r="C822" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D822" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E822" s="1" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A823" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B823" s="1" t="n">
+        <v>2510</v>
+      </c>
+      <c r="C823" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D823" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E823" s="1" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B824" s="1" t="n">
+        <v>2511</v>
+      </c>
+      <c r="C824" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D824" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E824" s="1" t="n">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A825" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B825" s="1" t="n">
+        <v>2512</v>
+      </c>
+      <c r="C825" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D825" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E825" s="1" t="n">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A826" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B826" s="1" t="n">
+        <v>2513</v>
+      </c>
+      <c r="C826" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D826" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E826" s="1" t="n">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A827" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B827" s="1" t="n">
+        <v>2514</v>
+      </c>
+      <c r="C827" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D827" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E827" s="1" t="n">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A828" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B828" s="1" t="n">
+        <v>2515</v>
+      </c>
+      <c r="C828" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D828" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E828" s="1" t="n">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A829" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B829" s="1" t="n">
+        <v>2516</v>
+      </c>
+      <c r="C829" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D829" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A830" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B830" s="1" t="n">
+        <v>2533</v>
+      </c>
+      <c r="C830" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D830" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E830" s="1" t="n">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A831" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B831" s="1" t="n">
+        <v>2534</v>
+      </c>
+      <c r="C831" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D831" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E831" s="1" t="n">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A832" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B832" s="1" t="n">
+        <v>2535</v>
+      </c>
+      <c r="C832" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D832" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A833" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B833" s="1" t="n">
+        <v>2545</v>
+      </c>
+      <c r="C833" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D833" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A834" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B834" s="1" t="n">
+        <v>2554</v>
+      </c>
+      <c r="C834" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D834" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E834" s="1" t="n">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A835" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B835" s="1" t="n">
+        <v>2574</v>
+      </c>
+      <c r="C835" s="5" t="n">
+        <v>44578</v>
+      </c>
+      <c r="D835" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A836" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B836" s="1" t="n">
+        <v>2608</v>
+      </c>
+      <c r="C836" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D836" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A837" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B837" s="1" t="n">
+        <v>2610</v>
+      </c>
+      <c r="C837" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D837" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I837" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A838" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B838" s="1" t="n">
+        <v>2613</v>
+      </c>
+      <c r="C838" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D838" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A839" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B839" s="1" t="n">
+        <v>2614</v>
+      </c>
+      <c r="C839" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D839" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A840" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B840" s="1" t="n">
+        <v>2615</v>
+      </c>
+      <c r="C840" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D840" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A841" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B841" s="1" t="n">
+        <v>2616</v>
+      </c>
+      <c r="C841" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D841" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A842" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B842" s="1" t="n">
+        <v>2617</v>
+      </c>
+      <c r="C842" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D842" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A843" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B843" s="1" t="n">
+        <v>2618</v>
+      </c>
+      <c r="C843" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D843" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A844" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B844" s="1" t="n">
+        <v>2619</v>
+      </c>
+      <c r="C844" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D844" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A845" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B845" s="1" t="n">
+        <v>2645</v>
+      </c>
+      <c r="C845" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D845" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A846" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B846" s="1" t="n">
+        <v>2652</v>
+      </c>
+      <c r="C846" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D846" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A847" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B847" s="1" t="n">
+        <v>2653</v>
+      </c>
+      <c r="C847" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D847" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E847" s="1" t="n">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A848" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B848" s="1" t="n">
+        <v>2654</v>
+      </c>
+      <c r="C848" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D848" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A849" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B849" s="1" t="n">
+        <v>2656</v>
+      </c>
+      <c r="C849" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D849" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A850" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B850" s="1" t="n">
+        <v>2657</v>
+      </c>
+      <c r="C850" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D850" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E850" s="1" t="n">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A851" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B851" s="1" t="n">
+        <v>2658</v>
+      </c>
+      <c r="C851" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D851" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A852" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B852" s="1" t="n">
+        <v>2672</v>
+      </c>
+      <c r="C852" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D852" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E852" s="1" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A853" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B853" s="1" t="n">
+        <v>2669</v>
+      </c>
+      <c r="C853" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D853" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A854" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B854" s="1" t="n">
+        <v>2678</v>
+      </c>
+      <c r="C854" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D854" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A855" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B855" s="1" t="n">
+        <v>2696</v>
+      </c>
+      <c r="C855" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D855" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E855" s="1" t="n">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A856" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B856" s="1" t="n">
+        <v>2697</v>
+      </c>
+      <c r="C856" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D856" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A857" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B857" s="1" t="n">
+        <v>2698</v>
+      </c>
+      <c r="C857" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D857" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E857" s="1" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A858" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B858" s="1" t="n">
+        <v>2699</v>
+      </c>
+      <c r="C858" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D858" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E858" s="1" t="n">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A859" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B859" s="1" t="n">
+        <v>2700</v>
+      </c>
+      <c r="C859" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D859" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E859" s="1" t="n">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A860" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B860" s="1" t="n">
+        <v>2701</v>
+      </c>
+      <c r="C860" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D860" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E860" s="1" t="n">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A861" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B861" s="1" t="n">
+        <v>2700</v>
+      </c>
+      <c r="C861" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D861" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E861" s="1" t="n">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A862" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B862" s="1" t="n">
+        <v>2701</v>
+      </c>
+      <c r="C862" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D862" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A863" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B863" s="1" t="n">
+        <v>2720</v>
+      </c>
+      <c r="C863" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D863" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E863" s="1" t="n">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A864" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B864" s="1" t="n">
+        <v>2722</v>
+      </c>
+      <c r="C864" s="5" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D864" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A865" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B865" s="1" t="n">
+        <v>2781</v>
+      </c>
+      <c r="C865" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D865" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E865" s="1" t="n">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A866" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B866" s="1" t="n">
+        <v>2782</v>
+      </c>
+      <c r="C866" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D866" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E866" s="1" t="n">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A867" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B867" s="1" t="n">
+        <v>2808</v>
+      </c>
+      <c r="C867" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D867" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A868" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B868" s="1" t="n">
+        <v>2834</v>
+      </c>
+      <c r="C868" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D868" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A869" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B869" s="1" t="n">
+        <v>2835</v>
+      </c>
+      <c r="C869" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D869" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A870" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B870" s="1" t="n">
+        <v>2849</v>
+      </c>
+      <c r="C870" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D870" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A871" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B871" s="1" t="n">
+        <v>2850</v>
+      </c>
+      <c r="C871" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D871" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A872" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B872" s="1" t="n">
+        <v>2855</v>
+      </c>
+      <c r="C872" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D872" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I872" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A873" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B873" s="1" t="n">
+        <v>2880</v>
+      </c>
+      <c r="C873" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D873" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A874" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B874" s="1" t="n">
+        <v>2881</v>
+      </c>
+      <c r="C874" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D874" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A875" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B875" s="1" t="n">
+        <v>2871</v>
+      </c>
+      <c r="C875" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D875" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E875" s="1" t="n">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A876" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B876" s="1" t="n">
+        <v>2872</v>
+      </c>
+      <c r="C876" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D876" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E876" s="1" t="n">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A877" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B877" s="1" t="n">
+        <v>2890</v>
+      </c>
+      <c r="C877" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D877" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E877" s="1" t="n">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A878" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="B878" s="1" t="n">
+        <v>2891</v>
+      </c>
+      <c r="C878" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D878" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E878" s="1" t="n">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A879" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="B879" s="1" t="n">
+        <v>2892</v>
+      </c>
+      <c r="C879" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D879" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E879" s="1" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A880" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="B880" s="1" t="n">
+        <v>2893</v>
+      </c>
+      <c r="C880" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D880" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E880" s="1" t="n">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A881" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B881" s="1" t="n">
+        <v>2894</v>
+      </c>
+      <c r="C881" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D881" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E881" s="1" t="n">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A882" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="B882" s="1" t="n">
+        <v>2917</v>
+      </c>
+      <c r="C882" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D882" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A883" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="B883" s="1" t="n">
+        <v>2918</v>
+      </c>
+      <c r="C883" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D883" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A884" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="B884" s="1" t="n">
+        <v>2936</v>
+      </c>
+      <c r="C884" s="5" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D884" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E884" s="1" t="n">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A885" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B885" s="1" t="n">
+        <v>2952</v>
+      </c>
+      <c r="C885" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D885" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A886" s="1" t="n">
+        <v>885</v>
+      </c>
+      <c r="B886" s="1" t="n">
+        <v>2957</v>
+      </c>
+      <c r="C886" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D886" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A887" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="B887" s="1" t="n">
+        <v>2959</v>
+      </c>
+      <c r="C887" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D887" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A888" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="B888" s="1" t="n">
+        <v>2960</v>
+      </c>
+      <c r="C888" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D888" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E888" s="1" t="n">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A889" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="B889" s="1" t="n">
+        <v>2961</v>
+      </c>
+      <c r="C889" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D889" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E889" s="1" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A890" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B890" s="1" t="n">
+        <v>2962</v>
+      </c>
+      <c r="C890" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D890" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E890" s="1" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A891" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B891" s="1" t="n">
+        <v>2982</v>
+      </c>
+      <c r="C891" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D891" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A892" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B892" s="1" t="n">
+        <v>2983</v>
+      </c>
+      <c r="C892" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D892" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E892" s="1" t="n">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A893" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="B893" s="1" t="n">
+        <v>2984</v>
+      </c>
+      <c r="C893" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D893" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E893" s="1" t="n">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A894" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="B894" s="1" t="n">
+        <v>3024</v>
+      </c>
+      <c r="C894" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D894" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A895" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="B895" s="1" t="n">
+        <v>3025</v>
+      </c>
+      <c r="C895" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D895" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A896" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="B896" s="1" t="n">
+        <v>3026</v>
+      </c>
+      <c r="C896" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D896" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A897" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B897" s="1" t="n">
+        <v>3027</v>
+      </c>
+      <c r="C897" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D897" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E897" s="1" t="n">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A898" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B898" s="1" t="n">
+        <v>3028</v>
+      </c>
+      <c r="C898" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D898" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E898" s="1" t="n">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A899" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="B899" s="1" t="n">
+        <v>3040</v>
+      </c>
+      <c r="C899" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D899" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A900" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B900" s="1" t="n">
+        <v>3041</v>
+      </c>
+      <c r="C900" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D900" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E900" s="1" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A901" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B901" s="1" t="n">
+        <v>3058</v>
+      </c>
+      <c r="C901" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D901" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E901" s="1" t="n">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A902" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B902" s="1" t="n">
+        <v>3059</v>
+      </c>
+      <c r="C902" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D902" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E902" s="1" t="n">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A903" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="B903" s="1" t="n">
+        <v>3060</v>
+      </c>
+      <c r="C903" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D903" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E903" s="1" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A904" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="B904" s="1" t="n">
+        <v>3061</v>
+      </c>
+      <c r="C904" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D904" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E904" s="1" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A905" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="B905" s="1" t="n">
+        <v>3096</v>
+      </c>
+      <c r="C905" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D905" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A906" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="B906" s="1" t="n">
+        <v>3089</v>
+      </c>
+      <c r="C906" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D906" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E906" s="1" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A907" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="B907" s="1" t="n">
+        <v>3097</v>
+      </c>
+      <c r="C907" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D907" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E907" s="1" t="n">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A908" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="B908" s="1" t="n">
+        <v>3118</v>
+      </c>
+      <c r="C908" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D908" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E908" s="1" t="n">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A909" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="B909" s="1" t="n">
+        <v>3119</v>
+      </c>
+      <c r="C909" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D909" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A910" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="B910" s="1" t="n">
+        <v>3123</v>
+      </c>
+      <c r="C910" s="5" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D910" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E910" s="1" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A911" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="B911" s="1" t="n">
+        <v>3150</v>
+      </c>
+      <c r="C911" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D911" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E911" s="1" t="n">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A912" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B912" s="1" t="n">
+        <v>3157</v>
+      </c>
+      <c r="C912" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D912" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A913" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B913" s="1" t="n">
+        <v>3163</v>
+      </c>
+      <c r="C913" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D913" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E913" s="1" t="n">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A914" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B914" s="1" t="n">
+        <v>3164</v>
+      </c>
+      <c r="C914" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D914" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A915" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B915" s="1" t="n">
+        <v>3165</v>
+      </c>
+      <c r="C915" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D915" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E915" s="1" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A916" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B916" s="1" t="n">
+        <v>3166</v>
+      </c>
+      <c r="C916" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D916" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A917" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B917" s="1" t="n">
+        <v>3167</v>
+      </c>
+      <c r="C917" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D917" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A918" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B918" s="1" t="n">
+        <v>3168</v>
+      </c>
+      <c r="C918" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D918" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I918" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A919" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B919" s="1" t="n">
+        <v>3174</v>
+      </c>
+      <c r="C919" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D919" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E919" s="1" t="n">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A920" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="B920" s="1" t="n">
+        <v>3175</v>
+      </c>
+      <c r="C920" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D920" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E920" s="1" t="n">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A921" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="B921" s="1" t="n">
+        <v>3176</v>
+      </c>
+      <c r="C921" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D921" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E921" s="1" t="n">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A922" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B922" s="1" t="n">
+        <v>3177</v>
+      </c>
+      <c r="C922" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D922" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A923" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B923" s="1" t="n">
+        <v>3178</v>
+      </c>
+      <c r="C923" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D923" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A924" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="B924" s="1" t="n">
+        <v>3179</v>
+      </c>
+      <c r="C924" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D924" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A925" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="B925" s="1" t="n">
+        <v>3182</v>
+      </c>
+      <c r="C925" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D925" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E925" s="1" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A926" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B926" s="1" t="n">
+        <v>3183</v>
+      </c>
+      <c r="C926" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D926" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E926" s="1" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A927" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B927" s="1" t="n">
+        <v>3196</v>
+      </c>
+      <c r="C927" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D927" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E927" s="1" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A928" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B928" s="1" t="n">
+        <v>3197</v>
+      </c>
+      <c r="C928" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D928" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A929" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="B929" s="1" t="n">
+        <v>3219</v>
+      </c>
+      <c r="C929" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D929" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E929" s="1" t="n">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A930" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B930" s="1" t="n">
+        <v>3220</v>
+      </c>
+      <c r="C930" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D930" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E930" s="1" t="n">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A931" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="B931" s="1" t="n">
+        <v>3221</v>
+      </c>
+      <c r="C931" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D931" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A932" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="B932" s="1" t="n">
+        <v>3222</v>
+      </c>
+      <c r="C932" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D932" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E932" s="1" t="n">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A933" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="B933" s="1" t="n">
+        <v>3223</v>
+      </c>
+      <c r="C933" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D933" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E933" s="1" t="n">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A934" s="1" t="n">
+        <v>933</v>
+      </c>
+      <c r="B934" s="1" t="n">
+        <v>3224</v>
+      </c>
+      <c r="C934" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D934" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E934" s="1" t="n">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A935" s="1" t="n">
+        <v>934</v>
+      </c>
+      <c r="B935" s="1" t="n">
+        <v>3225</v>
+      </c>
+      <c r="C935" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D935" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E935" s="1" t="n">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A936" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="B936" s="1" t="n">
+        <v>3226</v>
+      </c>
+      <c r="C936" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D936" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E936" s="1" t="n">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A937" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="B937" s="1" t="n">
+        <v>3238</v>
+      </c>
+      <c r="C937" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D937" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E937" s="1" t="n">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A938" s="1" t="n">
+        <v>937</v>
+      </c>
+      <c r="B938" s="1" t="n">
+        <v>3249</v>
+      </c>
+      <c r="C938" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D938" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E938" s="1" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A939" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="B939" s="1" t="n">
+        <v>3250</v>
+      </c>
+      <c r="C939" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D939" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E939" s="1" t="n">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A940" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="B940" s="1" t="n">
+        <v>3251</v>
+      </c>
+      <c r="C940" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D940" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E940" s="1" t="n">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A941" s="1" t="n">
+        <v>940</v>
+      </c>
+      <c r="B941" s="1" t="n">
+        <v>3252</v>
+      </c>
+      <c r="C941" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D941" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A942" s="1" t="n">
+        <v>941</v>
+      </c>
+      <c r="B942" s="1" t="n">
+        <v>3253</v>
+      </c>
+      <c r="C942" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D942" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A943" s="1" t="n">
+        <v>942</v>
+      </c>
+      <c r="B943" s="1" t="n">
+        <v>3254</v>
+      </c>
+      <c r="C943" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D943" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E943" s="1" t="n">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A944" s="1" t="n">
+        <v>943</v>
+      </c>
+      <c r="B944" s="1" t="n">
+        <v>3256</v>
+      </c>
+      <c r="C944" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D944" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A945" s="1" t="n">
+        <v>944</v>
+      </c>
+      <c r="B945" s="1" t="n">
+        <v>3278</v>
+      </c>
+      <c r="C945" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D945" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A946" s="1" t="n">
+        <v>945</v>
+      </c>
+      <c r="B946" s="1" t="n">
+        <v>3280</v>
+      </c>
+      <c r="C946" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D946" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E946" s="1" t="n">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A947" s="1" t="n">
+        <v>946</v>
+      </c>
+      <c r="B947" s="1" t="n">
+        <v>3281</v>
+      </c>
+      <c r="C947" s="5" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D947" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E947" s="1" t="n">
+        <v>904</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="36">
   <si>
     <t xml:space="preserve">num_matsue</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t xml:space="preserve">s2815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s3440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s3286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s3300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s3720</t>
   </si>
 </sst>
 </file>
@@ -253,13 +265,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J947"/>
+  <dimension ref="A1:J1145"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.83"/>
@@ -16365,6 +16377,3368 @@
         <v>904</v>
       </c>
     </row>
+    <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A948" s="1" t="n">
+        <v>947</v>
+      </c>
+      <c r="B948" s="1" t="n">
+        <v>3330</v>
+      </c>
+      <c r="C948" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D948" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E948" s="1" t="n">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A949" s="1" t="n">
+        <v>948</v>
+      </c>
+      <c r="B949" s="1" t="n">
+        <v>3331</v>
+      </c>
+      <c r="C949" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D949" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E949" s="1" t="n">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A950" s="1" t="n">
+        <v>949</v>
+      </c>
+      <c r="B950" s="1" t="n">
+        <v>3332</v>
+      </c>
+      <c r="C950" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D950" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E950" s="1" t="n">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A951" s="1" t="n">
+        <v>950</v>
+      </c>
+      <c r="B951" s="1" t="n">
+        <v>3333</v>
+      </c>
+      <c r="C951" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D951" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E951" s="1" t="n">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A952" s="1" t="n">
+        <v>951</v>
+      </c>
+      <c r="B952" s="1" t="n">
+        <v>3334</v>
+      </c>
+      <c r="C952" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D952" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E952" s="1" t="n">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A953" s="1" t="n">
+        <v>952</v>
+      </c>
+      <c r="B953" s="1" t="n">
+        <v>3335</v>
+      </c>
+      <c r="C953" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D953" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A954" s="1" t="n">
+        <v>953</v>
+      </c>
+      <c r="B954" s="1" t="n">
+        <v>3336</v>
+      </c>
+      <c r="C954" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D954" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E954" s="1" t="n">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A955" s="1" t="n">
+        <v>954</v>
+      </c>
+      <c r="B955" s="1" t="n">
+        <v>3343</v>
+      </c>
+      <c r="C955" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D955" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E955" s="1" t="n">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A956" s="1" t="n">
+        <v>955</v>
+      </c>
+      <c r="B956" s="1" t="n">
+        <v>3350</v>
+      </c>
+      <c r="C956" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D956" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A957" s="1" t="n">
+        <v>956</v>
+      </c>
+      <c r="B957" s="1" t="n">
+        <v>3351</v>
+      </c>
+      <c r="C957" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D957" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E957" s="1" t="n">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A958" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="B958" s="1" t="n">
+        <v>3365</v>
+      </c>
+      <c r="C958" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D958" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E958" s="1" t="n">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A959" s="1" t="n">
+        <v>958</v>
+      </c>
+      <c r="B959" s="1" t="n">
+        <v>3368</v>
+      </c>
+      <c r="C959" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D959" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E959" s="1" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A960" s="1" t="n">
+        <v>959</v>
+      </c>
+      <c r="B960" s="1" t="n">
+        <v>3369</v>
+      </c>
+      <c r="C960" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D960" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E960" s="1" t="n">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A961" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="B961" s="1" t="n">
+        <v>3370</v>
+      </c>
+      <c r="C961" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D961" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E961" s="1" t="n">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A962" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="B962" s="1" t="n">
+        <v>3371</v>
+      </c>
+      <c r="C962" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D962" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E962" s="1" t="n">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A963" s="1" t="n">
+        <v>962</v>
+      </c>
+      <c r="B963" s="1" t="n">
+        <v>3372</v>
+      </c>
+      <c r="C963" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D963" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E963" s="1" t="n">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A964" s="1" t="n">
+        <v>963</v>
+      </c>
+      <c r="B964" s="1" t="n">
+        <v>3373</v>
+      </c>
+      <c r="C964" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D964" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E964" s="1" t="n">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A965" s="1" t="n">
+        <v>964</v>
+      </c>
+      <c r="B965" s="1" t="n">
+        <v>3374</v>
+      </c>
+      <c r="C965" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D965" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A966" s="1" t="n">
+        <v>965</v>
+      </c>
+      <c r="B966" s="1" t="n">
+        <v>3375</v>
+      </c>
+      <c r="C966" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D966" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A967" s="1" t="n">
+        <v>966</v>
+      </c>
+      <c r="B967" s="1" t="n">
+        <v>3395</v>
+      </c>
+      <c r="C967" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D967" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E967" s="1" t="n">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A968" s="1" t="n">
+        <v>967</v>
+      </c>
+      <c r="B968" s="1" t="n">
+        <v>3413</v>
+      </c>
+      <c r="C968" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D968" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A969" s="1" t="n">
+        <v>968</v>
+      </c>
+      <c r="B969" s="1" t="n">
+        <v>3414</v>
+      </c>
+      <c r="C969" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D969" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I969" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A970" s="1" t="n">
+        <v>969</v>
+      </c>
+      <c r="B970" s="1" t="n">
+        <v>3428</v>
+      </c>
+      <c r="C970" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D970" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E970" s="1" t="n">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A971" s="1" t="n">
+        <v>970</v>
+      </c>
+      <c r="B971" s="1" t="n">
+        <v>3429</v>
+      </c>
+      <c r="C971" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D971" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E971" s="1" t="n">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A972" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="B972" s="1" t="n">
+        <v>3430</v>
+      </c>
+      <c r="C972" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D972" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E972" s="1" t="n">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A973" s="1" t="n">
+        <v>972</v>
+      </c>
+      <c r="B973" s="1" t="n">
+        <v>3431</v>
+      </c>
+      <c r="C973" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D973" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E973" s="1" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A974" s="1" t="n">
+        <v>973</v>
+      </c>
+      <c r="B974" s="1" t="n">
+        <v>3432</v>
+      </c>
+      <c r="C974" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D974" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E974" s="1" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A975" s="1" t="n">
+        <v>974</v>
+      </c>
+      <c r="B975" s="1" t="n">
+        <v>3425</v>
+      </c>
+      <c r="C975" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D975" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E975" s="1" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A976" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="B976" s="1" t="n">
+        <v>3426</v>
+      </c>
+      <c r="C976" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D976" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E976" s="1" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A977" s="1" t="n">
+        <v>976</v>
+      </c>
+      <c r="B977" s="1" t="n">
+        <v>3427</v>
+      </c>
+      <c r="C977" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D977" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E977" s="1" t="n">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A978" s="1" t="n">
+        <v>977</v>
+      </c>
+      <c r="B978" s="1" t="n">
+        <v>3428</v>
+      </c>
+      <c r="C978" s="5" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D978" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="B979" s="1" t="n">
+        <v>3450</v>
+      </c>
+      <c r="C979" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D979" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E979" s="1" t="n">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A980" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="B980" s="1" t="n">
+        <v>3451</v>
+      </c>
+      <c r="C980" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D980" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A981" s="1" t="n">
+        <v>980</v>
+      </c>
+      <c r="B981" s="1" t="n">
+        <v>3461</v>
+      </c>
+      <c r="C981" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D981" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E981" s="1" t="n">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A982" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="B982" s="1" t="n">
+        <v>3462</v>
+      </c>
+      <c r="C982" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D982" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E982" s="1" t="n">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A983" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="B983" s="1" t="n">
+        <v>3482</v>
+      </c>
+      <c r="C983" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D983" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A984" s="1" t="n">
+        <v>983</v>
+      </c>
+      <c r="B984" s="1" t="n">
+        <v>3483</v>
+      </c>
+      <c r="C984" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D984" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E984" s="1" t="n">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A985" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="B985" s="1" t="n">
+        <v>3484</v>
+      </c>
+      <c r="C985" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D985" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E985" s="1" t="n">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A986" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B986" s="1" t="n">
+        <v>3492</v>
+      </c>
+      <c r="C986" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D986" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E986" s="1" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A987" s="1" t="n">
+        <v>986</v>
+      </c>
+      <c r="B987" s="1" t="n">
+        <v>3493</v>
+      </c>
+      <c r="C987" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D987" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E987" s="1" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A988" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="B988" s="1" t="n">
+        <v>3494</v>
+      </c>
+      <c r="C988" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D988" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E988" s="1" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A989" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="B989" s="1" t="n">
+        <v>3495</v>
+      </c>
+      <c r="C989" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D989" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E989" s="1" t="n">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A990" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="B990" s="1" t="n">
+        <v>3496</v>
+      </c>
+      <c r="C990" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D990" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E990" s="1" t="n">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A991" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="B991" s="1" t="n">
+        <v>3497</v>
+      </c>
+      <c r="C991" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D991" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E991" s="1" t="n">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A992" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="B992" s="1" t="n">
+        <v>3498</v>
+      </c>
+      <c r="C992" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D992" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E992" s="1" t="n">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A993" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B993" s="1" t="n">
+        <v>3499</v>
+      </c>
+      <c r="C993" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D993" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E993" s="1" t="n">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A994" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="B994" s="1" t="n">
+        <v>3501</v>
+      </c>
+      <c r="C994" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D994" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A995" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="B995" s="1" t="n">
+        <v>3502</v>
+      </c>
+      <c r="C995" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D995" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A996" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B996" s="1" t="n">
+        <v>3513</v>
+      </c>
+      <c r="C996" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D996" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A997" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="B997" s="1" t="n">
+        <v>3514</v>
+      </c>
+      <c r="C997" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D997" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E997" s="1" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A998" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="B998" s="1" t="n">
+        <v>3530</v>
+      </c>
+      <c r="C998" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D998" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E998" s="1" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A999" s="1" t="n">
+        <v>998</v>
+      </c>
+      <c r="B999" s="1" t="n">
+        <v>3531</v>
+      </c>
+      <c r="C999" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D999" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E999" s="1" t="n">
+        <v>973</v>
+      </c>
+      <c r="I999" s="0"/>
+    </row>
+    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1000" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1000" s="1" t="n">
+        <v>3532</v>
+      </c>
+      <c r="C1000" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D1000" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1000" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="I1000" s="0"/>
+    </row>
+    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1001" s="1" t="n">
+        <v>3540</v>
+      </c>
+      <c r="C1001" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D1001" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I1001" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1002" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1002" s="1" t="n">
+        <v>3541</v>
+      </c>
+      <c r="C1002" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D1002" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1002" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1003" s="1" t="n">
+        <v>3542</v>
+      </c>
+      <c r="C1003" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D1003" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1003" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1004" s="1" t="n">
+        <v>3543</v>
+      </c>
+      <c r="C1004" s="5" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D1004" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1004" s="1" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1005" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1005" s="1" t="n">
+        <v>3566</v>
+      </c>
+      <c r="C1005" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1005" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1005" s="1" t="n">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1006" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1006" s="1" t="n">
+        <v>3573</v>
+      </c>
+      <c r="C1006" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1006" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1006" s="1" t="n">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1007" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1007" s="1" t="n">
+        <v>3574</v>
+      </c>
+      <c r="C1007" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1007" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1008" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1008" s="1" t="n">
+        <v>3575</v>
+      </c>
+      <c r="C1008" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1008" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1008" s="1" t="n">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1009" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1009" s="1" t="n">
+        <v>3576</v>
+      </c>
+      <c r="C1009" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1009" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1009" s="1" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1010" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1010" s="1" t="n">
+        <v>3577</v>
+      </c>
+      <c r="C1010" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1010" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1010" s="1" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1011" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1011" s="1" t="n">
+        <v>3578</v>
+      </c>
+      <c r="C1011" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1011" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1011" s="1" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1012" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1012" s="1" t="n">
+        <v>3579</v>
+      </c>
+      <c r="C1012" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1012" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1012" s="1" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1013" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1013" s="1" t="n">
+        <v>3580</v>
+      </c>
+      <c r="C1013" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1013" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1013" s="1" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1014" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1014" s="1" t="n">
+        <v>3588</v>
+      </c>
+      <c r="C1014" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1014" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1014" s="1" t="n">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1015" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1015" s="1" t="n">
+        <v>3589</v>
+      </c>
+      <c r="C1015" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1015" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1015" s="1" t="n">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1016" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1016" s="1" t="n">
+        <v>3590</v>
+      </c>
+      <c r="C1016" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1016" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1016" s="1" t="n">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1017" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1017" s="1" t="n">
+        <v>3593</v>
+      </c>
+      <c r="C1017" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1017" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1017" s="1" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1018" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1018" s="1" t="n">
+        <v>3601</v>
+      </c>
+      <c r="C1018" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1018" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1018" s="1" t="n">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1019" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1019" s="1" t="n">
+        <v>3602</v>
+      </c>
+      <c r="C1019" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1019" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1019" s="1" t="n">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1020" s="1" t="n">
+        <v>3603</v>
+      </c>
+      <c r="C1020" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1020" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1020" s="1" t="n">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1021" s="1" t="n">
+        <v>3604</v>
+      </c>
+      <c r="C1021" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1021" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1022" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1022" s="1" t="n">
+        <v>3618</v>
+      </c>
+      <c r="C1022" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1022" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1023" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1023" s="1" t="n">
+        <v>3619</v>
+      </c>
+      <c r="C1023" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1023" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1024" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1024" s="1" t="n">
+        <v>3625</v>
+      </c>
+      <c r="C1024" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1024" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1025" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1025" s="1" t="n">
+        <v>3626</v>
+      </c>
+      <c r="C1025" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1025" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1026" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1026" s="1" t="n">
+        <v>3632</v>
+      </c>
+      <c r="C1026" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1026" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1026" s="1" t="n">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1027" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B1027" s="1" t="n">
+        <v>3633</v>
+      </c>
+      <c r="C1027" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1027" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1027" s="1" t="n">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1028" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B1028" s="1" t="n">
+        <v>3634</v>
+      </c>
+      <c r="C1028" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1028" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1028" s="1" t="n">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1029" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B1029" s="1" t="n">
+        <v>3635</v>
+      </c>
+      <c r="C1029" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1029" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1029" s="1" t="n">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1030" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B1030" s="1" t="n">
+        <v>3636</v>
+      </c>
+      <c r="C1030" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1030" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1030" s="1" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1031" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B1031" s="1" t="n">
+        <v>3639</v>
+      </c>
+      <c r="C1031" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1031" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1032" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B1032" s="1" t="n">
+        <v>3662</v>
+      </c>
+      <c r="C1032" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1032" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1033" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B1033" s="1" t="n">
+        <v>3663</v>
+      </c>
+      <c r="C1033" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1033" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1034" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1034" s="1" t="n">
+        <v>3664</v>
+      </c>
+      <c r="C1034" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1034" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1034" s="1" t="n">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1035" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1035" s="1" t="n">
+        <v>3665</v>
+      </c>
+      <c r="C1035" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1035" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1036" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B1036" s="1" t="n">
+        <v>3666</v>
+      </c>
+      <c r="C1036" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1036" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1037" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B1037" s="1" t="n">
+        <v>3676</v>
+      </c>
+      <c r="C1037" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1037" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1038" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B1038" s="1" t="n">
+        <v>3687</v>
+      </c>
+      <c r="C1038" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1038" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1039" s="1" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B1039" s="1" t="n">
+        <v>3690</v>
+      </c>
+      <c r="C1039" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1039" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1039" s="1" t="n">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1040" s="1" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B1040" s="1" t="n">
+        <v>3691</v>
+      </c>
+      <c r="C1040" s="5" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D1040" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1041" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B1041" s="1" t="n">
+        <v>3703</v>
+      </c>
+      <c r="C1041" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1041" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1042" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B1042" s="1" t="n">
+        <v>3705</v>
+      </c>
+      <c r="C1042" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1042" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1043" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B1043" s="1" t="n">
+        <v>3706</v>
+      </c>
+      <c r="C1043" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1043" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1043" s="1" t="n">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1044" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B1044" s="1" t="n">
+        <v>3708</v>
+      </c>
+      <c r="C1044" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1044" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1044" s="1" t="n">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1045" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B1045" s="1" t="n">
+        <v>3709</v>
+      </c>
+      <c r="C1045" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1045" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1045" s="1" t="n">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1046" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B1046" s="1" t="n">
+        <v>3721</v>
+      </c>
+      <c r="C1046" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1046" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1047" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B1047" s="1" t="n">
+        <v>3722</v>
+      </c>
+      <c r="C1047" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1047" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1048" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B1048" s="1" t="n">
+        <v>3732</v>
+      </c>
+      <c r="C1048" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1048" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1049" s="1" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B1049" s="1" t="n">
+        <v>3733</v>
+      </c>
+      <c r="C1049" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1049" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1050" s="1" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B1050" s="1" t="n">
+        <v>3739</v>
+      </c>
+      <c r="C1050" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1050" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1050" s="1" t="n">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1051" s="1" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B1051" s="1" t="n">
+        <v>3743</v>
+      </c>
+      <c r="C1051" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1051" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1051" s="1" t="n">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1052" s="1" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B1052" s="1" t="n">
+        <v>3744</v>
+      </c>
+      <c r="C1052" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1052" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1052" s="1" t="n">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1053" s="1" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B1053" s="1" t="n">
+        <v>3755</v>
+      </c>
+      <c r="C1053" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1053" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1054" s="1" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B1054" s="1" t="n">
+        <v>3756</v>
+      </c>
+      <c r="C1054" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1054" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1055" s="1" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B1055" s="1" t="n">
+        <v>3762</v>
+      </c>
+      <c r="C1055" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1055" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1055" s="1" t="n">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1056" s="1" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B1056" s="1" t="n">
+        <v>3763</v>
+      </c>
+      <c r="C1056" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1056" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1056" s="1" t="n">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1057" s="1" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B1057" s="1" t="n">
+        <v>3764</v>
+      </c>
+      <c r="C1057" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1057" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1057" s="1" t="n">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1058" s="1" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B1058" s="1" t="n">
+        <v>3765</v>
+      </c>
+      <c r="C1058" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1058" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1059" s="1" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B1059" s="1" t="n">
+        <v>3776</v>
+      </c>
+      <c r="C1059" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1059" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1059" s="1" t="n">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1060" s="1" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B1060" s="1" t="n">
+        <v>3777</v>
+      </c>
+      <c r="C1060" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1060" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1060" s="1" t="n">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1061" s="1" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B1061" s="1" t="n">
+        <v>3778</v>
+      </c>
+      <c r="C1061" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1061" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1061" s="1" t="n">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1062" s="1" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B1062" s="1" t="n">
+        <v>3779</v>
+      </c>
+      <c r="C1062" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1062" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1062" s="1" t="n">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1063" s="1" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B1063" s="1" t="n">
+        <v>3780</v>
+      </c>
+      <c r="C1063" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1063" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1063" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1064" s="1" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B1064" s="1" t="n">
+        <v>3781</v>
+      </c>
+      <c r="C1064" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1064" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1064" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1065" s="1" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B1065" s="1" t="n">
+        <v>3782</v>
+      </c>
+      <c r="C1065" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1065" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1065" s="1" t="n">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1066" s="1" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B1066" s="1" t="n">
+        <v>3783</v>
+      </c>
+      <c r="C1066" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1066" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1066" s="1" t="n">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1067" s="1" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B1067" s="1" t="n">
+        <v>3784</v>
+      </c>
+      <c r="C1067" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1067" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1067" s="1" t="n">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1068" s="1" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B1068" s="1" t="n">
+        <v>3785</v>
+      </c>
+      <c r="C1068" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1068" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1068" s="1" t="n">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1069" s="1" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B1069" s="1" t="n">
+        <v>3786</v>
+      </c>
+      <c r="C1069" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1069" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1069" s="1" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1070" s="1" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B1070" s="1" t="n">
+        <v>3787</v>
+      </c>
+      <c r="C1070" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1070" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1070" s="1" t="n">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1071" s="1" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B1071" s="1" t="n">
+        <v>3788</v>
+      </c>
+      <c r="C1071" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1071" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1071" s="1" t="n">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1072" s="1" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B1072" s="1" t="n">
+        <v>3791</v>
+      </c>
+      <c r="C1072" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1072" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1073" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B1073" s="1" t="n">
+        <v>3810</v>
+      </c>
+      <c r="C1073" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1073" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1074" s="1" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B1074" s="1" t="n">
+        <v>3818</v>
+      </c>
+      <c r="C1074" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1074" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1075" s="1" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B1075" s="1" t="n">
+        <v>3824</v>
+      </c>
+      <c r="C1075" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1075" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1075" s="1" t="n">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1076" s="1" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B1076" s="1" t="n">
+        <v>3825</v>
+      </c>
+      <c r="C1076" s="5" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D1076" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1076" s="1" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1077" s="1" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B1077" s="1" t="n">
+        <v>3827</v>
+      </c>
+      <c r="C1077" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1077" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1078" s="1" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B1078" s="1" t="n">
+        <v>3843</v>
+      </c>
+      <c r="C1078" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1078" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1078" s="1" t="n">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1079" s="1" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B1079" s="1" t="n">
+        <v>3844</v>
+      </c>
+      <c r="C1079" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1079" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1079" s="1" t="n">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1080" s="1" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B1080" s="1" t="n">
+        <v>3845</v>
+      </c>
+      <c r="C1080" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1080" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1080" s="1" t="n">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1081" s="1" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B1081" s="1" t="n">
+        <v>3860</v>
+      </c>
+      <c r="C1081" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1081" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1082" s="1" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1082" s="1" t="n">
+        <v>3861</v>
+      </c>
+      <c r="C1082" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1082" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1082" s="1" t="n">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1083" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1083" s="1" t="n">
+        <v>3862</v>
+      </c>
+      <c r="C1083" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1083" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1084" s="1" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B1084" s="1" t="n">
+        <v>3867</v>
+      </c>
+      <c r="C1084" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1084" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1085" s="1" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B1085" s="1" t="n">
+        <v>3868</v>
+      </c>
+      <c r="C1085" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1085" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1086" s="1" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1086" s="1" t="n">
+        <v>3869</v>
+      </c>
+      <c r="C1086" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1086" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1086" s="1" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1087" s="1" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1087" s="1" t="n">
+        <v>3877</v>
+      </c>
+      <c r="C1087" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1087" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1088" s="1" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B1088" s="1" t="n">
+        <v>3878</v>
+      </c>
+      <c r="C1088" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1088" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1089" s="1" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B1089" s="1" t="n">
+        <v>3887</v>
+      </c>
+      <c r="C1089" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1089" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1089" s="1" t="n">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1090" s="1" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B1090" s="1" t="n">
+        <v>3888</v>
+      </c>
+      <c r="C1090" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1090" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1090" s="1" t="n">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1091" s="1" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B1091" s="1" t="n">
+        <v>3889</v>
+      </c>
+      <c r="C1091" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1091" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1091" s="1" t="n">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1092" s="1" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B1092" s="1" t="n">
+        <v>3890</v>
+      </c>
+      <c r="C1092" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1092" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1092" s="1" t="n">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1093" s="1" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B1093" s="1" t="n">
+        <v>3891</v>
+      </c>
+      <c r="C1093" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1093" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1093" s="1" t="n">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1094" s="1" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B1094" s="1" t="n">
+        <v>3892</v>
+      </c>
+      <c r="C1094" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1094" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1094" s="1" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1095" s="1" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B1095" s="1" t="n">
+        <v>3898</v>
+      </c>
+      <c r="C1095" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1095" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1096" s="1" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B1096" s="1" t="n">
+        <v>3899</v>
+      </c>
+      <c r="C1096" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1096" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1097" s="1" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B1097" s="1" t="n">
+        <v>3901</v>
+      </c>
+      <c r="C1097" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1097" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1097" s="1" t="n">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1098" s="1" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B1098" s="1" t="n">
+        <v>3902</v>
+      </c>
+      <c r="C1098" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1098" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1098" s="1" t="n">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1099" s="1" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B1099" s="1" t="n">
+        <v>3903</v>
+      </c>
+      <c r="C1099" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1099" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1099" s="1" t="n">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1100" s="1" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B1100" s="1" t="n">
+        <v>3918</v>
+      </c>
+      <c r="C1100" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1100" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1101" s="1" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B1101" s="1" t="n">
+        <v>3919</v>
+      </c>
+      <c r="C1101" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1101" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1102" s="1" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B1102" s="1" t="n">
+        <v>3920</v>
+      </c>
+      <c r="C1102" s="5" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D1102" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1103" s="1" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B1103" s="1" t="n">
+        <v>3942</v>
+      </c>
+      <c r="C1103" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1103" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1103" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1104" s="1" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B1104" s="1" t="n">
+        <v>3943</v>
+      </c>
+      <c r="C1104" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1104" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1105" s="1" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B1105" s="1" t="n">
+        <v>3944</v>
+      </c>
+      <c r="C1105" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1105" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1106" s="1" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B1106" s="1" t="n">
+        <v>3945</v>
+      </c>
+      <c r="C1106" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1106" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1106" s="1" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1107" s="1" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B1107" s="1" t="n">
+        <v>3946</v>
+      </c>
+      <c r="C1107" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1107" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1107" s="1" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1108" s="1" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B1108" s="1" t="n">
+        <v>3948</v>
+      </c>
+      <c r="C1108" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1108" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1108" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1109" s="1" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B1109" s="1" t="n">
+        <v>3949</v>
+      </c>
+      <c r="C1109" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1109" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1109" s="1" t="n">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1110" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B1110" s="1" t="n">
+        <v>3955</v>
+      </c>
+      <c r="C1110" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1110" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1111" s="1" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B1111" s="1" t="n">
+        <v>3959</v>
+      </c>
+      <c r="C1111" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1111" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1111" s="1" t="n">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1112" s="1" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B1112" s="1" t="n">
+        <v>3960</v>
+      </c>
+      <c r="C1112" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1112" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1112" s="1" t="n">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1113" s="1" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B1113" s="1" t="n">
+        <v>3961</v>
+      </c>
+      <c r="C1113" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1113" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1114" s="1" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B1114" s="1" t="n">
+        <v>3963</v>
+      </c>
+      <c r="C1114" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1114" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1115" s="1" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B1115" s="1" t="n">
+        <v>3966</v>
+      </c>
+      <c r="C1115" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1115" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1115" s="1" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1116" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B1116" s="1" t="n">
+        <v>3967</v>
+      </c>
+      <c r="C1116" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1116" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1117" s="1" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B1117" s="1" t="n">
+        <v>3973</v>
+      </c>
+      <c r="C1117" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1117" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1117" s="1" t="n">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1118" s="1" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B1118" s="1" t="n">
+        <v>3974</v>
+      </c>
+      <c r="C1118" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1118" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1118" s="1" t="n">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1119" s="1" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B1119" s="1" t="n">
+        <v>3980</v>
+      </c>
+      <c r="C1119" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1119" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1119" s="1" t="n">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1120" s="1" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B1120" s="1" t="n">
+        <v>3981</v>
+      </c>
+      <c r="C1120" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1120" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1120" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1121" s="1" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B1121" s="1" t="n">
+        <v>3982</v>
+      </c>
+      <c r="C1121" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1121" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1121" s="1" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1122" s="1" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B1122" s="1" t="n">
+        <v>3983</v>
+      </c>
+      <c r="C1122" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1122" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1122" s="1" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1123" s="1" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B1123" s="1" t="n">
+        <v>3984</v>
+      </c>
+      <c r="C1123" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1123" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1124" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B1124" s="1" t="n">
+        <v>3985</v>
+      </c>
+      <c r="C1124" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1124" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1124" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1125" s="1" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B1125" s="1" t="n">
+        <v>3997</v>
+      </c>
+      <c r="C1125" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1125" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1125" s="1" t="n">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1126" s="1" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B1126" s="1" t="n">
+        <v>4005</v>
+      </c>
+      <c r="C1126" s="5" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D1126" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1127" s="1" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B1127" s="1" t="n">
+        <v>3947</v>
+      </c>
+      <c r="C1127" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1127" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1127" s="1" t="n">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1128" s="1" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B1128" s="1" t="n">
+        <v>4007</v>
+      </c>
+      <c r="C1128" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1128" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1129" s="1" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B1129" s="1" t="n">
+        <v>4012</v>
+      </c>
+      <c r="C1129" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1129" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1130" s="1" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B1130" s="1" t="n">
+        <v>4014</v>
+      </c>
+      <c r="C1130" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1130" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1131" s="1" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B1131" s="1" t="n">
+        <v>4018</v>
+      </c>
+      <c r="C1131" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1131" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1132" s="1" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B1132" s="1" t="n">
+        <v>4022</v>
+      </c>
+      <c r="C1132" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1132" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1132" s="1" t="n">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1133" s="1" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B1133" s="1" t="n">
+        <v>4029</v>
+      </c>
+      <c r="C1133" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1133" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1134" s="1" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B1134" s="1" t="n">
+        <v>4030</v>
+      </c>
+      <c r="C1134" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1134" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1135" s="1" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B1135" s="1" t="n">
+        <v>4031</v>
+      </c>
+      <c r="C1135" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1135" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1136" s="1" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B1136" s="1" t="n">
+        <v>4037</v>
+      </c>
+      <c r="C1136" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1136" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1137" s="1" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B1137" s="1" t="n">
+        <v>4038</v>
+      </c>
+      <c r="C1137" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1137" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1138" s="1" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B1138" s="1" t="n">
+        <v>4039</v>
+      </c>
+      <c r="C1138" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1138" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1139" s="1" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B1139" s="1" t="n">
+        <v>4040</v>
+      </c>
+      <c r="C1139" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1139" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1140" s="1" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B1140" s="1" t="n">
+        <v>4042</v>
+      </c>
+      <c r="C1140" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1140" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1140" s="1" t="n">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1141" s="1" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B1141" s="1" t="n">
+        <v>4043</v>
+      </c>
+      <c r="C1141" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1141" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1141" s="1" t="n">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1142" s="1" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B1142" s="1" t="n">
+        <v>4044</v>
+      </c>
+      <c r="C1142" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1142" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1142" s="1" t="n">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1143" s="1" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B1143" s="1" t="n">
+        <v>4045</v>
+      </c>
+      <c r="C1143" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1143" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1143" s="1" t="n">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1144" s="1" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B1144" s="1" t="n">
+        <v>4046</v>
+      </c>
+      <c r="C1144" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1144" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1144" s="1" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1145" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B1145" s="1" t="n">
+        <v>4047</v>
+      </c>
+      <c r="C1145" s="5" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D1145" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1145" s="1" t="n">
+        <v>1037</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="37">
   <si>
     <t xml:space="preserve">num_matsue</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">s3720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s4240</t>
   </si>
 </sst>
 </file>
@@ -265,13 +268,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1145"/>
+  <dimension ref="A1:J1318"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.83"/>
@@ -19739,6 +19742,2904 @@
         <v>1037</v>
       </c>
     </row>
+    <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1146" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B1146" s="1" t="n">
+        <v>4072</v>
+      </c>
+      <c r="C1146" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1146" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1147" s="1" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B1147" s="1" t="n">
+        <v>4078</v>
+      </c>
+      <c r="C1147" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1147" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1148" s="1" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B1148" s="1" t="n">
+        <v>4089</v>
+      </c>
+      <c r="C1148" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1148" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1149" s="1" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B1149" s="1" t="n">
+        <v>4090</v>
+      </c>
+      <c r="C1149" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1149" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1149" s="1" t="n">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1150" s="1" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B1150" s="1" t="n">
+        <v>4091</v>
+      </c>
+      <c r="C1150" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1150" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1150" s="1" t="n">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1151" s="1" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B1151" s="1" t="n">
+        <v>4095</v>
+      </c>
+      <c r="C1151" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1151" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1152" s="1" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B1152" s="1" t="n">
+        <v>4098</v>
+      </c>
+      <c r="C1152" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1152" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1153" s="1" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B1153" s="1" t="n">
+        <v>4099</v>
+      </c>
+      <c r="C1153" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1153" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1154" s="1" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B1154" s="1" t="n">
+        <v>4100</v>
+      </c>
+      <c r="C1154" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1154" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1155" s="1" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B1155" s="1" t="n">
+        <v>4101</v>
+      </c>
+      <c r="C1155" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1155" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1156" s="1" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B1156" s="1" t="n">
+        <v>4102</v>
+      </c>
+      <c r="C1156" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1156" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1156" s="1" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1157" s="1" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B1157" s="1" t="n">
+        <v>4103</v>
+      </c>
+      <c r="C1157" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1157" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1157" s="1" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1158" s="1" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B1158" s="1" t="n">
+        <v>4104</v>
+      </c>
+      <c r="C1158" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1158" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1158" s="1" t="n">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1159" s="1" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B1159" s="1" t="n">
+        <v>4105</v>
+      </c>
+      <c r="C1159" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1159" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1160" s="1" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B1160" s="1" t="n">
+        <v>4107</v>
+      </c>
+      <c r="C1160" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1160" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1160" s="1" t="n">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1161" s="1" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B1161" s="1" t="n">
+        <v>4108</v>
+      </c>
+      <c r="C1161" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1161" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1162" s="1" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B1162" s="1" t="n">
+        <v>4109</v>
+      </c>
+      <c r="C1162" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1162" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1163" s="1" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B1163" s="1" t="n">
+        <v>4112</v>
+      </c>
+      <c r="C1163" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1163" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1164" s="1" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B1164" s="1" t="n">
+        <v>4114</v>
+      </c>
+      <c r="C1164" s="5" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D1164" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1164" s="1" t="n">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1165" s="1" t="n">
+        <v>1164</v>
+      </c>
+      <c r="B1165" s="1" t="n">
+        <v>4140</v>
+      </c>
+      <c r="C1165" s="5" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D1165" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1166" s="1" t="n">
+        <v>1165</v>
+      </c>
+      <c r="B1166" s="1" t="n">
+        <v>4141</v>
+      </c>
+      <c r="C1166" s="5" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D1166" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1167" s="1" t="n">
+        <v>1166</v>
+      </c>
+      <c r="B1167" s="1" t="n">
+        <v>4144</v>
+      </c>
+      <c r="C1167" s="5" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D1167" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1167" s="1" t="n">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1168" s="1" t="n">
+        <v>1167</v>
+      </c>
+      <c r="B1168" s="1" t="n">
+        <v>4145</v>
+      </c>
+      <c r="C1168" s="5" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D1168" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1168" s="1" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="1169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1169" s="1" t="n">
+        <v>1168</v>
+      </c>
+      <c r="B1169" s="1" t="n">
+        <v>4146</v>
+      </c>
+      <c r="C1169" s="5" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D1169" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1169" s="1" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1170" s="1" t="n">
+        <v>1169</v>
+      </c>
+      <c r="B1170" s="1" t="n">
+        <v>4147</v>
+      </c>
+      <c r="C1170" s="5" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D1170" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1170" s="1" t="n">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1171" s="1" t="n">
+        <v>1170</v>
+      </c>
+      <c r="B1171" s="1" t="n">
+        <v>4148</v>
+      </c>
+      <c r="C1171" s="5" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D1171" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1171" s="1" t="n">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1172" s="1" t="n">
+        <v>1171</v>
+      </c>
+      <c r="B1172" s="1" t="n">
+        <v>4149</v>
+      </c>
+      <c r="C1172" s="5" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D1172" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1172" s="1" t="n">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1173" s="1" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B1173" s="1" t="n">
+        <v>4150</v>
+      </c>
+      <c r="C1173" s="5" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D1173" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1173" s="1" t="n">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1174" s="1" t="n">
+        <v>1173</v>
+      </c>
+      <c r="B1174" s="1" t="n">
+        <v>4151</v>
+      </c>
+      <c r="C1174" s="5" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D1174" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1174" s="1" t="n">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1175" s="1" t="n">
+        <v>1174</v>
+      </c>
+      <c r="B1175" s="1" t="n">
+        <v>4152</v>
+      </c>
+      <c r="C1175" s="5" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D1175" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1175" s="1" t="n">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1176" s="1" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B1176" s="1" t="n">
+        <v>4155</v>
+      </c>
+      <c r="C1176" s="5" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D1176" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1177" s="1" t="n">
+        <v>1176</v>
+      </c>
+      <c r="B1177" s="1" t="n">
+        <v>4170</v>
+      </c>
+      <c r="C1177" s="5" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D1177" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1178" s="1" t="n">
+        <v>1177</v>
+      </c>
+      <c r="B1178" s="1" t="n">
+        <v>4171</v>
+      </c>
+      <c r="C1178" s="5" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D1178" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1178" s="1" t="n">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1179" s="1" t="n">
+        <v>1178</v>
+      </c>
+      <c r="B1179" s="1" t="n">
+        <v>4172</v>
+      </c>
+      <c r="C1179" s="5" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D1179" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1179" s="1" t="n">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1180" s="1" t="n">
+        <v>1179</v>
+      </c>
+      <c r="B1180" s="1" t="n">
+        <v>4173</v>
+      </c>
+      <c r="C1180" s="5" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D1180" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1180" s="1" t="n">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1181" s="1" t="n">
+        <v>1180</v>
+      </c>
+      <c r="B1181" s="1" t="n">
+        <v>4174</v>
+      </c>
+      <c r="C1181" s="5" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D1181" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1181" s="1" t="n">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1182" s="1" t="n">
+        <v>1181</v>
+      </c>
+      <c r="B1182" s="1" t="n">
+        <v>4193</v>
+      </c>
+      <c r="C1182" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1182" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1182" s="1" t="n">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1183" s="1" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B1183" s="1" t="n">
+        <v>4195</v>
+      </c>
+      <c r="C1183" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1183" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1184" s="1" t="n">
+        <v>1183</v>
+      </c>
+      <c r="B1184" s="1" t="n">
+        <v>4198</v>
+      </c>
+      <c r="C1184" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1184" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1185" s="1" t="n">
+        <v>1184</v>
+      </c>
+      <c r="B1185" s="1" t="n">
+        <v>4202</v>
+      </c>
+      <c r="C1185" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1185" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1185" s="1" t="n">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1186" s="1" t="n">
+        <v>1185</v>
+      </c>
+      <c r="B1186" s="1" t="n">
+        <v>4203</v>
+      </c>
+      <c r="C1186" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1186" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1186" s="1" t="n">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1187" s="1" t="n">
+        <v>1186</v>
+      </c>
+      <c r="B1187" s="1" t="n">
+        <v>4204</v>
+      </c>
+      <c r="C1187" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1187" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1187" s="1" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1188" s="1" t="n">
+        <v>1187</v>
+      </c>
+      <c r="B1188" s="1" t="n">
+        <v>4205</v>
+      </c>
+      <c r="C1188" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1188" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1188" s="1" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1189" s="1" t="n">
+        <v>1188</v>
+      </c>
+      <c r="B1189" s="1" t="n">
+        <v>4206</v>
+      </c>
+      <c r="C1189" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1189" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1189" s="1" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="1190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1190" s="1" t="n">
+        <v>1189</v>
+      </c>
+      <c r="B1190" s="1" t="n">
+        <v>4207</v>
+      </c>
+      <c r="C1190" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1190" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1190" s="1" t="n">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1191" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="B1191" s="1" t="n">
+        <v>4208</v>
+      </c>
+      <c r="C1191" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1191" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1192" s="1" t="n">
+        <v>1191</v>
+      </c>
+      <c r="B1192" s="1" t="n">
+        <v>4210</v>
+      </c>
+      <c r="C1192" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1192" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1193" s="1" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B1193" s="1" t="n">
+        <v>4215</v>
+      </c>
+      <c r="C1193" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1193" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1194" s="1" t="n">
+        <v>1193</v>
+      </c>
+      <c r="B1194" s="1" t="n">
+        <v>4217</v>
+      </c>
+      <c r="C1194" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1194" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1195" s="1" t="n">
+        <v>1194</v>
+      </c>
+      <c r="B1195" s="1" t="n">
+        <v>4227</v>
+      </c>
+      <c r="C1195" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1195" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1196" s="1" t="n">
+        <v>1195</v>
+      </c>
+      <c r="B1196" s="1" t="n">
+        <v>4229</v>
+      </c>
+      <c r="C1196" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1196" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1196" s="1" t="n">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1197" s="1" t="n">
+        <v>1196</v>
+      </c>
+      <c r="B1197" s="1" t="n">
+        <v>4230</v>
+      </c>
+      <c r="C1197" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1197" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1197" s="1" t="n">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1198" s="1" t="n">
+        <v>1197</v>
+      </c>
+      <c r="B1198" s="1" t="n">
+        <v>4231</v>
+      </c>
+      <c r="C1198" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1198" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1198" s="1" t="n">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1199" s="1" t="n">
+        <v>1198</v>
+      </c>
+      <c r="B1199" s="1" t="n">
+        <v>4242</v>
+      </c>
+      <c r="C1199" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1199" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1200" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="B1200" s="1" t="n">
+        <v>4244</v>
+      </c>
+      <c r="C1200" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1200" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1201" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B1201" s="1" t="n">
+        <v>4252</v>
+      </c>
+      <c r="C1201" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1201" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1202" s="1" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B1202" s="1" t="n">
+        <v>4276</v>
+      </c>
+      <c r="C1202" s="5" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D1202" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1203" s="1" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B1203" s="1" t="n">
+        <v>4277</v>
+      </c>
+      <c r="C1203" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1203" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1204" s="1" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B1204" s="1" t="n">
+        <v>4282</v>
+      </c>
+      <c r="C1204" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1204" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1205" s="1" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B1205" s="1" t="n">
+        <v>4285</v>
+      </c>
+      <c r="C1205" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1205" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1206" s="1" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B1206" s="1" t="n">
+        <v>4288</v>
+      </c>
+      <c r="C1206" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1206" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1206" s="1" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1207" s="1" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B1207" s="1" t="n">
+        <v>4289</v>
+      </c>
+      <c r="C1207" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1207" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1207" s="1" t="n">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1208" s="1" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B1208" s="1" t="n">
+        <v>4290</v>
+      </c>
+      <c r="C1208" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1208" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1208" s="1" t="n">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1209" s="1" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B1209" s="1" t="n">
+        <v>4291</v>
+      </c>
+      <c r="C1209" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1209" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1209" s="1" t="n">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1210" s="1" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B1210" s="1" t="n">
+        <v>4304</v>
+      </c>
+      <c r="C1210" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1210" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1210" s="1" t="n">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1211" s="1" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B1211" s="1" t="n">
+        <v>4305</v>
+      </c>
+      <c r="C1211" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1211" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1211" s="1" t="n">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1212" s="1" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B1212" s="1" t="n">
+        <v>4310</v>
+      </c>
+      <c r="C1212" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1212" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1213" s="1" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B1213" s="1" t="n">
+        <v>4311</v>
+      </c>
+      <c r="C1213" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1213" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1214" s="1" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B1214" s="1" t="n">
+        <v>4312</v>
+      </c>
+      <c r="C1214" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1214" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1215" s="1" t="n">
+        <v>1214</v>
+      </c>
+      <c r="B1215" s="1" t="n">
+        <v>4324</v>
+      </c>
+      <c r="C1215" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1215" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1215" s="1" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1216" s="1" t="n">
+        <v>1215</v>
+      </c>
+      <c r="B1216" s="1" t="n">
+        <v>4331</v>
+      </c>
+      <c r="C1216" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1216" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1216" s="1" t="n">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1217" s="1" t="n">
+        <v>1216</v>
+      </c>
+      <c r="B1217" s="1" t="n">
+        <v>4332</v>
+      </c>
+      <c r="C1217" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1217" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1217" s="1" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1218" s="1" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B1218" s="1" t="n">
+        <v>4333</v>
+      </c>
+      <c r="C1218" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1218" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1218" s="1" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="1219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1219" s="1" t="n">
+        <v>1218</v>
+      </c>
+      <c r="B1219" s="1" t="n">
+        <v>4335</v>
+      </c>
+      <c r="C1219" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1219" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1220" s="1" t="n">
+        <v>1219</v>
+      </c>
+      <c r="B1220" s="1" t="n">
+        <v>4346</v>
+      </c>
+      <c r="C1220" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1220" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1221" s="1" t="n">
+        <v>1220</v>
+      </c>
+      <c r="B1221" s="1" t="n">
+        <v>4351</v>
+      </c>
+      <c r="C1221" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1221" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1222" s="1" t="n">
+        <v>1221</v>
+      </c>
+      <c r="B1222" s="1" t="n">
+        <v>4352</v>
+      </c>
+      <c r="C1222" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1222" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1222" s="1" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1223" s="1" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B1223" s="1" t="n">
+        <v>4355</v>
+      </c>
+      <c r="C1223" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1223" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1224" s="1" t="n">
+        <v>1223</v>
+      </c>
+      <c r="B1224" s="1" t="n">
+        <v>4375</v>
+      </c>
+      <c r="C1224" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1224" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1225" s="1" t="n">
+        <v>1224</v>
+      </c>
+      <c r="B1225" s="1" t="n">
+        <v>4376</v>
+      </c>
+      <c r="C1225" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D1225" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1226" s="1" t="n">
+        <v>1225</v>
+      </c>
+      <c r="B1226" s="1" t="n">
+        <v>4380</v>
+      </c>
+      <c r="C1226" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1226" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1227" s="1" t="n">
+        <v>1226</v>
+      </c>
+      <c r="B1227" s="1" t="n">
+        <v>4381</v>
+      </c>
+      <c r="C1227" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1227" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1228" s="1" t="n">
+        <v>1227</v>
+      </c>
+      <c r="B1228" s="1" t="n">
+        <v>4383</v>
+      </c>
+      <c r="C1228" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1228" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1228" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1229" s="1" t="n">
+        <v>1228</v>
+      </c>
+      <c r="B1229" s="1" t="n">
+        <v>4384</v>
+      </c>
+      <c r="C1229" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1229" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1230" s="1" t="n">
+        <v>1229</v>
+      </c>
+      <c r="B1230" s="1" t="n">
+        <v>4387</v>
+      </c>
+      <c r="C1230" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1230" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1231" s="1" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B1231" s="1" t="n">
+        <v>4388</v>
+      </c>
+      <c r="C1231" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1231" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1231" s="1" t="n">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1232" s="1" t="n">
+        <v>1231</v>
+      </c>
+      <c r="B1232" s="1" t="n">
+        <v>4389</v>
+      </c>
+      <c r="C1232" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1232" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1232" s="1" t="n">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1233" s="1" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B1233" s="1" t="n">
+        <v>4390</v>
+      </c>
+      <c r="C1233" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1233" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1233" s="1" t="n">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1234" s="1" t="n">
+        <v>1233</v>
+      </c>
+      <c r="B1234" s="1" t="n">
+        <v>4391</v>
+      </c>
+      <c r="C1234" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1234" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1235" s="1" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B1235" s="1" t="n">
+        <v>4392</v>
+      </c>
+      <c r="C1235" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1235" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1235" s="1" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1236" s="1" t="n">
+        <v>1235</v>
+      </c>
+      <c r="B1236" s="1" t="n">
+        <v>4397</v>
+      </c>
+      <c r="C1236" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1236" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1237" s="1" t="n">
+        <v>1236</v>
+      </c>
+      <c r="B1237" s="1" t="n">
+        <v>4283</v>
+      </c>
+      <c r="C1237" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1237" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1237" s="1" t="n">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1238" s="1" t="n">
+        <v>1237</v>
+      </c>
+      <c r="B1238" s="1" t="n">
+        <v>4398</v>
+      </c>
+      <c r="C1238" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1238" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1238" s="1" t="n">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1239" s="1" t="n">
+        <v>1238</v>
+      </c>
+      <c r="B1239" s="1" t="n">
+        <v>4399</v>
+      </c>
+      <c r="C1239" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1239" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1239" s="1" t="n">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1240" s="1" t="n">
+        <v>1239</v>
+      </c>
+      <c r="B1240" s="1" t="n">
+        <v>4408</v>
+      </c>
+      <c r="C1240" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1240" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1241" s="1" t="n">
+        <v>1240</v>
+      </c>
+      <c r="B1241" s="1" t="n">
+        <v>4409</v>
+      </c>
+      <c r="C1241" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1241" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1242" s="1" t="n">
+        <v>1241</v>
+      </c>
+      <c r="B1242" s="1" t="n">
+        <v>4410</v>
+      </c>
+      <c r="C1242" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1242" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1243" s="1" t="n">
+        <v>1242</v>
+      </c>
+      <c r="B1243" s="1" t="n">
+        <v>4411</v>
+      </c>
+      <c r="C1243" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1243" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1244" s="1" t="n">
+        <v>1243</v>
+      </c>
+      <c r="B1244" s="1" t="n">
+        <v>4413</v>
+      </c>
+      <c r="C1244" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1244" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1245" s="1" t="n">
+        <v>1244</v>
+      </c>
+      <c r="B1245" s="1" t="n">
+        <v>4414</v>
+      </c>
+      <c r="C1245" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1245" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1246" s="1" t="n">
+        <v>1245</v>
+      </c>
+      <c r="B1246" s="1" t="n">
+        <v>4415</v>
+      </c>
+      <c r="C1246" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1246" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1247" s="1" t="n">
+        <v>1246</v>
+      </c>
+      <c r="B1247" s="1" t="n">
+        <v>4416</v>
+      </c>
+      <c r="C1247" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1247" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1248" s="1" t="n">
+        <v>1247</v>
+      </c>
+      <c r="B1248" s="1" t="n">
+        <v>4435</v>
+      </c>
+      <c r="C1248" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1248" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1248" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1249" s="1" t="n">
+        <v>1248</v>
+      </c>
+      <c r="B1249" s="1" t="n">
+        <v>4436</v>
+      </c>
+      <c r="C1249" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1249" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1249" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1250" s="1" t="n">
+        <v>1249</v>
+      </c>
+      <c r="B1250" s="1" t="n">
+        <v>4437</v>
+      </c>
+      <c r="C1250" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1250" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1250" s="1" t="n">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1251" s="1" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B1251" s="1" t="n">
+        <v>4438</v>
+      </c>
+      <c r="C1251" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1251" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1251" s="1" t="n">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1252" s="1" t="n">
+        <v>1251</v>
+      </c>
+      <c r="B1252" s="1" t="n">
+        <v>4439</v>
+      </c>
+      <c r="C1252" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1252" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1252" s="1" t="n">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1253" s="1" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B1253" s="1" t="n">
+        <v>4440</v>
+      </c>
+      <c r="C1253" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1253" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1253" s="1" t="n">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1254" s="1" t="n">
+        <v>1253</v>
+      </c>
+      <c r="B1254" s="1" t="n">
+        <v>4441</v>
+      </c>
+      <c r="C1254" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1254" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1254" s="1" t="n">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1255" s="1" t="n">
+        <v>1254</v>
+      </c>
+      <c r="B1255" s="1" t="n">
+        <v>4444</v>
+      </c>
+      <c r="C1255" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1255" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1256" s="1" t="n">
+        <v>1255</v>
+      </c>
+      <c r="B1256" s="1" t="n">
+        <v>4445</v>
+      </c>
+      <c r="C1256" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1256" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1257" s="1" t="n">
+        <v>1256</v>
+      </c>
+      <c r="B1257" s="1" t="n">
+        <v>4446</v>
+      </c>
+      <c r="C1257" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1257" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1258" s="1" t="n">
+        <v>1257</v>
+      </c>
+      <c r="B1258" s="1" t="n">
+        <v>4462</v>
+      </c>
+      <c r="C1258" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1258" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1259" s="1" t="n">
+        <v>1258</v>
+      </c>
+      <c r="B1259" s="1" t="n">
+        <v>4463</v>
+      </c>
+      <c r="C1259" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1259" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1259" s="1" t="n">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1260" s="1" t="n">
+        <v>1259</v>
+      </c>
+      <c r="B1260" s="1" t="n">
+        <v>4464</v>
+      </c>
+      <c r="C1260" s="5" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D1260" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1260" s="1" t="n">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1261" s="1" t="n">
+        <v>1260</v>
+      </c>
+      <c r="B1261" s="1" t="n">
+        <v>4465</v>
+      </c>
+      <c r="C1261" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1261" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1262" s="1" t="n">
+        <v>1261</v>
+      </c>
+      <c r="B1262" s="1" t="n">
+        <v>4466</v>
+      </c>
+      <c r="C1262" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1262" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1263" s="1" t="n">
+        <v>1262</v>
+      </c>
+      <c r="B1263" s="1" t="n">
+        <v>4467</v>
+      </c>
+      <c r="C1263" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1263" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1263" s="1" t="n">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1264" s="1" t="n">
+        <v>1263</v>
+      </c>
+      <c r="B1264" s="1" t="n">
+        <v>4468</v>
+      </c>
+      <c r="C1264" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1264" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1264" s="1" t="n">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1265" s="1" t="n">
+        <v>1264</v>
+      </c>
+      <c r="B1265" s="1" t="n">
+        <v>4469</v>
+      </c>
+      <c r="C1265" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1265" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1265" s="1" t="n">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1266" s="1" t="n">
+        <v>1266</v>
+      </c>
+      <c r="B1266" s="1" t="n">
+        <v>4477</v>
+      </c>
+      <c r="C1266" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1266" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1267" s="1" t="n">
+        <v>1267</v>
+      </c>
+      <c r="B1267" s="1" t="n">
+        <v>4478</v>
+      </c>
+      <c r="C1267" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1267" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1267" s="1" t="n">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1268" s="1" t="n">
+        <v>1268</v>
+      </c>
+      <c r="B1268" s="1" t="n">
+        <v>4479</v>
+      </c>
+      <c r="C1268" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1268" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1269" s="1" t="n">
+        <v>1269</v>
+      </c>
+      <c r="B1269" s="1" t="n">
+        <v>4480</v>
+      </c>
+      <c r="C1269" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1269" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1270" s="1" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B1270" s="1" t="n">
+        <v>4487</v>
+      </c>
+      <c r="C1270" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1270" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1270" s="1" t="n">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1271" s="1" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B1271" s="1" t="n">
+        <v>4488</v>
+      </c>
+      <c r="C1271" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1271" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1272" s="1" t="n">
+        <v>1272</v>
+      </c>
+      <c r="B1272" s="1" t="n">
+        <v>4491</v>
+      </c>
+      <c r="C1272" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1272" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1272" s="1" t="n">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1273" s="1" t="n">
+        <v>1273</v>
+      </c>
+      <c r="B1273" s="1" t="n">
+        <v>4499</v>
+      </c>
+      <c r="C1273" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1273" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1274" s="1" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B1274" s="1" t="n">
+        <v>4503</v>
+      </c>
+      <c r="C1274" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1274" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1274" s="1" t="n">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1275" s="1" t="n">
+        <v>1275</v>
+      </c>
+      <c r="B1275" s="1" t="n">
+        <v>4504</v>
+      </c>
+      <c r="C1275" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1275" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1275" s="1" t="n">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1276" s="1" t="n">
+        <v>1276</v>
+      </c>
+      <c r="B1276" s="1" t="n">
+        <v>4505</v>
+      </c>
+      <c r="C1276" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1276" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1276" s="1" t="n">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1277" s="1" t="n">
+        <v>1277</v>
+      </c>
+      <c r="B1277" s="1" t="n">
+        <v>4506</v>
+      </c>
+      <c r="C1277" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1277" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1277" s="1" t="n">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1278" s="1" t="n">
+        <v>1278</v>
+      </c>
+      <c r="B1278" s="1" t="n">
+        <v>4507</v>
+      </c>
+      <c r="C1278" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1278" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1278" s="1" t="n">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1279" s="1" t="n">
+        <v>1279</v>
+      </c>
+      <c r="B1279" s="1" t="n">
+        <v>4508</v>
+      </c>
+      <c r="C1279" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1279" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1279" s="1" t="n">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1280" s="1" t="n">
+        <v>1280</v>
+      </c>
+      <c r="B1280" s="1" t="n">
+        <v>4509</v>
+      </c>
+      <c r="C1280" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1280" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1280" s="1" t="n">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1281" s="1" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B1281" s="1" t="n">
+        <v>4510</v>
+      </c>
+      <c r="C1281" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1281" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1281" s="1" t="n">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1282" s="1" t="n">
+        <v>1282</v>
+      </c>
+      <c r="B1282" s="1" t="n">
+        <v>4511</v>
+      </c>
+      <c r="C1282" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1282" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1282" s="1" t="n">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1283" s="1" t="n">
+        <v>1283</v>
+      </c>
+      <c r="B1283" s="1" t="n">
+        <v>4512</v>
+      </c>
+      <c r="C1283" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1283" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1283" s="1" t="n">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1284" s="1" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B1284" s="1" t="n">
+        <v>4513</v>
+      </c>
+      <c r="C1284" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1284" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1284" s="1" t="n">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1285" s="1" t="n">
+        <v>1285</v>
+      </c>
+      <c r="B1285" s="1" t="n">
+        <v>4514</v>
+      </c>
+      <c r="C1285" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1285" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1285" s="1" t="n">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1286" s="1" t="n">
+        <v>1286</v>
+      </c>
+      <c r="B1286" s="1" t="n">
+        <v>4515</v>
+      </c>
+      <c r="C1286" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1286" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1286" s="1" t="n">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1287" s="1" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B1287" s="1" t="n">
+        <v>4516</v>
+      </c>
+      <c r="C1287" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1287" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1287" s="1" t="n">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1288" s="1" t="n">
+        <v>1288</v>
+      </c>
+      <c r="B1288" s="1" t="n">
+        <v>4517</v>
+      </c>
+      <c r="C1288" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1288" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1289" s="1" t="n">
+        <v>1289</v>
+      </c>
+      <c r="B1289" s="1" t="n">
+        <v>4518</v>
+      </c>
+      <c r="C1289" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1289" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1290" s="1" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B1290" s="1" t="n">
+        <v>4519</v>
+      </c>
+      <c r="C1290" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1290" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1290" s="1" t="n">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1291" s="1" t="n">
+        <v>1291</v>
+      </c>
+      <c r="B1291" s="1" t="n">
+        <v>4520</v>
+      </c>
+      <c r="C1291" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1291" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1291" s="1" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="1292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1292" s="1" t="n">
+        <v>1292</v>
+      </c>
+      <c r="B1292" s="1" t="n">
+        <v>4524</v>
+      </c>
+      <c r="C1292" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1292" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1293" s="1" t="n">
+        <v>1293</v>
+      </c>
+      <c r="B1293" s="1" t="n">
+        <v>4536</v>
+      </c>
+      <c r="C1293" s="5" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D1293" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1294" s="1" t="n">
+        <v>1265</v>
+      </c>
+      <c r="B1294" s="1" t="n">
+        <v>4471</v>
+      </c>
+      <c r="C1294" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1294" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1294" s="1" t="n">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1295" s="1" t="n">
+        <v>1294</v>
+      </c>
+      <c r="B1295" s="1" t="n">
+        <v>4547</v>
+      </c>
+      <c r="C1295" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1295" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1295" s="1" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1296" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B1296" s="1" t="n">
+        <v>4548</v>
+      </c>
+      <c r="C1296" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1296" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1296" s="1" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1297" s="1" t="n">
+        <v>1296</v>
+      </c>
+      <c r="B1297" s="1" t="n">
+        <v>4549</v>
+      </c>
+      <c r="C1297" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1297" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1297" s="1" t="n">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1298" s="1" t="n">
+        <v>1297</v>
+      </c>
+      <c r="B1298" s="1" t="n">
+        <v>4550</v>
+      </c>
+      <c r="C1298" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1298" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1299" s="1" t="n">
+        <v>1298</v>
+      </c>
+      <c r="B1299" s="1" t="n">
+        <v>4554</v>
+      </c>
+      <c r="C1299" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1299" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1299" s="1" t="n">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1300" s="1" t="n">
+        <v>1299</v>
+      </c>
+      <c r="B1300" s="1" t="n">
+        <v>4555</v>
+      </c>
+      <c r="C1300" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1300" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1300" s="1" t="n">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1301" s="1" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B1301" s="1" t="n">
+        <v>4556</v>
+      </c>
+      <c r="C1301" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1301" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1301" s="1" t="n">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1302" s="1" t="n">
+        <v>1301</v>
+      </c>
+      <c r="B1302" s="1" t="n">
+        <v>4567</v>
+      </c>
+      <c r="C1302" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1302" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1302" s="1" t="n">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1303" s="1" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B1303" s="1" t="n">
+        <v>4568</v>
+      </c>
+      <c r="C1303" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1303" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1303" s="1" t="n">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1304" s="1" t="n">
+        <v>1303</v>
+      </c>
+      <c r="B1304" s="1" t="n">
+        <v>4569</v>
+      </c>
+      <c r="C1304" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1304" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1304" s="1" t="n">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1305" s="1" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B1305" s="1" t="n">
+        <v>4570</v>
+      </c>
+      <c r="C1305" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1305" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1305" s="1" t="n">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1306" s="1" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B1306" s="1" t="n">
+        <v>4571</v>
+      </c>
+      <c r="C1306" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1306" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1306" s="1" t="n">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1307" s="1" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B1307" s="1" t="n">
+        <v>4572</v>
+      </c>
+      <c r="C1307" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1307" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1307" s="1" t="n">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1308" s="1" t="n">
+        <v>1307</v>
+      </c>
+      <c r="B1308" s="1" t="n">
+        <v>4573</v>
+      </c>
+      <c r="C1308" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1308" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1308" s="1" t="n">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1309" s="1" t="n">
+        <v>1308</v>
+      </c>
+      <c r="B1309" s="1" t="n">
+        <v>4574</v>
+      </c>
+      <c r="C1309" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1309" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1309" s="1" t="n">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1310" s="1" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B1310" s="1" t="n">
+        <v>4575</v>
+      </c>
+      <c r="C1310" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1310" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1310" s="1" t="n">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1311" s="1" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B1311" s="1" t="n">
+        <v>4576</v>
+      </c>
+      <c r="C1311" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1311" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1312" s="1" t="n">
+        <v>1311</v>
+      </c>
+      <c r="B1312" s="1" t="n">
+        <v>4577</v>
+      </c>
+      <c r="C1312" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1312" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1312" s="1" t="n">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1313" s="1" t="n">
+        <v>1312</v>
+      </c>
+      <c r="B1313" s="1" t="n">
+        <v>4578</v>
+      </c>
+      <c r="C1313" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1313" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1313" s="1" t="n">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1314" s="1" t="n">
+        <v>1313</v>
+      </c>
+      <c r="B1314" s="1" t="n">
+        <v>4579</v>
+      </c>
+      <c r="C1314" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1314" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1314" s="1" t="n">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1315" s="1" t="n">
+        <v>1314</v>
+      </c>
+      <c r="B1315" s="1" t="n">
+        <v>4580</v>
+      </c>
+      <c r="C1315" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1315" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1315" s="1" t="n">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1316" s="1" t="n">
+        <v>1315</v>
+      </c>
+      <c r="B1316" s="1" t="n">
+        <v>4581</v>
+      </c>
+      <c r="C1316" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1316" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1316" s="1" t="n">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1317" s="1" t="n">
+        <v>1316</v>
+      </c>
+      <c r="B1317" s="1" t="n">
+        <v>4587</v>
+      </c>
+      <c r="C1317" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1317" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1318" s="1" t="n">
+        <v>1317</v>
+      </c>
+      <c r="B1318" s="1" t="n">
+        <v>4590</v>
+      </c>
+      <c r="C1318" s="5" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D1318" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="41">
   <si>
     <t xml:space="preserve">num_matsue</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t xml:space="preserve">s4240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s4718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s4617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s5467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s5507</t>
   </si>
 </sst>
 </file>
@@ -268,19 +280,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1318"/>
+  <dimension ref="A1:J1793"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.96"/>
   </cols>
@@ -22638,6 +22650,6795 @@
       <c r="D1318" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="1319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1319" s="1" t="n">
+        <v>1318</v>
+      </c>
+      <c r="C1319" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1319" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1319" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1320" s="1" t="n">
+        <v>1319</v>
+      </c>
+      <c r="C1320" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1320" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1321" s="1" t="n">
+        <v>1320</v>
+      </c>
+      <c r="C1321" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1321" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1321" s="1" t="n">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1322" s="1" t="n">
+        <v>1321</v>
+      </c>
+      <c r="C1322" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1322" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1322" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1323" s="1" t="n">
+        <v>1322</v>
+      </c>
+      <c r="C1323" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1323" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1323" s="1" t="n">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1324" s="1" t="n">
+        <v>1323</v>
+      </c>
+      <c r="C1324" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1324" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1324" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1325" s="1" t="n">
+        <v>1324</v>
+      </c>
+      <c r="C1325" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1325" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1325" s="1" t="n">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1326" s="1" t="n">
+        <v>1325</v>
+      </c>
+      <c r="C1326" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1326" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1327" s="1" t="n">
+        <v>1326</v>
+      </c>
+      <c r="C1327" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1327" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1327" s="1" t="n">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1328" s="1" t="n">
+        <v>1327</v>
+      </c>
+      <c r="C1328" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1328" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1329" s="1" t="n">
+        <v>1328</v>
+      </c>
+      <c r="C1329" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1329" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1330" s="1" t="n">
+        <v>1329</v>
+      </c>
+      <c r="C1330" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1330" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1330" s="1" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1331" s="1" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C1331" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1331" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1331" s="1" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1332" s="1" t="n">
+        <v>1331</v>
+      </c>
+      <c r="C1332" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1332" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1332" s="1" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1333" s="1" t="n">
+        <v>1332</v>
+      </c>
+      <c r="C1333" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1333" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1333" s="1" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1334" s="1" t="n">
+        <v>1333</v>
+      </c>
+      <c r="C1334" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1334" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1334" s="1" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1335" s="1" t="n">
+        <v>1334</v>
+      </c>
+      <c r="C1335" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1335" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1335" s="1" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="1336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1336" s="1" t="n">
+        <v>1335</v>
+      </c>
+      <c r="C1336" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1336" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1336" s="1" t="n">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1337" s="1" t="n">
+        <v>1336</v>
+      </c>
+      <c r="C1337" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1337" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1337" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1338" s="1" t="n">
+        <v>1337</v>
+      </c>
+      <c r="C1338" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1338" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I1338" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1339" s="1" t="n">
+        <v>1338</v>
+      </c>
+      <c r="C1339" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1339" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1339" s="1" t="n">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1340" s="1" t="n">
+        <v>1339</v>
+      </c>
+      <c r="C1340" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1340" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1340" s="1" t="n">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1341" s="1" t="n">
+        <v>1340</v>
+      </c>
+      <c r="C1341" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1341" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1341" s="1" t="n">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1342" s="1" t="n">
+        <v>1341</v>
+      </c>
+      <c r="C1342" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1342" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1343" s="1" t="n">
+        <v>1342</v>
+      </c>
+      <c r="C1343" s="5" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D1343" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1343" s="1" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1344" s="1" t="n">
+        <v>1343</v>
+      </c>
+      <c r="C1344" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1344" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1344" s="1" t="n">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1345" s="1" t="n">
+        <v>1344</v>
+      </c>
+      <c r="C1345" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1345" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1346" s="1" t="n">
+        <v>1345</v>
+      </c>
+      <c r="C1346" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1346" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1347" s="1" t="n">
+        <v>1346</v>
+      </c>
+      <c r="C1347" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1347" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1348" s="1" t="n">
+        <v>1347</v>
+      </c>
+      <c r="C1348" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1348" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1348" s="1" t="n">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1349" s="1" t="n">
+        <v>1348</v>
+      </c>
+      <c r="C1349" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1349" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1349" s="1" t="n">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1350" s="1" t="n">
+        <v>1349</v>
+      </c>
+      <c r="C1350" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1350" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1350" s="1" t="n">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1351" s="1" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C1351" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1351" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1351" s="1" t="n">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1352" s="1" t="n">
+        <v>1351</v>
+      </c>
+      <c r="C1352" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1352" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1352" s="1" t="n">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1353" s="1" t="n">
+        <v>1352</v>
+      </c>
+      <c r="C1353" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1353" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1353" s="1" t="n">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1354" s="1" t="n">
+        <v>1353</v>
+      </c>
+      <c r="C1354" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1354" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1354" s="1" t="n">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1355" s="1" t="n">
+        <v>1354</v>
+      </c>
+      <c r="C1355" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1355" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1355" s="1" t="n">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1356" s="1" t="n">
+        <v>1355</v>
+      </c>
+      <c r="C1356" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1356" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1356" s="1" t="n">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1357" s="1" t="n">
+        <v>1356</v>
+      </c>
+      <c r="C1357" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1357" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1357" s="1" t="n">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1358" s="1" t="n">
+        <v>1357</v>
+      </c>
+      <c r="C1358" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1358" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1358" s="1" t="n">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1359" s="1" t="n">
+        <v>1358</v>
+      </c>
+      <c r="C1359" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1359" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1359" s="1" t="n">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1360" s="1" t="n">
+        <v>1359</v>
+      </c>
+      <c r="C1360" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1360" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1360" s="1" t="n">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1361" s="1" t="n">
+        <v>1360</v>
+      </c>
+      <c r="C1361" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1361" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1361" s="1" t="n">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1362" s="1" t="n">
+        <v>1361</v>
+      </c>
+      <c r="C1362" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1362" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1362" s="1" t="n">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1363" s="1" t="n">
+        <v>1362</v>
+      </c>
+      <c r="C1363" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1363" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1363" s="1" t="n">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1364" s="1" t="n">
+        <v>1363</v>
+      </c>
+      <c r="C1364" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1364" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1364" s="1" t="n">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1365" s="1" t="n">
+        <v>1364</v>
+      </c>
+      <c r="C1365" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1365" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1365" s="1" t="n">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1366" s="1" t="n">
+        <v>1365</v>
+      </c>
+      <c r="C1366" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1366" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1366" s="1" t="n">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1367" s="1" t="n">
+        <v>1366</v>
+      </c>
+      <c r="C1367" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1367" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1367" s="1" t="n">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1368" s="1" t="n">
+        <v>1367</v>
+      </c>
+      <c r="C1368" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1368" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1368" s="1" t="n">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1369" s="1" t="n">
+        <v>1368</v>
+      </c>
+      <c r="C1369" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1369" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1369" s="1" t="n">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1370" s="1" t="n">
+        <v>1369</v>
+      </c>
+      <c r="C1370" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1370" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1370" s="1" t="n">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1371" s="1" t="n">
+        <v>1370</v>
+      </c>
+      <c r="C1371" s="5" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D1371" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1371" s="1" t="n">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1372" s="1" t="n">
+        <v>1371</v>
+      </c>
+      <c r="C1372" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1372" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1372" s="1" t="n">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1373" s="1" t="n">
+        <v>1372</v>
+      </c>
+      <c r="C1373" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1373" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1373" s="1" t="n">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1374" s="1" t="n">
+        <v>1373</v>
+      </c>
+      <c r="C1374" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1374" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1374" s="1" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1375" s="1" t="n">
+        <v>1374</v>
+      </c>
+      <c r="C1375" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1375" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1376" s="1" t="n">
+        <v>1375</v>
+      </c>
+      <c r="C1376" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1376" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1377" s="1" t="n">
+        <v>1376</v>
+      </c>
+      <c r="C1377" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1377" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1378" s="1" t="n">
+        <v>1377</v>
+      </c>
+      <c r="C1378" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1378" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1378" s="1" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1379" s="1" t="n">
+        <v>1378</v>
+      </c>
+      <c r="C1379" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1379" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1379" s="1" t="n">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1380" s="1" t="n">
+        <v>1379</v>
+      </c>
+      <c r="C1380" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1380" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1380" s="1" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1381" s="1" t="n">
+        <v>1380</v>
+      </c>
+      <c r="C1381" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1381" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1382" s="1" t="n">
+        <v>1381</v>
+      </c>
+      <c r="C1382" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1382" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1382" s="1" t="n">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1383" s="1" t="n">
+        <v>1382</v>
+      </c>
+      <c r="C1383" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1383" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1384" s="1" t="n">
+        <v>1383</v>
+      </c>
+      <c r="C1384" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1384" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1384" s="1" t="n">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1385" s="1" t="n">
+        <v>1384</v>
+      </c>
+      <c r="C1385" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1385" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1385" s="1" t="n">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1386" s="1" t="n">
+        <v>1385</v>
+      </c>
+      <c r="C1386" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1386" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1386" s="1" t="n">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1387" s="1" t="n">
+        <v>1386</v>
+      </c>
+      <c r="C1387" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1387" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1387" s="1" t="n">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1388" s="1" t="n">
+        <v>1387</v>
+      </c>
+      <c r="C1388" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1388" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1389" s="1" t="n">
+        <v>1388</v>
+      </c>
+      <c r="C1389" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1389" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1389" s="1" t="n">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1390" s="1" t="n">
+        <v>1389</v>
+      </c>
+      <c r="C1390" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1390" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1390" s="1" t="n">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1391" s="1" t="n">
+        <v>1390</v>
+      </c>
+      <c r="C1391" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1391" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1391" s="1" t="n">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1392" s="1" t="n">
+        <v>1391</v>
+      </c>
+      <c r="C1392" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1392" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1392" s="1" t="n">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1393" s="1" t="n">
+        <v>1392</v>
+      </c>
+      <c r="C1393" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1393" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1393" s="1" t="n">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1394" s="1" t="n">
+        <v>1393</v>
+      </c>
+      <c r="C1394" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1394" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1394" s="1" t="n">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1395" s="1" t="n">
+        <v>1394</v>
+      </c>
+      <c r="C1395" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1395" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1395" s="1" t="n">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1396" s="1" t="n">
+        <v>1395</v>
+      </c>
+      <c r="C1396" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1396" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1396" s="1" t="n">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1397" s="1" t="n">
+        <v>1396</v>
+      </c>
+      <c r="C1397" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1397" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1398" s="1" t="n">
+        <v>1397</v>
+      </c>
+      <c r="C1398" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1398" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1399" s="1" t="n">
+        <v>1398</v>
+      </c>
+      <c r="C1399" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1399" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1400" s="1" t="n">
+        <v>1399</v>
+      </c>
+      <c r="C1400" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1400" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1400" s="1" t="n">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1401" s="1" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C1401" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1401" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1402" s="1" t="n">
+        <v>1401</v>
+      </c>
+      <c r="C1402" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1402" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1402" s="1" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1403" s="1" t="n">
+        <v>1402</v>
+      </c>
+      <c r="C1403" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1403" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1403" s="1" t="n">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1404" s="1" t="n">
+        <v>1403</v>
+      </c>
+      <c r="C1404" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1404" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1404" s="1" t="n">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1405" s="1" t="n">
+        <v>1404</v>
+      </c>
+      <c r="C1405" s="5" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D1405" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1406" s="1" t="n">
+        <v>1405</v>
+      </c>
+      <c r="C1406" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1406" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1406" s="1" t="n">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1407" s="1" t="n">
+        <v>1406</v>
+      </c>
+      <c r="C1407" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1407" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1408" s="1" t="n">
+        <v>1407</v>
+      </c>
+      <c r="C1408" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1408" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1409" s="1" t="n">
+        <v>1408</v>
+      </c>
+      <c r="C1409" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1409" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1409" s="1" t="n">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1410" s="1" t="n">
+        <v>1409</v>
+      </c>
+      <c r="C1410" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1410" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1410" s="1" t="n">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1411" s="1" t="n">
+        <v>1410</v>
+      </c>
+      <c r="C1411" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1411" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1411" s="1" t="n">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1412" s="1" t="n">
+        <v>1411</v>
+      </c>
+      <c r="C1412" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1412" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1412" s="1" t="n">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1413" s="1" t="n">
+        <v>1412</v>
+      </c>
+      <c r="C1413" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1413" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1413" s="1" t="n">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1414" s="1" t="n">
+        <v>1413</v>
+      </c>
+      <c r="C1414" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1414" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1414" s="1" t="n">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1415" s="1" t="n">
+        <v>1414</v>
+      </c>
+      <c r="C1415" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1415" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1415" s="1" t="n">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1416" s="1" t="n">
+        <v>1415</v>
+      </c>
+      <c r="C1416" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1416" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1416" s="1" t="n">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1417" s="1" t="n">
+        <v>1416</v>
+      </c>
+      <c r="C1417" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1417" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1417" s="1" t="n">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1418" s="1" t="n">
+        <v>1417</v>
+      </c>
+      <c r="C1418" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1418" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1418" s="1" t="n">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1419" s="1" t="n">
+        <v>1418</v>
+      </c>
+      <c r="C1419" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1419" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1419" s="1" t="n">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1420" s="1" t="n">
+        <v>1419</v>
+      </c>
+      <c r="C1420" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1420" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1420" s="1" t="n">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1421" s="1" t="n">
+        <v>1420</v>
+      </c>
+      <c r="C1421" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1421" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1422" s="1" t="n">
+        <v>1421</v>
+      </c>
+      <c r="C1422" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1422" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1422" s="1" t="n">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1423" s="1" t="n">
+        <v>1422</v>
+      </c>
+      <c r="C1423" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1423" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1424" s="1" t="n">
+        <v>1423</v>
+      </c>
+      <c r="C1424" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1424" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1425" s="1" t="n">
+        <v>1424</v>
+      </c>
+      <c r="C1425" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1425" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1426" s="1" t="n">
+        <v>1425</v>
+      </c>
+      <c r="C1426" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1426" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1426" s="1" t="n">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1427" s="1" t="n">
+        <v>1426</v>
+      </c>
+      <c r="C1427" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1427" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1428" s="1" t="n">
+        <v>1427</v>
+      </c>
+      <c r="C1428" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1428" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1429" s="1" t="n">
+        <v>1428</v>
+      </c>
+      <c r="C1429" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1429" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1429" s="1" t="n">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1430" s="1" t="n">
+        <v>1429</v>
+      </c>
+      <c r="C1430" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1430" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1430" s="1" t="n">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1431" s="1" t="n">
+        <v>1430</v>
+      </c>
+      <c r="C1431" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1431" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1431" s="1" t="n">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1432" s="1" t="n">
+        <v>1431</v>
+      </c>
+      <c r="C1432" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1432" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1433" s="1" t="n">
+        <v>1432</v>
+      </c>
+      <c r="C1433" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1433" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1433" s="1" t="n">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1434" s="1" t="n">
+        <v>1433</v>
+      </c>
+      <c r="C1434" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1434" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1435" s="1" t="n">
+        <v>1434</v>
+      </c>
+      <c r="C1435" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1435" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1436" s="1" t="n">
+        <v>1435</v>
+      </c>
+      <c r="C1436" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1436" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1436" s="1" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1437" s="1" t="n">
+        <v>1436</v>
+      </c>
+      <c r="C1437" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1437" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1437" s="1" t="n">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1438" s="1" t="n">
+        <v>1437</v>
+      </c>
+      <c r="C1438" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1438" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1438" s="1" t="n">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1439" s="1" t="n">
+        <v>1438</v>
+      </c>
+      <c r="C1439" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1439" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1439" s="1" t="n">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1440" s="1" t="n">
+        <v>1439</v>
+      </c>
+      <c r="C1440" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1440" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1441" s="1" t="n">
+        <v>1440</v>
+      </c>
+      <c r="C1441" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1441" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1441" s="1" t="n">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1442" s="1" t="n">
+        <v>1441</v>
+      </c>
+      <c r="C1442" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1442" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1442" s="1" t="n">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1443" s="1" t="n">
+        <v>1442</v>
+      </c>
+      <c r="C1443" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1443" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1443" s="1" t="n">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1444" s="1" t="n">
+        <v>1443</v>
+      </c>
+      <c r="C1444" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1444" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1445" s="1" t="n">
+        <v>1444</v>
+      </c>
+      <c r="C1445" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1445" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1445" s="1" t="n">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1446" s="1" t="n">
+        <v>1445</v>
+      </c>
+      <c r="C1446" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1446" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1446" s="1" t="n">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1447" s="1" t="n">
+        <v>1446</v>
+      </c>
+      <c r="C1447" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1447" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1447" s="1" t="n">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1448" s="1" t="n">
+        <v>1447</v>
+      </c>
+      <c r="C1448" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1448" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1448" s="1" t="n">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1449" s="1" t="n">
+        <v>1448</v>
+      </c>
+      <c r="C1449" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1449" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1449" s="1" t="n">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1450" s="1" t="n">
+        <v>1449</v>
+      </c>
+      <c r="C1450" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1450" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1450" s="1" t="n">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1451" s="1" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C1451" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1451" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1452" s="1" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C1452" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1452" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1453" s="1" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C1453" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D1453" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1454" s="1" t="n">
+        <v>1453</v>
+      </c>
+      <c r="C1454" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1454" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1454" s="1" t="n">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1455" s="1" t="n">
+        <v>1454</v>
+      </c>
+      <c r="C1455" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1455" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1455" s="1" t="n">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1456" s="1" t="n">
+        <v>1455</v>
+      </c>
+      <c r="C1456" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1456" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1456" s="1" t="n">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1457" s="1" t="n">
+        <v>1456</v>
+      </c>
+      <c r="C1457" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1457" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1458" s="1" t="n">
+        <v>1457</v>
+      </c>
+      <c r="C1458" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1458" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1458" s="1" t="n">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1459" s="1" t="n">
+        <v>1458</v>
+      </c>
+      <c r="C1459" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1459" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1459" s="1" t="n">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1460" s="1" t="n">
+        <v>1459</v>
+      </c>
+      <c r="C1460" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1460" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1460" s="1" t="n">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1461" s="1" t="n">
+        <v>1460</v>
+      </c>
+      <c r="C1461" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1461" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1461" s="1" t="n">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1462" s="1" t="n">
+        <v>1461</v>
+      </c>
+      <c r="C1462" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1462" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1462" s="1" t="n">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1463" s="1" t="n">
+        <v>1462</v>
+      </c>
+      <c r="C1463" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1463" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1464" s="1" t="n">
+        <v>1463</v>
+      </c>
+      <c r="C1464" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1464" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1464" s="1" t="n">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1465" s="1" t="n">
+        <v>1464</v>
+      </c>
+      <c r="C1465" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1465" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1465" s="1" t="n">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1466" s="1" t="n">
+        <v>1465</v>
+      </c>
+      <c r="C1466" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1466" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1466" s="1" t="n">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1467" s="1" t="n">
+        <v>1466</v>
+      </c>
+      <c r="C1467" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1467" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1468" s="1" t="n">
+        <v>1467</v>
+      </c>
+      <c r="C1468" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1468" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1469" s="1" t="n">
+        <v>1468</v>
+      </c>
+      <c r="C1469" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1469" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1470" s="1" t="n">
+        <v>1469</v>
+      </c>
+      <c r="C1470" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1470" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1471" s="1" t="n">
+        <v>1470</v>
+      </c>
+      <c r="C1471" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1471" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1472" s="1" t="n">
+        <v>1471</v>
+      </c>
+      <c r="C1472" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1472" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1472" s="1" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1473" s="1" t="n">
+        <v>1472</v>
+      </c>
+      <c r="C1473" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1473" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1473" s="1" t="n">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1474" s="1" t="n">
+        <v>1473</v>
+      </c>
+      <c r="C1474" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1474" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1474" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1475" s="1" t="n">
+        <v>1474</v>
+      </c>
+      <c r="C1475" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1475" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1475" s="1" t="n">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1476" s="1" t="n">
+        <v>1475</v>
+      </c>
+      <c r="C1476" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1476" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1476" s="1" t="n">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1477" s="1" t="n">
+        <v>1476</v>
+      </c>
+      <c r="C1477" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1477" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1477" s="1" t="n">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1478" s="1" t="n">
+        <v>1477</v>
+      </c>
+      <c r="C1478" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1478" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1478" s="1" t="n">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1479" s="1" t="n">
+        <v>1478</v>
+      </c>
+      <c r="C1479" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1479" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1479" s="1" t="n">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1480" s="1" t="n">
+        <v>1479</v>
+      </c>
+      <c r="C1480" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1480" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1480" s="1" t="n">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1481" s="1" t="n">
+        <v>1480</v>
+      </c>
+      <c r="C1481" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1481" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1481" s="1" t="n">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1482" s="1" t="n">
+        <v>1481</v>
+      </c>
+      <c r="C1482" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1482" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1482" s="1" t="n">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1483" s="1" t="n">
+        <v>1482</v>
+      </c>
+      <c r="C1483" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1483" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1483" s="1" t="n">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1484" s="1" t="n">
+        <v>1483</v>
+      </c>
+      <c r="C1484" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1484" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1485" s="1" t="n">
+        <v>1484</v>
+      </c>
+      <c r="C1485" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1485" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1485" s="1" t="n">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1486" s="1" t="n">
+        <v>1485</v>
+      </c>
+      <c r="C1486" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1486" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1486" s="1" t="n">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1487" s="1" t="n">
+        <v>1486</v>
+      </c>
+      <c r="C1487" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1487" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1487" s="1" t="n">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1488" s="1" t="n">
+        <v>1487</v>
+      </c>
+      <c r="C1488" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1488" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1489" s="1" t="n">
+        <v>1488</v>
+      </c>
+      <c r="C1489" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1489" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1490" s="1" t="n">
+        <v>1489</v>
+      </c>
+      <c r="C1490" s="5" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D1490" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1491" s="1" t="n">
+        <v>1490</v>
+      </c>
+      <c r="C1491" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1491" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1492" s="1" t="n">
+        <v>1491</v>
+      </c>
+      <c r="C1492" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1492" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1492" s="1" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1493" s="1" t="n">
+        <v>1492</v>
+      </c>
+      <c r="C1493" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1493" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1494" s="1" t="n">
+        <v>1493</v>
+      </c>
+      <c r="C1494" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1494" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1494" s="1" t="n">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1495" s="1" t="n">
+        <v>1494</v>
+      </c>
+      <c r="C1495" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1495" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1495" s="1" t="n">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1496" s="1" t="n">
+        <v>1495</v>
+      </c>
+      <c r="C1496" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1496" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1497" s="1" t="n">
+        <v>1496</v>
+      </c>
+      <c r="C1497" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1497" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1498" s="1" t="n">
+        <v>1497</v>
+      </c>
+      <c r="C1498" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1498" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1499" s="1" t="n">
+        <v>1498</v>
+      </c>
+      <c r="C1499" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1499" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1499" s="1" t="n">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1500" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="C1500" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1500" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1500" s="1" t="n">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1501" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C1501" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1501" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1502" s="1" t="n">
+        <v>1501</v>
+      </c>
+      <c r="C1502" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1502" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1502" s="1" t="n">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1503" s="1" t="n">
+        <v>1502</v>
+      </c>
+      <c r="C1503" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1503" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1504" s="1" t="n">
+        <v>1503</v>
+      </c>
+      <c r="C1504" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1504" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1505" s="1" t="n">
+        <v>1504</v>
+      </c>
+      <c r="C1505" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1505" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1505" s="1" t="n">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1506" s="1" t="n">
+        <v>1505</v>
+      </c>
+      <c r="C1506" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1506" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1506" s="1" t="n">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1507" s="1" t="n">
+        <v>1506</v>
+      </c>
+      <c r="C1507" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1507" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1507" s="1" t="n">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1508" s="1" t="n">
+        <v>1507</v>
+      </c>
+      <c r="C1508" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1508" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1508" s="1" t="n">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1509" s="1" t="n">
+        <v>1508</v>
+      </c>
+      <c r="C1509" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1509" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1509" s="1" t="n">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1510" s="1" t="n">
+        <v>1509</v>
+      </c>
+      <c r="C1510" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1510" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1510" s="1" t="n">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1511" s="1" t="n">
+        <v>1510</v>
+      </c>
+      <c r="C1511" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1511" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1511" s="1" t="n">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1512" s="1" t="n">
+        <v>1511</v>
+      </c>
+      <c r="C1512" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1512" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1512" s="1" t="n">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1513" s="1" t="n">
+        <v>1512</v>
+      </c>
+      <c r="C1513" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1513" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1513" s="1" t="n">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1514" s="1" t="n">
+        <v>1513</v>
+      </c>
+      <c r="C1514" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1514" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1514" s="1" t="n">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1515" s="1" t="n">
+        <v>1514</v>
+      </c>
+      <c r="C1515" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1515" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1515" s="1" t="n">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1516" s="1" t="n">
+        <v>1515</v>
+      </c>
+      <c r="C1516" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1516" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1516" s="1" t="n">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1517" s="1" t="n">
+        <v>1516</v>
+      </c>
+      <c r="C1517" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1517" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1517" s="1" t="n">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1518" s="1" t="n">
+        <v>1517</v>
+      </c>
+      <c r="C1518" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1518" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1518" s="1" t="n">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1519" s="1" t="n">
+        <v>1518</v>
+      </c>
+      <c r="C1519" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1519" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1519" s="1" t="n">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1520" s="1" t="n">
+        <v>1519</v>
+      </c>
+      <c r="C1520" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1520" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1520" s="1" t="n">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1521" s="1" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C1521" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1521" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1521" s="1" t="n">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1522" s="1" t="n">
+        <v>1521</v>
+      </c>
+      <c r="C1522" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1522" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1522" s="1" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1523" s="1" t="n">
+        <v>1522</v>
+      </c>
+      <c r="C1523" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1523" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1523" s="1" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1524" s="1" t="n">
+        <v>1523</v>
+      </c>
+      <c r="C1524" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1524" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1524" s="1" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1525" s="1" t="n">
+        <v>1524</v>
+      </c>
+      <c r="C1525" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1525" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1525" s="1" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1526" s="1" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C1526" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1526" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1526" s="1" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1527" s="1" t="n">
+        <v>1526</v>
+      </c>
+      <c r="C1527" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1527" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1527" s="1" t="n">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1528" s="1" t="n">
+        <v>1527</v>
+      </c>
+      <c r="C1528" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1528" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1528" s="1" t="n">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1529" s="1" t="n">
+        <v>1528</v>
+      </c>
+      <c r="C1529" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1529" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1529" s="1" t="n">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1530" s="1" t="n">
+        <v>1529</v>
+      </c>
+      <c r="C1530" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1530" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1530" s="1" t="n">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1531" s="1" t="n">
+        <v>1530</v>
+      </c>
+      <c r="C1531" s="5" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D1531" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1531" s="1" t="n">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1532" s="1" t="n">
+        <v>1531</v>
+      </c>
+      <c r="C1532" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1532" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1532" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1533" s="1" t="n">
+        <v>1532</v>
+      </c>
+      <c r="C1533" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1533" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1533" s="1" t="n">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1534" s="1" t="n">
+        <v>1533</v>
+      </c>
+      <c r="C1534" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1534" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1534" s="1" t="n">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1535" s="1" t="n">
+        <v>1534</v>
+      </c>
+      <c r="C1535" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1535" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1535" s="1" t="n">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1536" s="1" t="n">
+        <v>1535</v>
+      </c>
+      <c r="C1536" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1536" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1536" s="1" t="n">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1537" s="1" t="n">
+        <v>1536</v>
+      </c>
+      <c r="C1537" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1537" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1537" s="1" t="n">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1538" s="1" t="n">
+        <v>1537</v>
+      </c>
+      <c r="C1538" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1538" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I1538" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1539" s="1" t="n">
+        <v>1538</v>
+      </c>
+      <c r="C1539" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1539" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1539" s="1" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1540" s="1" t="n">
+        <v>1539</v>
+      </c>
+      <c r="C1540" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1540" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1540" s="1" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1541" s="1" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C1541" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1541" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1541" s="1" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1542" s="1" t="n">
+        <v>1541</v>
+      </c>
+      <c r="C1542" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1542" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1542" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1543" s="1" t="n">
+        <v>1542</v>
+      </c>
+      <c r="C1543" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1543" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1543" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1544" s="1" t="n">
+        <v>1543</v>
+      </c>
+      <c r="C1544" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1544" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1544" s="1" t="n">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1545" s="1" t="n">
+        <v>1544</v>
+      </c>
+      <c r="C1545" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1545" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1545" s="1" t="n">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1546" s="1" t="n">
+        <v>1545</v>
+      </c>
+      <c r="C1546" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1546" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1546" s="1" t="n">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1547" s="1" t="n">
+        <v>1546</v>
+      </c>
+      <c r="C1547" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1547" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1547" s="1" t="n">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1548" s="1" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C1548" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1548" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1548" s="1" t="n">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1549" s="1" t="n">
+        <v>1548</v>
+      </c>
+      <c r="C1549" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1549" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I1549" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1550" s="1" t="n">
+        <v>1549</v>
+      </c>
+      <c r="C1550" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1550" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1550" s="1" t="n">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1551" s="1" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C1551" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1551" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1551" s="1" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1552" s="1" t="n">
+        <v>1551</v>
+      </c>
+      <c r="C1552" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1552" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1552" s="1" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1553" s="1" t="n">
+        <v>1552</v>
+      </c>
+      <c r="C1553" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1553" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1554" s="1" t="n">
+        <v>1553</v>
+      </c>
+      <c r="C1554" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1554" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1554" s="1" t="n">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1555" s="1" t="n">
+        <v>1554</v>
+      </c>
+      <c r="C1555" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1555" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1555" s="1" t="n">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1556" s="1" t="n">
+        <v>1555</v>
+      </c>
+      <c r="C1556" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1556" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1556" s="1" t="n">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1557" s="1" t="n">
+        <v>1556</v>
+      </c>
+      <c r="C1557" s="5" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D1557" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1558" s="1" t="n">
+        <v>1557</v>
+      </c>
+      <c r="C1558" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1558" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1559" s="1" t="n">
+        <v>1558</v>
+      </c>
+      <c r="C1559" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1559" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1560" s="1" t="n">
+        <v>1559</v>
+      </c>
+      <c r="C1560" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1560" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1561" s="1" t="n">
+        <v>1560</v>
+      </c>
+      <c r="C1561" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1561" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1562" s="1" t="n">
+        <v>1561</v>
+      </c>
+      <c r="C1562" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1562" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1563" s="1" t="n">
+        <v>1562</v>
+      </c>
+      <c r="C1563" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1563" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1563" s="1" t="n">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1564" s="1" t="n">
+        <v>1563</v>
+      </c>
+      <c r="C1564" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1564" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1564" s="1" t="n">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1565" s="1" t="n">
+        <v>1564</v>
+      </c>
+      <c r="C1565" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1565" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1565" s="1" t="n">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1566" s="1" t="n">
+        <v>1565</v>
+      </c>
+      <c r="C1566" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1566" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1566" s="1" t="n">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1567" s="1" t="n">
+        <v>1566</v>
+      </c>
+      <c r="C1567" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1567" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1568" s="1" t="n">
+        <v>1567</v>
+      </c>
+      <c r="C1568" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1568" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1568" s="1" t="n">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1569" s="1" t="n">
+        <v>1568</v>
+      </c>
+      <c r="C1569" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1569" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1569" s="1" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1570" s="1" t="n">
+        <v>1569</v>
+      </c>
+      <c r="C1570" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1570" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1570" s="1" t="n">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1571" s="1" t="n">
+        <v>1570</v>
+      </c>
+      <c r="C1571" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1571" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1571" s="1" t="n">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1572" s="1" t="n">
+        <v>1571</v>
+      </c>
+      <c r="C1572" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1572" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1572" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1573" s="1" t="n">
+        <v>1572</v>
+      </c>
+      <c r="C1573" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1573" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1573" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1574" s="1" t="n">
+        <v>1573</v>
+      </c>
+      <c r="C1574" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1574" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1574" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1575" s="1" t="n">
+        <v>1574</v>
+      </c>
+      <c r="C1575" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1575" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1576" s="1" t="n">
+        <v>1575</v>
+      </c>
+      <c r="C1576" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1576" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1576" s="1" t="n">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1577" s="1" t="n">
+        <v>1576</v>
+      </c>
+      <c r="C1577" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1577" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1577" s="1" t="n">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1578" s="1" t="n">
+        <v>1577</v>
+      </c>
+      <c r="C1578" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1578" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1578" s="1" t="n">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1579" s="1" t="n">
+        <v>1578</v>
+      </c>
+      <c r="C1579" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1579" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1579" s="1" t="n">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1580" s="1" t="n">
+        <v>1579</v>
+      </c>
+      <c r="C1580" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1580" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1580" s="1" t="n">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1581" s="1" t="n">
+        <v>1580</v>
+      </c>
+      <c r="C1581" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1581" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1581" s="1" t="n">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1582" s="1" t="n">
+        <v>1581</v>
+      </c>
+      <c r="C1582" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1582" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1582" s="1" t="n">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1583" s="1" t="n">
+        <v>1582</v>
+      </c>
+      <c r="C1583" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1583" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1583" s="1" t="n">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1584" s="1" t="n">
+        <v>1583</v>
+      </c>
+      <c r="C1584" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1584" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1584" s="1" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1585" s="1" t="n">
+        <v>1584</v>
+      </c>
+      <c r="C1585" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1585" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1585" s="1" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1586" s="1" t="n">
+        <v>1585</v>
+      </c>
+      <c r="C1586" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1586" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1586" s="1" t="n">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1587" s="1" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C1587" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1587" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1587" s="1" t="n">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1588" s="1" t="n">
+        <v>1587</v>
+      </c>
+      <c r="C1588" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1588" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1589" s="1" t="n">
+        <v>1588</v>
+      </c>
+      <c r="C1589" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1589" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1590" s="1" t="n">
+        <v>1589</v>
+      </c>
+      <c r="C1590" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1590" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1591" s="1" t="n">
+        <v>1590</v>
+      </c>
+      <c r="C1591" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1591" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1591" s="1" t="n">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1592" s="1" t="n">
+        <v>1591</v>
+      </c>
+      <c r="C1592" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1592" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1592" s="1" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1593" s="1" t="n">
+        <v>1592</v>
+      </c>
+      <c r="C1593" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1593" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1593" s="1" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1594" s="1" t="n">
+        <v>1593</v>
+      </c>
+      <c r="C1594" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1594" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1594" s="1" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1595" s="1" t="n">
+        <v>1594</v>
+      </c>
+      <c r="C1595" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1595" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1595" s="1" t="n">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1596" s="1" t="n">
+        <v>1595</v>
+      </c>
+      <c r="C1596" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1596" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1596" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1597" s="1" t="n">
+        <v>1596</v>
+      </c>
+      <c r="C1597" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1597" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1597" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1598" s="1" t="n">
+        <v>1597</v>
+      </c>
+      <c r="C1598" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1598" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1598" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1599" s="1" t="n">
+        <v>1598</v>
+      </c>
+      <c r="C1599" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1599" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1599" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1600" s="1" t="n">
+        <v>1599</v>
+      </c>
+      <c r="C1600" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1600" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1600" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1601" s="1" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C1601" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1601" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1601" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1602" s="1" t="n">
+        <v>1601</v>
+      </c>
+      <c r="C1602" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1602" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1602" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1603" s="1" t="n">
+        <v>1602</v>
+      </c>
+      <c r="C1603" s="5" t="n">
+        <v>44604</v>
+      </c>
+      <c r="D1603" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1603" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1604" s="1" t="n">
+        <v>1603</v>
+      </c>
+      <c r="C1604" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1604" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1605" s="1" t="n">
+        <v>1604</v>
+      </c>
+      <c r="C1605" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1605" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1606" s="1" t="n">
+        <v>1605</v>
+      </c>
+      <c r="C1606" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1606" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1606" s="1" t="n">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1607" s="1" t="n">
+        <v>1606</v>
+      </c>
+      <c r="C1607" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1607" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1607" s="1" t="n">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1608" s="1" t="n">
+        <v>1607</v>
+      </c>
+      <c r="C1608" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1608" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1608" s="1" t="n">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1609" s="1" t="n">
+        <v>1608</v>
+      </c>
+      <c r="C1609" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1609" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1609" s="1" t="n">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1610" s="1" t="n">
+        <v>1609</v>
+      </c>
+      <c r="C1610" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1610" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1610" s="1" t="n">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1611" s="1" t="n">
+        <v>1610</v>
+      </c>
+      <c r="C1611" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1611" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1611" s="1" t="n">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1612" s="1" t="n">
+        <v>1611</v>
+      </c>
+      <c r="C1612" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1612" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1612" s="1" t="n">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1613" s="1" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C1613" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1613" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1613" s="1" t="n">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="1614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1614" s="1" t="n">
+        <v>1613</v>
+      </c>
+      <c r="C1614" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1614" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1614" s="1" t="n">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1615" s="1" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C1615" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1615" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1615" s="1" t="n">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1616" s="1" t="n">
+        <v>1615</v>
+      </c>
+      <c r="C1616" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1616" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1616" s="1" t="n">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1617" s="1" t="n">
+        <v>1616</v>
+      </c>
+      <c r="C1617" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1617" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1617" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1618" s="1" t="n">
+        <v>1617</v>
+      </c>
+      <c r="C1618" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1618" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1618" s="1" t="n">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1619" s="1" t="n">
+        <v>1618</v>
+      </c>
+      <c r="C1619" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1619" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1619" s="1" t="n">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1620" s="1" t="n">
+        <v>1619</v>
+      </c>
+      <c r="C1620" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1620" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1620" s="1" t="n">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1621" s="1" t="n">
+        <v>1620</v>
+      </c>
+      <c r="C1621" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1621" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1621" s="1" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1622" s="1" t="n">
+        <v>1621</v>
+      </c>
+      <c r="C1622" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1622" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1622" s="1" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1623" s="1" t="n">
+        <v>1622</v>
+      </c>
+      <c r="C1623" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1623" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1623" s="1" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1624" s="1" t="n">
+        <v>1623</v>
+      </c>
+      <c r="C1624" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1624" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1624" s="1" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1625" s="1" t="n">
+        <v>1624</v>
+      </c>
+      <c r="C1625" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1625" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1625" s="1" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1626" s="1" t="n">
+        <v>1625</v>
+      </c>
+      <c r="C1626" s="5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="D1626" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1626" s="1" t="n">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1627" s="1" t="n">
+        <v>1626</v>
+      </c>
+      <c r="C1627" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1627" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1627" s="1" t="n">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1628" s="1" t="n">
+        <v>1627</v>
+      </c>
+      <c r="C1628" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1628" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1628" s="1" t="n">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1629" s="1" t="n">
+        <v>1628</v>
+      </c>
+      <c r="C1629" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1629" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1629" s="1" t="n">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1630" s="1" t="n">
+        <v>1629</v>
+      </c>
+      <c r="C1630" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1630" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1630" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1631" s="1" t="n">
+        <v>1630</v>
+      </c>
+      <c r="C1631" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1631" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1631" s="1" t="n">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1632" s="1" t="n">
+        <v>1631</v>
+      </c>
+      <c r="C1632" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1632" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1632" s="1" t="n">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="1633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1633" s="1" t="n">
+        <v>1632</v>
+      </c>
+      <c r="C1633" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1633" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1633" s="1" t="n">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="1634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1634" s="1" t="n">
+        <v>1633</v>
+      </c>
+      <c r="C1634" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1634" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1634" s="1" t="n">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="1635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1635" s="1" t="n">
+        <v>1634</v>
+      </c>
+      <c r="C1635" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1635" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1635" s="1" t="n">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1636" s="1" t="n">
+        <v>1635</v>
+      </c>
+      <c r="C1636" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1636" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1636" s="1" t="n">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1637" s="1" t="n">
+        <v>1636</v>
+      </c>
+      <c r="C1637" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1637" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1637" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1638" s="1" t="n">
+        <v>1637</v>
+      </c>
+      <c r="C1638" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1638" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1638" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1639" s="1" t="n">
+        <v>1638</v>
+      </c>
+      <c r="C1639" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1639" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1640" s="1" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C1640" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1640" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1641" s="1" t="n">
+        <v>1640</v>
+      </c>
+      <c r="C1641" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1641" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1642" s="1" t="n">
+        <v>1641</v>
+      </c>
+      <c r="C1642" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1642" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1643" s="1" t="n">
+        <v>1642</v>
+      </c>
+      <c r="C1643" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1643" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1644" s="1" t="n">
+        <v>1643</v>
+      </c>
+      <c r="C1644" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1644" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1644" s="1" t="n">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1645" s="1" t="n">
+        <v>1644</v>
+      </c>
+      <c r="C1645" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1645" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1645" s="1" t="n">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1646" s="1" t="n">
+        <v>1645</v>
+      </c>
+      <c r="C1646" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1646" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1646" s="1" t="n">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1647" s="1" t="n">
+        <v>1646</v>
+      </c>
+      <c r="C1647" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1647" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1647" s="1" t="n">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1648" s="1" t="n">
+        <v>1647</v>
+      </c>
+      <c r="C1648" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1648" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1648" s="1" t="n">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1649" s="1" t="n">
+        <v>1648</v>
+      </c>
+      <c r="C1649" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1649" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1649" s="1" t="n">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1650" s="1" t="n">
+        <v>1649</v>
+      </c>
+      <c r="C1650" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1650" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1650" s="1" t="n">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1651" s="1" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C1651" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1651" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1652" s="1" t="n">
+        <v>1651</v>
+      </c>
+      <c r="C1652" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1652" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1653" s="1" t="n">
+        <v>1652</v>
+      </c>
+      <c r="C1653" s="5" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D1653" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1654" s="1" t="n">
+        <v>1653</v>
+      </c>
+      <c r="C1654" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1654" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1654" s="1" t="n">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="1655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1655" s="1" t="n">
+        <v>1654</v>
+      </c>
+      <c r="C1655" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1655" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1656" s="1" t="n">
+        <v>1655</v>
+      </c>
+      <c r="C1656" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1656" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1656" s="1" t="n">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1657" s="1" t="n">
+        <v>1656</v>
+      </c>
+      <c r="C1657" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1657" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1657" s="1" t="n">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1658" s="1" t="n">
+        <v>1657</v>
+      </c>
+      <c r="C1658" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1658" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1658" s="1" t="n">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1659" s="1" t="n">
+        <v>1658</v>
+      </c>
+      <c r="C1659" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1659" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1660" s="1" t="n">
+        <v>1659</v>
+      </c>
+      <c r="C1660" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1660" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1660" s="1" t="n">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1661" s="1" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C1661" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1661" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1662" s="1" t="n">
+        <v>1661</v>
+      </c>
+      <c r="C1662" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1662" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1663" s="1" t="n">
+        <v>1662</v>
+      </c>
+      <c r="C1663" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1663" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1663" s="1" t="n">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1664" s="1" t="n">
+        <v>1663</v>
+      </c>
+      <c r="C1664" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1664" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1664" s="1" t="n">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1665" s="1" t="n">
+        <v>1664</v>
+      </c>
+      <c r="C1665" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1665" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1665" s="1" t="n">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1666" s="1" t="n">
+        <v>1665</v>
+      </c>
+      <c r="C1666" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1666" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1666" s="1" t="n">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1667" s="1" t="n">
+        <v>1666</v>
+      </c>
+      <c r="C1667" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1667" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1667" s="1" t="n">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1668" s="1" t="n">
+        <v>1667</v>
+      </c>
+      <c r="C1668" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1668" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1668" s="1" t="n">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="1669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1669" s="1" t="n">
+        <v>1668</v>
+      </c>
+      <c r="C1669" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1669" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1669" s="1" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1670" s="1" t="n">
+        <v>1669</v>
+      </c>
+      <c r="C1670" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1670" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1670" s="1" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1671" s="1" t="n">
+        <v>1670</v>
+      </c>
+      <c r="C1671" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1671" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1671" s="1" t="n">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1672" s="1" t="n">
+        <v>1671</v>
+      </c>
+      <c r="C1672" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1672" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1672" s="1" t="n">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1673" s="1" t="n">
+        <v>1672</v>
+      </c>
+      <c r="C1673" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1673" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1673" s="1" t="n">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="1674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1674" s="1" t="n">
+        <v>1673</v>
+      </c>
+      <c r="C1674" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1674" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1675" s="1" t="n">
+        <v>1674</v>
+      </c>
+      <c r="C1675" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1675" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1675" s="1" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1676" s="1" t="n">
+        <v>1675</v>
+      </c>
+      <c r="C1676" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1676" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1676" s="1" t="n">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="1677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1677" s="1" t="n">
+        <v>1676</v>
+      </c>
+      <c r="C1677" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1677" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1677" s="1" t="n">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1678" s="1" t="n">
+        <v>1677</v>
+      </c>
+      <c r="C1678" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1678" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1678" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1679" s="1" t="n">
+        <v>1678</v>
+      </c>
+      <c r="C1679" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1679" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1679" s="1" t="n">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="1680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1680" s="1" t="n">
+        <v>1679</v>
+      </c>
+      <c r="C1680" s="5" t="n">
+        <v>44607</v>
+      </c>
+      <c r="D1680" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1681" s="1" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C1681" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1681" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1682" s="1" t="n">
+        <v>1681</v>
+      </c>
+      <c r="C1682" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1682" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1682" s="1" t="n">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1683" s="1" t="n">
+        <v>1682</v>
+      </c>
+      <c r="C1683" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1683" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1683" s="1" t="n">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="1684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1684" s="1" t="n">
+        <v>1683</v>
+      </c>
+      <c r="C1684" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1684" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1684" s="1" t="n">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1685" s="1" t="n">
+        <v>1684</v>
+      </c>
+      <c r="C1685" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1685" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1685" s="1" t="n">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1686" s="1" t="n">
+        <v>1685</v>
+      </c>
+      <c r="C1686" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1686" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1686" s="1" t="n">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1687" s="1" t="n">
+        <v>1686</v>
+      </c>
+      <c r="C1687" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1687" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1687" s="1" t="n">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1688" s="1" t="n">
+        <v>1687</v>
+      </c>
+      <c r="C1688" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1688" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1688" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1689" s="1" t="n">
+        <v>1688</v>
+      </c>
+      <c r="C1689" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1689" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1690" s="1" t="n">
+        <v>1689</v>
+      </c>
+      <c r="C1690" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1690" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1691" s="1" t="n">
+        <v>1690</v>
+      </c>
+      <c r="C1691" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1691" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1691" s="1" t="n">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1692" s="1" t="n">
+        <v>1691</v>
+      </c>
+      <c r="C1692" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1692" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1692" s="1" t="n">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1693" s="1" t="n">
+        <v>1692</v>
+      </c>
+      <c r="C1693" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1693" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1693" s="1" t="n">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1694" s="1" t="n">
+        <v>1693</v>
+      </c>
+      <c r="C1694" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1694" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1694" s="1" t="n">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1695" s="1" t="n">
+        <v>1694</v>
+      </c>
+      <c r="C1695" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1695" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1695" s="1" t="n">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1696" s="1" t="n">
+        <v>1695</v>
+      </c>
+      <c r="C1696" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1696" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1696" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1697" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="C1697" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1697" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1697" s="1" t="n">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1698" s="1" t="n">
+        <v>1697</v>
+      </c>
+      <c r="C1698" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1698" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1698" s="1" t="n">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1699" s="1" t="n">
+        <v>1698</v>
+      </c>
+      <c r="C1699" s="5" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D1699" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1700" s="1" t="n">
+        <v>1699</v>
+      </c>
+      <c r="C1700" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1700" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1701" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C1701" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1701" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1701" s="1" t="n">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1702" s="1" t="n">
+        <v>1701</v>
+      </c>
+      <c r="C1702" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1702" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1702" s="1" t="n">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1703" s="1" t="n">
+        <v>1702</v>
+      </c>
+      <c r="C1703" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1703" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1703" s="1" t="n">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1704" s="1" t="n">
+        <v>1703</v>
+      </c>
+      <c r="C1704" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1704" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1704" s="1" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1705" s="1" t="n">
+        <v>1704</v>
+      </c>
+      <c r="C1705" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1705" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1706" s="1" t="n">
+        <v>1705</v>
+      </c>
+      <c r="C1706" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1706" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1707" s="1" t="n">
+        <v>1706</v>
+      </c>
+      <c r="C1707" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1707" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1708" s="1" t="n">
+        <v>1707</v>
+      </c>
+      <c r="C1708" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1708" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1708" s="1" t="n">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1709" s="1" t="n">
+        <v>1708</v>
+      </c>
+      <c r="C1709" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1709" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1709" s="1" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1710" s="1" t="n">
+        <v>1709</v>
+      </c>
+      <c r="C1710" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1710" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1710" s="1" t="n">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1711" s="1" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C1711" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1711" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1711" s="1" t="n">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1712" s="1" t="n">
+        <v>1711</v>
+      </c>
+      <c r="C1712" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1712" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1712" s="1" t="n">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1713" s="1" t="n">
+        <v>1712</v>
+      </c>
+      <c r="C1713" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1713" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1713" s="1" t="n">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1714" s="1" t="n">
+        <v>1713</v>
+      </c>
+      <c r="C1714" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1714" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1714" s="1" t="n">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1715" s="1" t="n">
+        <v>1714</v>
+      </c>
+      <c r="C1715" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1715" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1715" s="1" t="n">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1716" s="1" t="n">
+        <v>1715</v>
+      </c>
+      <c r="C1716" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1716" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1716" s="1" t="n">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1717" s="1" t="n">
+        <v>1716</v>
+      </c>
+      <c r="C1717" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1717" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1717" s="1" t="n">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1718" s="1" t="n">
+        <v>1717</v>
+      </c>
+      <c r="C1718" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1718" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1718" s="1" t="n">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1719" s="1" t="n">
+        <v>1718</v>
+      </c>
+      <c r="C1719" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1719" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1719" s="1" t="n">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1720" s="1" t="n">
+        <v>1719</v>
+      </c>
+      <c r="C1720" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1720" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1720" s="1" t="n">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1721" s="1" t="n">
+        <v>1720</v>
+      </c>
+      <c r="C1721" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1721" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1721" s="1" t="n">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="1722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1722" s="1" t="n">
+        <v>1721</v>
+      </c>
+      <c r="C1722" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1722" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1722" s="1" t="n">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1723" s="1" t="n">
+        <v>1722</v>
+      </c>
+      <c r="C1723" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1723" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1723" s="1" t="n">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1724" s="1" t="n">
+        <v>1723</v>
+      </c>
+      <c r="C1724" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1724" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1724" s="1" t="n">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1725" s="1" t="n">
+        <v>1724</v>
+      </c>
+      <c r="C1725" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1725" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1726" s="1" t="n">
+        <v>1725</v>
+      </c>
+      <c r="C1726" s="5" t="n">
+        <v>44609</v>
+      </c>
+      <c r="D1726" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1727" s="1" t="n">
+        <v>1726</v>
+      </c>
+      <c r="C1727" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1727" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1728" s="1" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C1728" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1728" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1728" s="1" t="n">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1729" s="1" t="n">
+        <v>1728</v>
+      </c>
+      <c r="C1729" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1729" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1729" s="1" t="n">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1730" s="1" t="n">
+        <v>1729</v>
+      </c>
+      <c r="C1730" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1730" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1730" s="1" t="n">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1731" s="1" t="n">
+        <v>1730</v>
+      </c>
+      <c r="C1731" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1731" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1731" s="1" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1732" s="1" t="n">
+        <v>1731</v>
+      </c>
+      <c r="C1732" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1732" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1732" s="1" t="n">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="1733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1733" s="1" t="n">
+        <v>1732</v>
+      </c>
+      <c r="C1733" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1733" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1734" s="1" t="n">
+        <v>1733</v>
+      </c>
+      <c r="C1734" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1734" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1735" s="1" t="n">
+        <v>1734</v>
+      </c>
+      <c r="C1735" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1735" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1736" s="1" t="n">
+        <v>1735</v>
+      </c>
+      <c r="C1736" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1736" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1737" s="1" t="n">
+        <v>1736</v>
+      </c>
+      <c r="C1737" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1737" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1738" s="1" t="n">
+        <v>1737</v>
+      </c>
+      <c r="C1738" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1738" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1739" s="1" t="n">
+        <v>1738</v>
+      </c>
+      <c r="C1739" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1739" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1739" s="1" t="n">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="1740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1740" s="1" t="n">
+        <v>1739</v>
+      </c>
+      <c r="C1740" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1740" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1740" s="1" t="n">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="1741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1741" s="1" t="n">
+        <v>1740</v>
+      </c>
+      <c r="C1741" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1741" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1741" s="1" t="n">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="1742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1742" s="1" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C1742" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1742" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1742" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1743" s="1" t="n">
+        <v>1742</v>
+      </c>
+      <c r="C1743" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1743" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1743" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1744" s="1" t="n">
+        <v>1743</v>
+      </c>
+      <c r="C1744" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1744" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1744" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1745" s="1" t="n">
+        <v>1744</v>
+      </c>
+      <c r="C1745" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1745" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1745" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1746" s="1" t="n">
+        <v>1745</v>
+      </c>
+      <c r="C1746" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1746" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1746" s="1" t="n">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1747" s="1" t="n">
+        <v>1746</v>
+      </c>
+      <c r="C1747" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1747" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1747" s="1" t="n">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1748" s="1" t="n">
+        <v>1747</v>
+      </c>
+      <c r="C1748" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1748" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1748" s="1" t="n">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1749" s="1" t="n">
+        <v>1748</v>
+      </c>
+      <c r="C1749" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1749" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1749" s="1" t="n">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1750" s="1" t="n">
+        <v>1749</v>
+      </c>
+      <c r="C1750" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1750" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1750" s="1" t="n">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1751" s="1" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C1751" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1751" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1751" s="1" t="n">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1752" s="1" t="n">
+        <v>1751</v>
+      </c>
+      <c r="C1752" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1752" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1752" s="1" t="n">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="1753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1753" s="1" t="n">
+        <v>1752</v>
+      </c>
+      <c r="C1753" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1753" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1753" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1754" s="1" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C1754" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1754" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1754" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1755" s="1" t="n">
+        <v>1754</v>
+      </c>
+      <c r="C1755" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1755" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1756" s="1" t="n">
+        <v>1755</v>
+      </c>
+      <c r="C1756" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1756" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1757" s="1" t="n">
+        <v>1756</v>
+      </c>
+      <c r="C1757" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1757" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1757" s="1" t="n">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1758" s="1" t="n">
+        <v>1757</v>
+      </c>
+      <c r="C1758" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1758" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1759" s="1" t="n">
+        <v>1758</v>
+      </c>
+      <c r="C1759" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1759" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1759" s="1" t="n">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1760" s="1" t="n">
+        <v>1759</v>
+      </c>
+      <c r="C1760" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D1760" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1761" s="1" t="n">
+        <v>1760</v>
+      </c>
+      <c r="C1761" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1761" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1762" s="1" t="n">
+        <v>1761</v>
+      </c>
+      <c r="C1762" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1762" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1763" s="1" t="n">
+        <v>1762</v>
+      </c>
+      <c r="C1763" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1763" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1763" s="1" t="n">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1764" s="1" t="n">
+        <v>1763</v>
+      </c>
+      <c r="C1764" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1764" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1764" s="1" t="n">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1765" s="1" t="n">
+        <v>1764</v>
+      </c>
+      <c r="C1765" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1765" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1765" s="1" t="n">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1766" s="1" t="n">
+        <v>1765</v>
+      </c>
+      <c r="C1766" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1766" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1766" s="1" t="n">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1767" s="1" t="n">
+        <v>1766</v>
+      </c>
+      <c r="C1767" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1767" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1767" s="1" t="n">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1768" s="1" t="n">
+        <v>1767</v>
+      </c>
+      <c r="C1768" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1768" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1768" s="1" t="n">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1769" s="1" t="n">
+        <v>1768</v>
+      </c>
+      <c r="C1769" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1769" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1769" s="1" t="n">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="1770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1770" s="1" t="n">
+        <v>1769</v>
+      </c>
+      <c r="C1770" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1770" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1771" s="1" t="n">
+        <v>1770</v>
+      </c>
+      <c r="C1771" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1771" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1772" s="1" t="n">
+        <v>1771</v>
+      </c>
+      <c r="C1772" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1772" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1772" s="1" t="n">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="1773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1773" s="1" t="n">
+        <v>1772</v>
+      </c>
+      <c r="C1773" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1773" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1773" s="1" t="n">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1774" s="1" t="n">
+        <v>1773</v>
+      </c>
+      <c r="C1774" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1774" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1774" s="1" t="n">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1775" s="1" t="n">
+        <v>1774</v>
+      </c>
+      <c r="C1775" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1775" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1775" s="1" t="n">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1776" s="1" t="n">
+        <v>1775</v>
+      </c>
+      <c r="C1776" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1776" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1777" s="1" t="n">
+        <v>1776</v>
+      </c>
+      <c r="C1777" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1777" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1777" s="1" t="n">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1778" s="1" t="n">
+        <v>1777</v>
+      </c>
+      <c r="C1778" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1778" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1778" s="1" t="n">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1779" s="1" t="n">
+        <v>1778</v>
+      </c>
+      <c r="C1779" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1779" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1780" s="1" t="n">
+        <v>1779</v>
+      </c>
+      <c r="C1780" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1780" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1780" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1781" s="1" t="n">
+        <v>1780</v>
+      </c>
+      <c r="C1781" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1781" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1781" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1782" s="1" t="n">
+        <v>1781</v>
+      </c>
+      <c r="C1782" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1782" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1782" s="1" t="n">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="1783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1783" s="1" t="n">
+        <v>1782</v>
+      </c>
+      <c r="C1783" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1783" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1783" s="1" t="n">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1784" s="1" t="n">
+        <v>1783</v>
+      </c>
+      <c r="C1784" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1784" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1784" s="1" t="n">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1785" s="1" t="n">
+        <v>1784</v>
+      </c>
+      <c r="C1785" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1785" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1785" s="1" t="n">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1786" s="1" t="n">
+        <v>1785</v>
+      </c>
+      <c r="C1786" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1786" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1786" s="1" t="n">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1787" s="1" t="n">
+        <v>1786</v>
+      </c>
+      <c r="C1787" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1787" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1787" s="1" t="n">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="1788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1788" s="1" t="n">
+        <v>1787</v>
+      </c>
+      <c r="C1788" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1788" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1788" s="1" t="n">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1789" s="1" t="n">
+        <v>1788</v>
+      </c>
+      <c r="C1789" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1789" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1789" s="1" t="n">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1790" s="1" t="n">
+        <v>1789</v>
+      </c>
+      <c r="C1790" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1790" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1790" s="1" t="n">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1791" s="1" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C1791" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1791" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1792" s="1" t="n">
+        <v>1791</v>
+      </c>
+      <c r="C1792" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1792" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1793" s="1" t="n">
+        <v>1792</v>
+      </c>
+      <c r="C1793" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="D1793" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="42">
   <si>
     <t xml:space="preserve">num_matsue</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">s5507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s5924</t>
   </si>
 </sst>
 </file>
@@ -280,13 +283,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1793"/>
+  <dimension ref="A1:J1988"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.39"/>
@@ -29441,6 +29444,2811 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1794" s="1" t="n">
+        <v>1793</v>
+      </c>
+      <c r="C1794" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1794" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1794" s="1" t="n">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1795" s="1" t="n">
+        <v>1794</v>
+      </c>
+      <c r="C1795" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1795" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1795" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1796" s="1" t="n">
+        <v>1795</v>
+      </c>
+      <c r="C1796" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1796" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1797" s="1" t="n">
+        <v>1796</v>
+      </c>
+      <c r="C1797" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1797" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1797" s="1" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1798" s="1" t="n">
+        <v>1797</v>
+      </c>
+      <c r="C1798" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1798" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1799" s="1" t="n">
+        <v>1798</v>
+      </c>
+      <c r="C1799" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1799" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1799" s="1" t="n">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1800" s="1" t="n">
+        <v>1799</v>
+      </c>
+      <c r="C1800" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1800" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1800" s="1" t="n">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1801" s="1" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1801" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1801" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1802" s="1" t="n">
+        <v>1801</v>
+      </c>
+      <c r="C1802" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1802" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1802" s="1" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1803" s="1" t="n">
+        <v>1802</v>
+      </c>
+      <c r="C1803" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1803" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1803" s="1" t="n">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1804" s="1" t="n">
+        <v>1803</v>
+      </c>
+      <c r="C1804" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1804" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1804" s="1" t="n">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1805" s="1" t="n">
+        <v>1804</v>
+      </c>
+      <c r="C1805" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1805" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1805" s="1" t="n">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1806" s="1" t="n">
+        <v>1805</v>
+      </c>
+      <c r="C1806" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1806" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1806" s="1" t="n">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="1807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1807" s="1" t="n">
+        <v>1806</v>
+      </c>
+      <c r="C1807" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1807" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1807" s="1" t="n">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1808" s="1" t="n">
+        <v>1807</v>
+      </c>
+      <c r="C1808" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1808" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1808" s="1" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="1809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1809" s="1" t="n">
+        <v>1808</v>
+      </c>
+      <c r="C1809" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1809" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1809" s="1" t="n">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="1810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1810" s="1" t="n">
+        <v>1809</v>
+      </c>
+      <c r="C1810" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1810" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1810" s="1" t="n">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="1811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1811" s="1" t="n">
+        <v>1810</v>
+      </c>
+      <c r="C1811" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1811" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1811" s="1" t="n">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1812" s="1" t="n">
+        <v>1811</v>
+      </c>
+      <c r="C1812" s="5" t="n">
+        <v>44612</v>
+      </c>
+      <c r="D1812" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1812" s="1" t="n">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1813" s="1" t="n">
+        <v>1812</v>
+      </c>
+      <c r="C1813" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1813" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1813" s="1" t="n">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1814" s="1" t="n">
+        <v>1813</v>
+      </c>
+      <c r="C1814" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1814" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1814" s="1" t="n">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1815" s="1" t="n">
+        <v>1814</v>
+      </c>
+      <c r="C1815" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1815" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1815" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1816" s="1" t="n">
+        <v>1815</v>
+      </c>
+      <c r="C1816" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1816" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1816" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1817" s="1" t="n">
+        <v>1816</v>
+      </c>
+      <c r="C1817" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1817" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1817" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1818" s="1" t="n">
+        <v>1817</v>
+      </c>
+      <c r="C1818" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1818" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1818" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1819" s="1" t="n">
+        <v>1818</v>
+      </c>
+      <c r="C1819" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1819" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1819" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1820" s="1" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C1820" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1820" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1820" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1821" s="1" t="n">
+        <v>1820</v>
+      </c>
+      <c r="C1821" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1821" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1821" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1822" s="1" t="n">
+        <v>1821</v>
+      </c>
+      <c r="C1822" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1822" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1822" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1823" s="1" t="n">
+        <v>1822</v>
+      </c>
+      <c r="C1823" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1823" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1823" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1824" s="1" t="n">
+        <v>1823</v>
+      </c>
+      <c r="C1824" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1824" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1824" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1825" s="1" t="n">
+        <v>1824</v>
+      </c>
+      <c r="C1825" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1825" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1825" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1826" s="1" t="n">
+        <v>1825</v>
+      </c>
+      <c r="C1826" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1826" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1826" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1827" s="1" t="n">
+        <v>1826</v>
+      </c>
+      <c r="C1827" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1827" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1827" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1828" s="1" t="n">
+        <v>1827</v>
+      </c>
+      <c r="C1828" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1828" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1828" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1829" s="1" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C1829" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1829" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1829" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1830" s="1" t="n">
+        <v>1829</v>
+      </c>
+      <c r="C1830" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1830" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1830" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1831" s="1" t="n">
+        <v>1830</v>
+      </c>
+      <c r="C1831" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1831" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1831" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1832" s="1" t="n">
+        <v>1831</v>
+      </c>
+      <c r="C1832" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1832" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1832" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1833" s="1" t="n">
+        <v>1832</v>
+      </c>
+      <c r="C1833" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1833" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1833" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1834" s="1" t="n">
+        <v>1833</v>
+      </c>
+      <c r="C1834" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1834" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1834" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1835" s="1" t="n">
+        <v>1834</v>
+      </c>
+      <c r="C1835" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1835" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1835" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1836" s="1" t="n">
+        <v>1835</v>
+      </c>
+      <c r="C1836" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1836" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1836" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1837" s="1" t="n">
+        <v>1836</v>
+      </c>
+      <c r="C1837" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1837" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1837" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1838" s="1" t="n">
+        <v>1837</v>
+      </c>
+      <c r="C1838" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1838" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1838" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1839" s="1" t="n">
+        <v>1838</v>
+      </c>
+      <c r="C1839" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1839" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1839" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1840" s="1" t="n">
+        <v>1839</v>
+      </c>
+      <c r="C1840" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1840" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1840" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1841" s="1" t="n">
+        <v>1840</v>
+      </c>
+      <c r="C1841" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1841" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1841" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1842" s="1" t="n">
+        <v>1841</v>
+      </c>
+      <c r="C1842" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1842" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1842" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1843" s="1" t="n">
+        <v>1842</v>
+      </c>
+      <c r="C1843" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1843" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1843" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1844" s="1" t="n">
+        <v>1843</v>
+      </c>
+      <c r="C1844" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1844" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1844" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1845" s="1" t="n">
+        <v>1844</v>
+      </c>
+      <c r="C1845" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1845" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1845" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1846" s="1" t="n">
+        <v>1845</v>
+      </c>
+      <c r="C1846" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1846" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1846" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1847" s="1" t="n">
+        <v>1846</v>
+      </c>
+      <c r="C1847" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1847" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1847" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1848" s="1" t="n">
+        <v>1847</v>
+      </c>
+      <c r="C1848" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1848" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1848" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1849" s="1" t="n">
+        <v>1848</v>
+      </c>
+      <c r="C1849" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1849" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1849" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1850" s="1" t="n">
+        <v>1849</v>
+      </c>
+      <c r="C1850" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1850" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1850" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1851" s="1" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C1851" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1851" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1852" s="1" t="n">
+        <v>1851</v>
+      </c>
+      <c r="C1852" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1852" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1852" s="1" t="n">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1853" s="1" t="n">
+        <v>1852</v>
+      </c>
+      <c r="C1853" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1853" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1853" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1854" s="1" t="n">
+        <v>1853</v>
+      </c>
+      <c r="C1854" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1854" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1854" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1855" s="1" t="n">
+        <v>1854</v>
+      </c>
+      <c r="C1855" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1855" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1855" s="1" t="n">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1856" s="1" t="n">
+        <v>1855</v>
+      </c>
+      <c r="C1856" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1856" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1856" s="1" t="n">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1857" s="1" t="n">
+        <v>1856</v>
+      </c>
+      <c r="C1857" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1857" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1857" s="1" t="n">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1858" s="1" t="n">
+        <v>1857</v>
+      </c>
+      <c r="C1858" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1858" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1858" s="1" t="n">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1859" s="1" t="n">
+        <v>1858</v>
+      </c>
+      <c r="C1859" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1859" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1859" s="1" t="n">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1860" s="1" t="n">
+        <v>1859</v>
+      </c>
+      <c r="C1860" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1860" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1861" s="1" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C1861" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1861" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1862" s="1" t="n">
+        <v>1861</v>
+      </c>
+      <c r="C1862" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1862" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1862" s="1" t="n">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1863" s="1" t="n">
+        <v>1862</v>
+      </c>
+      <c r="C1863" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1863" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1863" s="1" t="n">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1864" s="1" t="n">
+        <v>1863</v>
+      </c>
+      <c r="C1864" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1864" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1864" s="1" t="n">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1865" s="1" t="n">
+        <v>1864</v>
+      </c>
+      <c r="C1865" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1865" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1866" s="1" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C1866" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1866" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1866" s="1" t="n">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1867" s="1" t="n">
+        <v>1866</v>
+      </c>
+      <c r="C1867" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1867" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1868" s="1" t="n">
+        <v>1867</v>
+      </c>
+      <c r="C1868" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1868" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1868" s="1" t="n">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1869" s="1" t="n">
+        <v>1868</v>
+      </c>
+      <c r="C1869" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1869" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1869" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1870" s="1" t="n">
+        <v>1869</v>
+      </c>
+      <c r="C1870" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1870" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1870" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1871" s="1" t="n">
+        <v>1870</v>
+      </c>
+      <c r="C1871" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1871" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1872" s="1" t="n">
+        <v>1871</v>
+      </c>
+      <c r="C1872" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1872" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1873" s="1" t="n">
+        <v>1872</v>
+      </c>
+      <c r="C1873" s="5" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D1873" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1874" s="1" t="n">
+        <v>1873</v>
+      </c>
+      <c r="C1874" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1874" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1874" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1875" s="1" t="n">
+        <v>1874</v>
+      </c>
+      <c r="C1875" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1875" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1875" s="1" t="n">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1876" s="1" t="n">
+        <v>1875</v>
+      </c>
+      <c r="C1876" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1876" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1876" s="1" t="n">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1877" s="1" t="n">
+        <v>1876</v>
+      </c>
+      <c r="C1877" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1877" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1877" s="1" t="n">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1878" s="1" t="n">
+        <v>1877</v>
+      </c>
+      <c r="C1878" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1878" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1878" s="1" t="n">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="1879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1879" s="1" t="n">
+        <v>1878</v>
+      </c>
+      <c r="C1879" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1879" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1879" s="1" t="n">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1880" s="1" t="n">
+        <v>1879</v>
+      </c>
+      <c r="C1880" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1880" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1880" s="1" t="n">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="1881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1881" s="1" t="n">
+        <v>1880</v>
+      </c>
+      <c r="C1881" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1881" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1881" s="1" t="n">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="1882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1882" s="1" t="n">
+        <v>1881</v>
+      </c>
+      <c r="C1882" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1882" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1882" s="1" t="n">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="1883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1883" s="1" t="n">
+        <v>1882</v>
+      </c>
+      <c r="C1883" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1883" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1883" s="1" t="n">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="1884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1884" s="1" t="n">
+        <v>1883</v>
+      </c>
+      <c r="C1884" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1884" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1884" s="1" t="n">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1885" s="1" t="n">
+        <v>1884</v>
+      </c>
+      <c r="C1885" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1885" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1885" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1886" s="1" t="n">
+        <v>1885</v>
+      </c>
+      <c r="C1886" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1886" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1887" s="1" t="n">
+        <v>1886</v>
+      </c>
+      <c r="C1887" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1887" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1887" s="1" t="n">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="1888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1888" s="1" t="n">
+        <v>1887</v>
+      </c>
+      <c r="C1888" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1888" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1888" s="1" t="n">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1889" s="1" t="n">
+        <v>1888</v>
+      </c>
+      <c r="C1889" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1889" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1889" s="1" t="n">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1890" s="1" t="n">
+        <v>1889</v>
+      </c>
+      <c r="C1890" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1890" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1891" s="1" t="n">
+        <v>1890</v>
+      </c>
+      <c r="C1891" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1891" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1891" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1892" s="1" t="n">
+        <v>1891</v>
+      </c>
+      <c r="C1892" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1892" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1892" s="1" t="n">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1893" s="1" t="n">
+        <v>1892</v>
+      </c>
+      <c r="C1893" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1893" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1893" s="1" t="n">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1894" s="1" t="n">
+        <v>1893</v>
+      </c>
+      <c r="C1894" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1894" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1894" s="1" t="n">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1895" s="1" t="n">
+        <v>1894</v>
+      </c>
+      <c r="C1895" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1895" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1896" s="1" t="n">
+        <v>1895</v>
+      </c>
+      <c r="C1896" s="5" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D1896" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1897" s="1" t="n">
+        <v>1896</v>
+      </c>
+      <c r="C1897" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1897" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1897" s="1" t="n">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1898" s="1" t="n">
+        <v>1897</v>
+      </c>
+      <c r="C1898" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1898" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1898" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1899" s="1" t="n">
+        <v>1898</v>
+      </c>
+      <c r="C1899" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1899" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1899" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1900" s="1" t="n">
+        <v>1899</v>
+      </c>
+      <c r="C1900" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1900" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1900" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1901" s="1" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C1901" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1901" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1901" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1902" s="1" t="n">
+        <v>1901</v>
+      </c>
+      <c r="C1902" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1902" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1902" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1903" s="1" t="n">
+        <v>1902</v>
+      </c>
+      <c r="C1903" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1903" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1903" s="1" t="n">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1904" s="1" t="n">
+        <v>1903</v>
+      </c>
+      <c r="C1904" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1904" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1905" s="1" t="n">
+        <v>1904</v>
+      </c>
+      <c r="C1905" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1905" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1905" s="1" t="n">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="1906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1906" s="1" t="n">
+        <v>1905</v>
+      </c>
+      <c r="C1906" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1906" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1906" s="1" t="n">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="1907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1907" s="1" t="n">
+        <v>1906</v>
+      </c>
+      <c r="C1907" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1907" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1907" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1908" s="1" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C1908" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1908" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1908" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1909" s="1" t="n">
+        <v>1908</v>
+      </c>
+      <c r="C1909" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1909" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1910" s="1" t="n">
+        <v>1909</v>
+      </c>
+      <c r="C1910" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1910" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1911" s="1" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C1911" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1911" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1911" s="1" t="n">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1912" s="1" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C1912" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1912" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1912" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1913" s="1" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C1913" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1913" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1913" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1914" s="1" t="n">
+        <v>1913</v>
+      </c>
+      <c r="C1914" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1914" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1914" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1915" s="1" t="n">
+        <v>1914</v>
+      </c>
+      <c r="C1915" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1915" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I1915" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1916" s="1" t="n">
+        <v>1915</v>
+      </c>
+      <c r="C1916" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1916" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1916" s="1" t="n">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1917" s="1" t="n">
+        <v>1916</v>
+      </c>
+      <c r="C1917" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1917" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1917" s="1" t="n">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1918" s="1" t="n">
+        <v>1917</v>
+      </c>
+      <c r="C1918" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1918" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1918" s="1" t="n">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1919" s="1" t="n">
+        <v>1918</v>
+      </c>
+      <c r="C1919" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1919" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1919" s="1" t="n">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1920" s="1" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1920" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1920" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1920" s="1" t="n">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1921" s="1" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C1921" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1921" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1921" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1922" s="1" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C1922" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1922" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1922" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1923" s="1" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C1923" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1923" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1923" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1924" s="1" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C1924" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1924" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1924" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1925" s="1" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C1925" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1925" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E1925" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1926" s="1" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C1926" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1926" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1926" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1927" s="1" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C1927" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1927" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1927" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1928" s="1" t="n">
+        <v>1927</v>
+      </c>
+      <c r="C1928" s="5" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D1928" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1928" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1929" s="1" t="n">
+        <v>1928</v>
+      </c>
+      <c r="C1929" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1929" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1930" s="1" t="n">
+        <v>1929</v>
+      </c>
+      <c r="C1930" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1930" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1931" s="1" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C1931" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1931" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1931" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1932" s="1" t="n">
+        <v>1931</v>
+      </c>
+      <c r="C1932" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1932" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1933" s="1" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C1933" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1933" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1933" s="1" t="n">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="1934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1934" s="1" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C1934" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1934" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1934" s="1" t="n">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1935" s="1" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C1935" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1935" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1936" s="1" t="n">
+        <v>1935</v>
+      </c>
+      <c r="C1936" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1936" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1936" s="1" t="n">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="1937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1937" s="1" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C1937" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1937" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1937" s="1" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1938" s="1" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C1938" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1938" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1938" s="1" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1939" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C1939" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1939" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1939" s="1" t="n">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1940" s="1" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C1940" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1940" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1941" s="1" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C1941" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1941" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1942" s="1" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C1942" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1942" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1942" s="1" t="n">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="1943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1943" s="1" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C1943" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1943" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1944" s="1" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C1944" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1944" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1945" s="1" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C1945" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1945" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1946" s="1" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C1946" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1946" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1946" s="1" t="n">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="1947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1947" s="1" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C1947" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1947" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1948" s="1" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C1948" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1948" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1948" s="1" t="n">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="1949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1949" s="1" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C1949" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1949" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1949" s="1" t="n">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="1950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1950" s="1" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C1950" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1950" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1950" s="1" t="n">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1951" s="1" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C1951" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1951" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1951" s="1" t="n">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1952" s="1" t="n">
+        <v>1951</v>
+      </c>
+      <c r="C1952" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1952" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1952" s="1" t="n">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="1953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1953" s="1" t="n">
+        <v>1952</v>
+      </c>
+      <c r="C1953" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1953" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1953" s="1" t="n">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1954" s="1" t="n">
+        <v>1953</v>
+      </c>
+      <c r="C1954" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1954" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1954" s="1" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1955" s="1" t="n">
+        <v>1954</v>
+      </c>
+      <c r="C1955" s="5" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D1955" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1956" s="1" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C1956" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1956" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1956" s="1" t="n">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="1957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1957" s="1" t="n">
+        <v>1956</v>
+      </c>
+      <c r="C1957" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1957" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1958" s="1" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C1958" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1958" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1959" s="1" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C1959" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1959" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1960" s="1" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C1960" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1960" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1960" s="1" t="n">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1961" s="1" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C1961" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1961" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1961" s="1" t="n">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="1962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1962" s="1" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C1962" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1962" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1962" s="1" t="n">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1963" s="1" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C1963" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1963" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1963" s="1" t="n">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1964" s="1" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C1964" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1964" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1964" s="1" t="n">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="1965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1965" s="1" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C1965" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1965" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1965" s="1" t="n">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="1966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1966" s="1" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C1966" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1966" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1966" s="1" t="n">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="1967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1967" s="1" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C1967" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1967" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1968" s="1" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C1968" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1968" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1969" s="1" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C1969" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1969" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1969" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1970" s="1" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C1970" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1970" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1970" s="1" t="n">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="1971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1971" s="1" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C1971" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1971" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1972" s="1" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C1972" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1972" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1973" s="1" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C1973" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1973" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1974" s="1" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C1974" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1974" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1975" s="1" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C1975" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1975" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1975" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1976" s="1" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C1976" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1976" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1976" s="1" t="n">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1977" s="1" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C1977" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1977" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1977" s="1" t="n">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="1978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1978" s="1" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C1978" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1978" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1978" s="1" t="n">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="1979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1979" s="1" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C1979" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1979" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1979" s="1" t="n">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="1980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1980" s="1" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C1980" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1980" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1980" s="1" t="n">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="1981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1981" s="1" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C1981" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1981" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1981" s="1" t="n">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="1982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1982" s="1" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C1982" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1982" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1982" s="1" t="n">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1983" s="1" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C1983" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1983" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1983" s="1" t="n">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1984" s="1" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C1984" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1984" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1984" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1985" s="1" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C1985" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1985" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1985" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1986" s="1" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C1986" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1986" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1987" s="1" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C1987" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1987" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1987" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1988" s="1" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C1988" s="5" t="n">
+        <v>44617</v>
+      </c>
+      <c r="D1988" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="45">
   <si>
     <t xml:space="preserve">num_matsue</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t xml:space="preserve">s5924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s6028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s6681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s6682</t>
   </si>
 </sst>
 </file>
@@ -283,13 +292,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1988"/>
+  <dimension ref="A1:J2347"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.39"/>
@@ -32249,6 +32258,5193 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1989" s="1" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C1989" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D1989" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1989" s="1" t="n">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1990" s="1" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C1990" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D1990" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1990" s="1" t="n">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1991" s="1" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C1991" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D1991" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1991" s="1" t="n">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1992" s="1" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C1992" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D1992" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1993" s="1" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C1993" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D1993" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1993" s="1" t="n">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1994" s="1" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C1994" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D1994" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1994" s="1" t="n">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1995" s="1" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C1995" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D1995" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1995" s="1" t="n">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1996" s="1" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C1996" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D1996" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1996" s="1" t="n">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1997" s="1" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C1997" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D1997" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1997" s="1" t="n">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1998" s="1" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C1998" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D1998" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1998" s="1" t="n">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1999" s="1" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C1999" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D1999" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E1999" s="1" t="n">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="2000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2000" s="1" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C2000" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2000" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2000" s="1" t="n">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="2001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2001" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C2001" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2001" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2002" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C2002" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2002" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2002" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2003" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C2003" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2003" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2003" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2004" s="1" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C2004" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2004" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2004" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2005" s="1" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C2005" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2005" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2005" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2006" s="1" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C2006" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2006" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2006" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2007" s="1" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C2007" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2007" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2007" s="1" t="n">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="2008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2008" s="1" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C2008" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2008" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2009" s="1" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C2009" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2009" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2009" s="1" t="n">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="2010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2010" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C2010" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2010" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2010" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="2011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2011" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C2011" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2011" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2011" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="2012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2012" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C2012" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2012" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2012" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="2013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2013" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C2013" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2013" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2013" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="2014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2014" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C2014" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2014" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2014" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="2015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2015" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C2015" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2015" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2016" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C2016" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2016" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2017" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C2017" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2017" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2018" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C2018" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2018" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2018" s="1" t="n">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="2019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2019" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C2019" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2019" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2019" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2020" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C2020" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2020" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2020" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2021" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C2021" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2021" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2021" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2022" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C2022" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2022" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2022" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2023" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C2023" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2023" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2023" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2024" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C2024" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2024" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2024" s="1" t="n">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="2025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2025" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C2025" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2025" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2025" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2026" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C2026" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2026" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2026" s="1" t="n">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="2027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2027" s="1" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C2027" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2027" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2027" s="1" t="n">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="2028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2028" s="1" t="n">
+        <v>2027</v>
+      </c>
+      <c r="C2028" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2028" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2028" s="1" t="n">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="2029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2029" s="1" t="n">
+        <v>2028</v>
+      </c>
+      <c r="C2029" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2029" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2029" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="2030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2030" s="1" t="n">
+        <v>2029</v>
+      </c>
+      <c r="C2030" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2030" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2030" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="2031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2031" s="1" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C2031" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2031" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2031" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2032" s="1" t="n">
+        <v>2031</v>
+      </c>
+      <c r="C2032" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2032" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2033" s="1" t="n">
+        <v>2032</v>
+      </c>
+      <c r="C2033" s="5" t="n">
+        <v>44618</v>
+      </c>
+      <c r="D2033" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2033" s="1" t="n">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="2034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2034" s="1" t="n">
+        <v>2033</v>
+      </c>
+      <c r="C2034" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2034" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2035" s="1" t="n">
+        <v>2034</v>
+      </c>
+      <c r="C2035" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2035" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2036" s="1" t="n">
+        <v>2035</v>
+      </c>
+      <c r="C2036" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2036" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2037" s="1" t="n">
+        <v>2036</v>
+      </c>
+      <c r="C2037" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2037" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2037" s="1" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="2038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2038" s="1" t="n">
+        <v>2037</v>
+      </c>
+      <c r="C2038" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2038" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2038" s="1" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="2039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2039" s="1" t="n">
+        <v>2038</v>
+      </c>
+      <c r="C2039" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2039" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2039" s="1" t="n">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="2040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2040" s="1" t="n">
+        <v>2039</v>
+      </c>
+      <c r="C2040" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2040" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2040" s="1" t="n">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="2041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2041" s="1" t="n">
+        <v>2040</v>
+      </c>
+      <c r="C2041" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2041" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2041" s="1" t="n">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="2042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2042" s="1" t="n">
+        <v>2041</v>
+      </c>
+      <c r="C2042" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2042" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2042" s="1" t="n">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="2043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2043" s="1" t="n">
+        <v>2042</v>
+      </c>
+      <c r="C2043" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2043" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2043" s="1" t="n">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="2044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2044" s="1" t="n">
+        <v>2043</v>
+      </c>
+      <c r="C2044" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2044" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2044" s="1" t="n">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="2045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2045" s="1" t="n">
+        <v>2044</v>
+      </c>
+      <c r="C2045" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2045" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2045" s="1" t="n">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="2046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2046" s="1" t="n">
+        <v>2045</v>
+      </c>
+      <c r="C2046" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2046" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2046" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="2047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2047" s="1" t="n">
+        <v>2046</v>
+      </c>
+      <c r="C2047" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2047" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2047" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="2048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2048" s="1" t="n">
+        <v>2047</v>
+      </c>
+      <c r="C2048" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2048" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2048" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="2049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2049" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C2049" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2049" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2049" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="2050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2050" s="1" t="n">
+        <v>2049</v>
+      </c>
+      <c r="C2050" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2050" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2050" s="1" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2051" s="1" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C2051" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2051" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2052" s="1" t="n">
+        <v>2051</v>
+      </c>
+      <c r="C2052" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2052" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2053" s="1" t="n">
+        <v>2052</v>
+      </c>
+      <c r="C2053" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2053" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2053" s="1" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2054" s="1" t="n">
+        <v>2053</v>
+      </c>
+      <c r="C2054" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2054" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2054" s="1" t="n">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="2055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2055" s="1" t="n">
+        <v>2054</v>
+      </c>
+      <c r="C2055" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2055" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2056" s="1" t="n">
+        <v>2055</v>
+      </c>
+      <c r="C2056" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2056" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2056" s="1" t="n">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="2057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2057" s="1" t="n">
+        <v>2056</v>
+      </c>
+      <c r="C2057" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2057" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2057" s="1" t="n">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="2058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2058" s="1" t="n">
+        <v>2057</v>
+      </c>
+      <c r="C2058" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2058" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2058" s="1" t="n">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2059" s="1" t="n">
+        <v>2058</v>
+      </c>
+      <c r="C2059" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2059" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2059" s="1" t="n">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2060" s="1" t="n">
+        <v>2059</v>
+      </c>
+      <c r="C2060" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2060" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2060" s="1" t="n">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2061" s="1" t="n">
+        <v>2060</v>
+      </c>
+      <c r="C2061" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2061" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2061" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2062" s="1" t="n">
+        <v>2061</v>
+      </c>
+      <c r="C2062" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2062" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2062" s="1" t="n">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="2063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2063" s="1" t="n">
+        <v>2062</v>
+      </c>
+      <c r="C2063" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2063" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2063" s="1" t="n">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="2064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2064" s="1" t="n">
+        <v>2063</v>
+      </c>
+      <c r="C2064" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2064" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2065" s="1" t="n">
+        <v>2064</v>
+      </c>
+      <c r="C2065" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2065" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2065" s="1" t="n">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="2066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2066" s="1" t="n">
+        <v>2065</v>
+      </c>
+      <c r="C2066" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2066" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2066" s="1" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2067" s="1" t="n">
+        <v>2066</v>
+      </c>
+      <c r="C2067" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2067" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2067" s="1" t="n">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="2068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2068" s="1" t="n">
+        <v>2067</v>
+      </c>
+      <c r="C2068" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2068" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2068" s="1" t="n">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="2069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2069" s="1" t="n">
+        <v>2068</v>
+      </c>
+      <c r="C2069" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2069" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2069" s="1" t="n">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2070" s="1" t="n">
+        <v>2069</v>
+      </c>
+      <c r="C2070" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2070" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2070" s="1" t="n">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="2071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2071" s="1" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C2071" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2071" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2072" s="1" t="n">
+        <v>2071</v>
+      </c>
+      <c r="C2072" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2072" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2072" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2073" s="1" t="n">
+        <v>2072</v>
+      </c>
+      <c r="C2073" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2073" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2073" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2074" s="1" t="n">
+        <v>2073</v>
+      </c>
+      <c r="C2074" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2074" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2074" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2075" s="1" t="n">
+        <v>2074</v>
+      </c>
+      <c r="C2075" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2075" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2075" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2076" s="1" t="n">
+        <v>2075</v>
+      </c>
+      <c r="C2076" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2076" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2076" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2077" s="1" t="n">
+        <v>2076</v>
+      </c>
+      <c r="C2077" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2077" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2077" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2078" s="1" t="n">
+        <v>2077</v>
+      </c>
+      <c r="C2078" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2078" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2078" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2079" s="1" t="n">
+        <v>2078</v>
+      </c>
+      <c r="C2079" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2079" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2079" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2080" s="1" t="n">
+        <v>2079</v>
+      </c>
+      <c r="C2080" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2080" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2080" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2081" s="1" t="n">
+        <v>2080</v>
+      </c>
+      <c r="C2081" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2081" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2081" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2082" s="1" t="n">
+        <v>2081</v>
+      </c>
+      <c r="C2082" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2082" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2082" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2083" s="1" t="n">
+        <v>2082</v>
+      </c>
+      <c r="C2083" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2083" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2083" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2084" s="1" t="n">
+        <v>2083</v>
+      </c>
+      <c r="C2084" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2084" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2084" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2085" s="1" t="n">
+        <v>2084</v>
+      </c>
+      <c r="C2085" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2085" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2085" s="1" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="2086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2086" s="1" t="n">
+        <v>2085</v>
+      </c>
+      <c r="C2086" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2086" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2086" s="1" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="2087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2087" s="1" t="n">
+        <v>2086</v>
+      </c>
+      <c r="C2087" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2087" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2087" s="1" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="2088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2088" s="1" t="n">
+        <v>2087</v>
+      </c>
+      <c r="C2088" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2088" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2088" s="1" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="2089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2089" s="1" t="n">
+        <v>2088</v>
+      </c>
+      <c r="C2089" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2089" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2089" s="1" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="2090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2090" s="1" t="n">
+        <v>2089</v>
+      </c>
+      <c r="C2090" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2090" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2090" s="1" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="2091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2091" s="1" t="n">
+        <v>2090</v>
+      </c>
+      <c r="C2091" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2091" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2091" s="1" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="2092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2092" s="1" t="n">
+        <v>2091</v>
+      </c>
+      <c r="C2092" s="5" t="n">
+        <v>44619</v>
+      </c>
+      <c r="D2092" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2092" s="1" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="2093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2093" s="1" t="n">
+        <v>2092</v>
+      </c>
+      <c r="C2093" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2093" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2094" s="1" t="n">
+        <v>2093</v>
+      </c>
+      <c r="C2094" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2094" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2094" s="1" t="n">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="2095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2095" s="1" t="n">
+        <v>2094</v>
+      </c>
+      <c r="C2095" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2095" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2095" s="1" t="n">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="2096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2096" s="1" t="n">
+        <v>2095</v>
+      </c>
+      <c r="C2096" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2096" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2096" s="1" t="n">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="2097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2097" s="1" t="n">
+        <v>2096</v>
+      </c>
+      <c r="C2097" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2097" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2097" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2098" s="1" t="n">
+        <v>2097</v>
+      </c>
+      <c r="C2098" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2098" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2098" s="1" t="n">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="2099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2099" s="1" t="n">
+        <v>2098</v>
+      </c>
+      <c r="C2099" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2099" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2099" s="1" t="n">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="2100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2100" s="1" t="n">
+        <v>2099</v>
+      </c>
+      <c r="C2100" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2100" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2101" s="1" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C2101" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2101" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2101" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2102" s="1" t="n">
+        <v>2101</v>
+      </c>
+      <c r="C2102" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2102" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2103" s="1" t="n">
+        <v>2102</v>
+      </c>
+      <c r="C2103" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2103" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2103" s="1" t="n">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="2104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2104" s="1" t="n">
+        <v>2103</v>
+      </c>
+      <c r="C2104" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2104" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2104" s="1" t="n">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="2105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2105" s="1" t="n">
+        <v>2104</v>
+      </c>
+      <c r="C2105" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2105" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2105" s="1" t="n">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="2106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2106" s="1" t="n">
+        <v>2105</v>
+      </c>
+      <c r="C2106" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2106" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2107" s="1" t="n">
+        <v>2106</v>
+      </c>
+      <c r="C2107" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2107" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2107" s="1" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="2108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2108" s="1" t="n">
+        <v>2107</v>
+      </c>
+      <c r="C2108" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2108" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2108" s="1" t="n">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="2109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2109" s="1" t="n">
+        <v>2108</v>
+      </c>
+      <c r="C2109" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2109" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2109" s="1" t="n">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="2110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2110" s="1" t="n">
+        <v>2109</v>
+      </c>
+      <c r="C2110" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2110" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2110" s="1" t="n">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="2111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2111" s="1" t="n">
+        <v>2110</v>
+      </c>
+      <c r="C2111" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2111" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2111" s="1" t="n">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="2112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2112" s="1" t="n">
+        <v>2111</v>
+      </c>
+      <c r="C2112" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2112" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2112" s="1" t="n">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="2113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2113" s="1" t="n">
+        <v>2112</v>
+      </c>
+      <c r="C2113" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2113" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2113" s="1" t="n">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="2114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2114" s="1" t="n">
+        <v>2113</v>
+      </c>
+      <c r="C2114" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2114" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2114" s="1" t="n">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="2115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2115" s="1" t="n">
+        <v>2114</v>
+      </c>
+      <c r="C2115" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2115" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2115" s="1" t="n">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="2116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2116" s="1" t="n">
+        <v>2115</v>
+      </c>
+      <c r="C2116" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2116" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2116" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2117" s="1" t="n">
+        <v>2116</v>
+      </c>
+      <c r="C2117" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2117" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2117" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2118" s="1" t="n">
+        <v>2117</v>
+      </c>
+      <c r="C2118" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2118" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2118" s="1" t="n">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="2119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2119" s="1" t="n">
+        <v>2118</v>
+      </c>
+      <c r="C2119" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2119" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2119" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2120" s="1" t="n">
+        <v>2119</v>
+      </c>
+      <c r="C2120" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2120" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2120" s="1" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2121" s="1" t="n">
+        <v>2120</v>
+      </c>
+      <c r="C2121" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2121" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2121" s="1" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2122" s="1" t="n">
+        <v>2121</v>
+      </c>
+      <c r="C2122" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2122" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2122" s="1" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2123" s="1" t="n">
+        <v>2122</v>
+      </c>
+      <c r="C2123" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2123" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2124" s="1" t="n">
+        <v>2123</v>
+      </c>
+      <c r="C2124" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2124" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2124" s="1" t="n">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="2125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2125" s="1" t="n">
+        <v>2124</v>
+      </c>
+      <c r="C2125" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2125" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2126" s="1" t="n">
+        <v>2125</v>
+      </c>
+      <c r="C2126" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2126" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2127" s="1" t="n">
+        <v>2126</v>
+      </c>
+      <c r="C2127" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2127" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2128" s="1" t="n">
+        <v>2127</v>
+      </c>
+      <c r="C2128" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2128" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2128" s="1" t="n">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="2129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2129" s="1" t="n">
+        <v>2128</v>
+      </c>
+      <c r="C2129" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2129" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2129" s="1" t="n">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="2130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2130" s="1" t="n">
+        <v>2129</v>
+      </c>
+      <c r="C2130" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2130" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2131" s="1" t="n">
+        <v>2130</v>
+      </c>
+      <c r="C2131" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2131" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2131" s="1" t="n">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="2132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2132" s="1" t="n">
+        <v>2131</v>
+      </c>
+      <c r="C2132" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2132" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2132" s="1" t="n">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="2133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2133" s="1" t="n">
+        <v>2132</v>
+      </c>
+      <c r="C2133" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2133" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2133" s="1" t="n">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="2134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2134" s="1" t="n">
+        <v>2133</v>
+      </c>
+      <c r="C2134" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2134" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2134" s="1" t="n">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="2135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2135" s="1" t="n">
+        <v>2134</v>
+      </c>
+      <c r="C2135" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2135" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2135" s="1" t="n">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="2136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2136" s="1" t="n">
+        <v>2135</v>
+      </c>
+      <c r="C2136" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2136" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2136" s="1" t="n">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="2137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2137" s="1" t="n">
+        <v>2136</v>
+      </c>
+      <c r="C2137" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2137" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2137" s="1" t="n">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="2138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2138" s="1" t="n">
+        <v>2137</v>
+      </c>
+      <c r="C2138" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2138" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2138" s="1" t="n">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2139" s="1" t="n">
+        <v>2138</v>
+      </c>
+      <c r="C2139" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2139" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2139" s="1" t="n">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2140" s="1" t="n">
+        <v>2139</v>
+      </c>
+      <c r="C2140" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2140" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2140" s="1" t="n">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="2141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2141" s="1" t="n">
+        <v>2140</v>
+      </c>
+      <c r="C2141" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2141" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2141" s="1" t="n">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="2142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2142" s="1" t="n">
+        <v>2141</v>
+      </c>
+      <c r="C2142" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2142" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2143" s="1" t="n">
+        <v>2142</v>
+      </c>
+      <c r="C2143" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2143" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2143" s="1" t="n">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="2144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2144" s="1" t="n">
+        <v>2143</v>
+      </c>
+      <c r="C2144" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2144" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2144" s="1" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2145" s="1" t="n">
+        <v>2144</v>
+      </c>
+      <c r="C2145" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2145" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2145" s="1" t="n">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="2146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2146" s="1" t="n">
+        <v>2145</v>
+      </c>
+      <c r="C2146" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2146" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2146" s="1" t="n">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="2147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2147" s="1" t="n">
+        <v>2146</v>
+      </c>
+      <c r="C2147" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2147" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2147" s="1" t="n">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="2148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2148" s="1" t="n">
+        <v>2147</v>
+      </c>
+      <c r="C2148" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2148" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2148" s="1" t="n">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="2149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2149" s="1" t="n">
+        <v>2148</v>
+      </c>
+      <c r="C2149" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2149" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2149" s="1" t="n">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="2150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2150" s="1" t="n">
+        <v>2149</v>
+      </c>
+      <c r="C2150" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2150" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2150" s="1" t="n">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="2151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2151" s="1" t="n">
+        <v>2150</v>
+      </c>
+      <c r="C2151" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2151" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2151" s="1" t="n">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="2152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2152" s="1" t="n">
+        <v>2151</v>
+      </c>
+      <c r="C2152" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2152" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2152" s="1" t="n">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="2153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2153" s="1" t="n">
+        <v>2152</v>
+      </c>
+      <c r="C2153" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2153" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2153" s="1" t="n">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="2154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2154" s="1" t="n">
+        <v>2153</v>
+      </c>
+      <c r="C2154" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2154" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2154" s="1" t="n">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="2155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2155" s="1" t="n">
+        <v>2154</v>
+      </c>
+      <c r="C2155" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2155" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2155" s="1" t="n">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="2156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2156" s="1" t="n">
+        <v>2155</v>
+      </c>
+      <c r="C2156" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2156" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2156" s="1" t="n">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="2157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2157" s="1" t="n">
+        <v>2156</v>
+      </c>
+      <c r="C2157" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2157" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2158" s="1" t="n">
+        <v>2157</v>
+      </c>
+      <c r="C2158" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2158" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2159" s="1" t="n">
+        <v>2158</v>
+      </c>
+      <c r="C2159" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2159" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2159" s="1" t="n">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="2160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2160" s="1" t="n">
+        <v>2159</v>
+      </c>
+      <c r="C2160" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2160" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2160" s="1" t="n">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="2161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2161" s="1" t="n">
+        <v>2160</v>
+      </c>
+      <c r="C2161" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2161" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2161" s="1" t="n">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="2162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2162" s="1" t="n">
+        <v>2161</v>
+      </c>
+      <c r="C2162" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2162" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2162" s="1" t="n">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="2163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2163" s="1" t="n">
+        <v>2162</v>
+      </c>
+      <c r="C2163" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2163" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2164" s="1" t="n">
+        <v>2163</v>
+      </c>
+      <c r="C2164" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2164" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2164" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2165" s="1" t="n">
+        <v>2164</v>
+      </c>
+      <c r="C2165" s="5" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D2165" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2165" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2166" s="1" t="n">
+        <v>2165</v>
+      </c>
+      <c r="C2166" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2166" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2166" s="1" t="n">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="2167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2167" s="1" t="n">
+        <v>2166</v>
+      </c>
+      <c r="C2167" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2167" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2168" s="1" t="n">
+        <v>2167</v>
+      </c>
+      <c r="C2168" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2168" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2169" s="1" t="n">
+        <v>2168</v>
+      </c>
+      <c r="C2169" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2169" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2169" s="1" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="2170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2170" s="1" t="n">
+        <v>2169</v>
+      </c>
+      <c r="C2170" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2170" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2170" s="1" t="n">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="2171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2171" s="1" t="n">
+        <v>2170</v>
+      </c>
+      <c r="C2171" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2171" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2171" s="1" t="n">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="2172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2172" s="1" t="n">
+        <v>2171</v>
+      </c>
+      <c r="C2172" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2172" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2172" s="1" t="n">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="2173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2173" s="1" t="n">
+        <v>2172</v>
+      </c>
+      <c r="C2173" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2173" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2173" s="1" t="n">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="2174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2174" s="1" t="n">
+        <v>2173</v>
+      </c>
+      <c r="C2174" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2174" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2174" s="1" t="n">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="2175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2175" s="1" t="n">
+        <v>2174</v>
+      </c>
+      <c r="C2175" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2175" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2175" s="1" t="n">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="2176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2176" s="1" t="n">
+        <v>2175</v>
+      </c>
+      <c r="C2176" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2176" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2177" s="1" t="n">
+        <v>2176</v>
+      </c>
+      <c r="C2177" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2177" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2177" s="1" t="n">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="2178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2178" s="1" t="n">
+        <v>2177</v>
+      </c>
+      <c r="C2178" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2178" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2178" s="1" t="n">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="2179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2179" s="1" t="n">
+        <v>2178</v>
+      </c>
+      <c r="C2179" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2179" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2179" s="1" t="n">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="2180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2180" s="1" t="n">
+        <v>2179</v>
+      </c>
+      <c r="C2180" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2180" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2180" s="1" t="n">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2181" s="1" t="n">
+        <v>2180</v>
+      </c>
+      <c r="C2181" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2181" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2181" s="1" t="n">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="2182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2182" s="1" t="n">
+        <v>2181</v>
+      </c>
+      <c r="C2182" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2182" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2182" s="1" t="n">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="2183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2183" s="1" t="n">
+        <v>2182</v>
+      </c>
+      <c r="C2183" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2183" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2183" s="1" t="n">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="2184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2184" s="1" t="n">
+        <v>2183</v>
+      </c>
+      <c r="C2184" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2184" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2185" s="1" t="n">
+        <v>2184</v>
+      </c>
+      <c r="C2185" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2185" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2185" s="1" t="n">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="2186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2186" s="1" t="n">
+        <v>2185</v>
+      </c>
+      <c r="C2186" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2186" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2186" s="1" t="n">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="2187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2187" s="1" t="n">
+        <v>2186</v>
+      </c>
+      <c r="C2187" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2187" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2187" s="1" t="n">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="2188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2188" s="1" t="n">
+        <v>2187</v>
+      </c>
+      <c r="C2188" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2188" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2189" s="1" t="n">
+        <v>2188</v>
+      </c>
+      <c r="C2189" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2189" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2189" s="1" t="n">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="2190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2190" s="1" t="n">
+        <v>2189</v>
+      </c>
+      <c r="C2190" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2190" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2190" s="1" t="n">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="2191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2191" s="1" t="n">
+        <v>2190</v>
+      </c>
+      <c r="C2191" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2191" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2191" s="1" t="n">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="2192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2192" s="1" t="n">
+        <v>2191</v>
+      </c>
+      <c r="C2192" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2192" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2192" s="1" t="n">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="2193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2193" s="1" t="n">
+        <v>2192</v>
+      </c>
+      <c r="C2193" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2193" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2193" s="1" t="n">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="2194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2194" s="1" t="n">
+        <v>2193</v>
+      </c>
+      <c r="C2194" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2194" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2194" s="1" t="n">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="2195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2195" s="1" t="n">
+        <v>2194</v>
+      </c>
+      <c r="C2195" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2195" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2195" s="1" t="n">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="2196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2196" s="1" t="n">
+        <v>2195</v>
+      </c>
+      <c r="C2196" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2196" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2196" s="1" t="n">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="2197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2197" s="1" t="n">
+        <v>2196</v>
+      </c>
+      <c r="C2197" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2197" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2198" s="1" t="n">
+        <v>2197</v>
+      </c>
+      <c r="C2198" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2198" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2198" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2199" s="1" t="n">
+        <v>2198</v>
+      </c>
+      <c r="C2199" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2199" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2199" s="1" t="n">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="2200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2200" s="1" t="n">
+        <v>2199</v>
+      </c>
+      <c r="C2200" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2200" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2200" s="1" t="n">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="2201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2201" s="1" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C2201" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2201" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2201" s="1" t="n">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="2202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2202" s="1" t="n">
+        <v>2201</v>
+      </c>
+      <c r="C2202" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2202" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2202" s="1" t="n">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="2203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2203" s="1" t="n">
+        <v>2202</v>
+      </c>
+      <c r="C2203" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2203" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2203" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2204" s="1" t="n">
+        <v>2203</v>
+      </c>
+      <c r="C2204" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2204" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2204" s="1" t="n">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="2205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2205" s="1" t="n">
+        <v>2204</v>
+      </c>
+      <c r="C2205" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2205" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2205" s="1" t="n">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="2206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2206" s="1" t="n">
+        <v>2205</v>
+      </c>
+      <c r="C2206" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2206" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2206" s="1" t="n">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="2207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2207" s="1" t="n">
+        <v>2206</v>
+      </c>
+      <c r="C2207" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2207" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2207" s="1" t="n">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="2208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2208" s="1" t="n">
+        <v>2207</v>
+      </c>
+      <c r="C2208" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2208" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2208" s="1" t="n">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="2209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2209" s="1" t="n">
+        <v>2208</v>
+      </c>
+      <c r="C2209" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2209" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2209" s="1" t="n">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="2210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2210" s="1" t="n">
+        <v>2209</v>
+      </c>
+      <c r="C2210" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2210" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2210" s="1" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="2211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2211" s="1" t="n">
+        <v>2210</v>
+      </c>
+      <c r="C2211" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2211" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2211" s="1" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2212" s="1" t="n">
+        <v>2211</v>
+      </c>
+      <c r="C2212" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2212" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2212" s="1" t="n">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="2213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2213" s="1" t="n">
+        <v>2212</v>
+      </c>
+      <c r="C2213" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2213" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2214" s="1" t="n">
+        <v>2213</v>
+      </c>
+      <c r="C2214" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2214" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2215" s="1" t="n">
+        <v>2214</v>
+      </c>
+      <c r="C2215" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D2215" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2216" s="1" t="n">
+        <v>2215</v>
+      </c>
+      <c r="C2216" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2216" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2216" s="1" t="n">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="2217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2217" s="1" t="n">
+        <v>2216</v>
+      </c>
+      <c r="C2217" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2217" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2218" s="1" t="n">
+        <v>2217</v>
+      </c>
+      <c r="C2218" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2218" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2218" s="1" t="n">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="2219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2219" s="1" t="n">
+        <v>2218</v>
+      </c>
+      <c r="C2219" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2219" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2219" s="1" t="n">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="2220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2220" s="1" t="n">
+        <v>2219</v>
+      </c>
+      <c r="C2220" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2220" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2220" s="1" t="n">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="2221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2221" s="1" t="n">
+        <v>2220</v>
+      </c>
+      <c r="C2221" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2221" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2221" s="1" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="2222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2222" s="1" t="n">
+        <v>2221</v>
+      </c>
+      <c r="C2222" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2222" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2222" s="1" t="n">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="2223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2223" s="1" t="n">
+        <v>2222</v>
+      </c>
+      <c r="C2223" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2223" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2223" s="1" t="n">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="2224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2224" s="1" t="n">
+        <v>2223</v>
+      </c>
+      <c r="C2224" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2224" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2225" s="1" t="n">
+        <v>2224</v>
+      </c>
+      <c r="C2225" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2225" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2226" s="1" t="n">
+        <v>2225</v>
+      </c>
+      <c r="C2226" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2226" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2227" s="1" t="n">
+        <v>2226</v>
+      </c>
+      <c r="C2227" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2227" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2228" s="1" t="n">
+        <v>2227</v>
+      </c>
+      <c r="C2228" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2228" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2229" s="1" t="n">
+        <v>2228</v>
+      </c>
+      <c r="C2229" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2229" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2230" s="1" t="n">
+        <v>2229</v>
+      </c>
+      <c r="C2230" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2230" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2230" s="1" t="n">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="2231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2231" s="1" t="n">
+        <v>2230</v>
+      </c>
+      <c r="C2231" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2231" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2232" s="1" t="n">
+        <v>2231</v>
+      </c>
+      <c r="C2232" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2232" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2233" s="1" t="n">
+        <v>2232</v>
+      </c>
+      <c r="C2233" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2233" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2233" s="1" t="n">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="2234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2234" s="1" t="n">
+        <v>2233</v>
+      </c>
+      <c r="C2234" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2234" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2235" s="1" t="n">
+        <v>2234</v>
+      </c>
+      <c r="C2235" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2235" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2235" s="1" t="n">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="2236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2236" s="1" t="n">
+        <v>2235</v>
+      </c>
+      <c r="C2236" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2236" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2236" s="1" t="n">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="2237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2237" s="1" t="n">
+        <v>2236</v>
+      </c>
+      <c r="C2237" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2237" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2237" s="1" t="n">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="2238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2238" s="1" t="n">
+        <v>2237</v>
+      </c>
+      <c r="C2238" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2238" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2238" s="1" t="n">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="2239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2239" s="1" t="n">
+        <v>2238</v>
+      </c>
+      <c r="C2239" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2239" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2239" s="1" t="n">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="2240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2240" s="1" t="n">
+        <v>2239</v>
+      </c>
+      <c r="C2240" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2240" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2240" s="1" t="n">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="2241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2241" s="1" t="n">
+        <v>2240</v>
+      </c>
+      <c r="C2241" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2241" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2241" s="1" t="n">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="2242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2242" s="1" t="n">
+        <v>2241</v>
+      </c>
+      <c r="C2242" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2242" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2242" s="1" t="n">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="2243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2243" s="1" t="n">
+        <v>2242</v>
+      </c>
+      <c r="C2243" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2243" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2243" s="1" t="n">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="2244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2244" s="1" t="n">
+        <v>2243</v>
+      </c>
+      <c r="C2244" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2244" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2244" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2245" s="1" t="n">
+        <v>2244</v>
+      </c>
+      <c r="C2245" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2245" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2245" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2246" s="1" t="n">
+        <v>2245</v>
+      </c>
+      <c r="C2246" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2246" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2247" s="1" t="n">
+        <v>2246</v>
+      </c>
+      <c r="C2247" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2247" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2248" s="1" t="n">
+        <v>2247</v>
+      </c>
+      <c r="C2248" s="5" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D2248" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2249" s="1" t="n">
+        <v>2248</v>
+      </c>
+      <c r="C2249" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2249" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2250" s="1" t="n">
+        <v>2249</v>
+      </c>
+      <c r="C2250" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2250" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2251" s="1" t="n">
+        <v>2250</v>
+      </c>
+      <c r="C2251" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2251" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2251" s="1" t="n">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="2252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2252" s="1" t="n">
+        <v>2251</v>
+      </c>
+      <c r="C2252" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2252" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2252" s="1" t="n">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="2253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2253" s="1" t="n">
+        <v>2252</v>
+      </c>
+      <c r="C2253" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2253" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2254" s="1" t="n">
+        <v>2253</v>
+      </c>
+      <c r="C2254" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2254" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2254" s="1" t="n">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="2255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2255" s="1" t="n">
+        <v>2254</v>
+      </c>
+      <c r="C2255" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2255" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2255" s="1" t="n">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="2256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2256" s="1" t="n">
+        <v>2255</v>
+      </c>
+      <c r="C2256" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2256" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2256" s="1" t="n">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2257" s="1" t="n">
+        <v>2256</v>
+      </c>
+      <c r="C2257" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2257" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2257" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2258" s="1" t="n">
+        <v>2257</v>
+      </c>
+      <c r="C2258" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2258" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2258" s="1" t="n">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2259" s="1" t="n">
+        <v>2258</v>
+      </c>
+      <c r="C2259" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2259" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2259" s="1" t="n">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2260" s="1" t="n">
+        <v>2259</v>
+      </c>
+      <c r="C2260" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2260" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2260" s="1" t="n">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2261" s="1" t="n">
+        <v>2260</v>
+      </c>
+      <c r="C2261" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2261" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2261" s="1" t="n">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2262" s="1" t="n">
+        <v>2261</v>
+      </c>
+      <c r="C2262" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2262" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2262" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2263" s="1" t="n">
+        <v>2262</v>
+      </c>
+      <c r="C2263" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2263" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2263" s="1" t="n">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="2264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2264" s="1" t="n">
+        <v>2263</v>
+      </c>
+      <c r="C2264" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2264" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2264" s="1" t="n">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="2265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2265" s="1" t="n">
+        <v>2264</v>
+      </c>
+      <c r="C2265" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2265" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2265" s="1" t="n">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="2266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2266" s="1" t="n">
+        <v>2265</v>
+      </c>
+      <c r="C2266" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2266" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2267" s="1" t="n">
+        <v>2266</v>
+      </c>
+      <c r="C2267" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2267" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2267" s="1" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2268" s="1" t="n">
+        <v>2267</v>
+      </c>
+      <c r="C2268" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2268" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2269" s="1" t="n">
+        <v>2268</v>
+      </c>
+      <c r="C2269" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2269" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2269" s="1" t="n">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="2270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2270" s="1" t="n">
+        <v>2269</v>
+      </c>
+      <c r="C2270" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2270" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2270" s="1" t="n">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="2271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2271" s="1" t="n">
+        <v>2270</v>
+      </c>
+      <c r="C2271" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2271" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2271" s="1" t="n">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="2272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2272" s="1" t="n">
+        <v>2271</v>
+      </c>
+      <c r="C2272" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2272" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2272" s="1" t="n">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="2273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2273" s="1" t="n">
+        <v>2272</v>
+      </c>
+      <c r="C2273" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2273" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2273" s="1" t="n">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="2274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2274" s="1" t="n">
+        <v>2273</v>
+      </c>
+      <c r="C2274" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2274" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2274" s="1" t="n">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="2275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2275" s="1" t="n">
+        <v>2274</v>
+      </c>
+      <c r="C2275" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2275" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2275" s="1" t="n">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="2276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2276" s="1" t="n">
+        <v>2275</v>
+      </c>
+      <c r="C2276" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2276" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2276" s="1" t="n">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="2277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2277" s="1" t="n">
+        <v>2276</v>
+      </c>
+      <c r="C2277" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2277" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2277" s="1" t="n">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="2278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2278" s="1" t="n">
+        <v>2277</v>
+      </c>
+      <c r="C2278" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2278" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2278" s="1" t="n">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="2279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2279" s="1" t="n">
+        <v>2278</v>
+      </c>
+      <c r="C2279" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2279" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2279" s="1" t="n">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="2280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2280" s="1" t="n">
+        <v>2279</v>
+      </c>
+      <c r="C2280" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2280" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2280" s="1" t="n">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="2281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2281" s="1" t="n">
+        <v>2280</v>
+      </c>
+      <c r="C2281" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2281" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2281" s="1" t="n">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="2282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2282" s="1" t="n">
+        <v>2281</v>
+      </c>
+      <c r="C2282" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2282" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2282" s="1" t="n">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="2283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2283" s="1" t="n">
+        <v>2282</v>
+      </c>
+      <c r="C2283" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2283" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2283" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2284" s="1" t="n">
+        <v>2283</v>
+      </c>
+      <c r="C2284" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2284" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2284" s="1" t="n">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="2285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2285" s="1" t="n">
+        <v>2284</v>
+      </c>
+      <c r="C2285" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2285" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2285" s="1" t="n">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="2286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2286" s="1" t="n">
+        <v>2285</v>
+      </c>
+      <c r="C2286" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2286" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2286" s="1" t="n">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="2287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2287" s="1" t="n">
+        <v>2286</v>
+      </c>
+      <c r="C2287" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2287" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2287" s="1" t="n">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="2288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2288" s="1" t="n">
+        <v>2287</v>
+      </c>
+      <c r="C2288" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2288" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2288" s="1" t="n">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="2289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2289" s="1" t="n">
+        <v>2288</v>
+      </c>
+      <c r="C2289" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2289" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2289" s="1" t="n">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="2290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2290" s="1" t="n">
+        <v>2289</v>
+      </c>
+      <c r="C2290" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2290" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2290" s="1" t="n">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="2291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2291" s="1" t="n">
+        <v>2290</v>
+      </c>
+      <c r="C2291" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2291" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2292" s="1" t="n">
+        <v>2291</v>
+      </c>
+      <c r="C2292" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2292" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2293" s="1" t="n">
+        <v>2292</v>
+      </c>
+      <c r="C2293" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2293" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2294" s="1" t="n">
+        <v>2293</v>
+      </c>
+      <c r="C2294" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2294" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2294" s="1" t="n">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="2295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2295" s="1" t="n">
+        <v>2294</v>
+      </c>
+      <c r="C2295" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2295" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2295" s="1" t="n">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="2296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2296" s="1" t="n">
+        <v>2295</v>
+      </c>
+      <c r="C2296" s="5" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D2296" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2297" s="1" t="n">
+        <v>2296</v>
+      </c>
+      <c r="C2297" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2297" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2298" s="1" t="n">
+        <v>2297</v>
+      </c>
+      <c r="C2298" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2298" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2299" s="1" t="n">
+        <v>2298</v>
+      </c>
+      <c r="C2299" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2299" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2300" s="1" t="n">
+        <v>2299</v>
+      </c>
+      <c r="C2300" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2300" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2300" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2301" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C2301" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2301" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2301" s="1" t="n">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="2302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2302" s="1" t="n">
+        <v>2301</v>
+      </c>
+      <c r="C2302" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2302" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2303" s="1" t="n">
+        <v>2302</v>
+      </c>
+      <c r="C2303" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2303" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2303" s="1" t="n">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="2304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2304" s="1" t="n">
+        <v>2303</v>
+      </c>
+      <c r="C2304" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2304" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2304" s="1" t="n">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="2305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2305" s="1" t="n">
+        <v>2304</v>
+      </c>
+      <c r="C2305" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2305" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2305" s="1" t="n">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="2306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2306" s="1" t="n">
+        <v>2305</v>
+      </c>
+      <c r="C2306" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2306" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2306" s="1" t="n">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="2307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2307" s="1" t="n">
+        <v>2306</v>
+      </c>
+      <c r="C2307" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2307" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2307" s="1" t="n">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="2308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2308" s="1" t="n">
+        <v>2307</v>
+      </c>
+      <c r="C2308" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2308" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2308" s="1" t="n">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="2309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2309" s="1" t="n">
+        <v>2308</v>
+      </c>
+      <c r="C2309" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2309" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2309" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2310" s="1" t="n">
+        <v>2309</v>
+      </c>
+      <c r="C2310" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2310" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2310" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2311" s="1" t="n">
+        <v>2310</v>
+      </c>
+      <c r="C2311" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2311" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2311" s="1" t="n">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="2312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2312" s="1" t="n">
+        <v>2311</v>
+      </c>
+      <c r="C2312" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2312" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2312" s="1" t="n">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="2313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2313" s="1" t="n">
+        <v>2312</v>
+      </c>
+      <c r="C2313" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2313" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2313" s="1" t="n">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2314" s="1" t="n">
+        <v>2313</v>
+      </c>
+      <c r="C2314" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2314" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2314" s="1" t="n">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="2315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2315" s="1" t="n">
+        <v>2314</v>
+      </c>
+      <c r="C2315" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2315" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2315" s="1" t="n">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="2316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2316" s="1" t="n">
+        <v>2315</v>
+      </c>
+      <c r="C2316" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2316" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2316" s="1" t="n">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="2317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2317" s="1" t="n">
+        <v>2316</v>
+      </c>
+      <c r="C2317" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2317" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2317" s="1" t="n">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="2318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2318" s="1" t="n">
+        <v>2317</v>
+      </c>
+      <c r="C2318" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2318" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2318" s="1" t="n">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="2319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2319" s="1" t="n">
+        <v>2318</v>
+      </c>
+      <c r="C2319" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2319" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2319" s="1" t="n">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="2320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2320" s="1" t="n">
+        <v>2319</v>
+      </c>
+      <c r="C2320" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2320" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2320" s="1" t="n">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="2321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2321" s="1" t="n">
+        <v>2320</v>
+      </c>
+      <c r="C2321" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2321" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2322" s="1" t="n">
+        <v>2321</v>
+      </c>
+      <c r="C2322" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2322" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2322" s="1" t="n">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="2323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2323" s="1" t="n">
+        <v>2322</v>
+      </c>
+      <c r="C2323" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2323" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2323" s="1" t="n">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="2324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2324" s="1" t="n">
+        <v>2323</v>
+      </c>
+      <c r="C2324" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2324" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2324" s="1" t="n">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="2325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2325" s="1" t="n">
+        <v>2324</v>
+      </c>
+      <c r="C2325" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2325" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2325" s="1" t="n">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="2326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2326" s="1" t="n">
+        <v>2325</v>
+      </c>
+      <c r="C2326" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2326" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2326" s="1" t="n">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="2327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2327" s="1" t="n">
+        <v>2326</v>
+      </c>
+      <c r="C2327" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2327" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2327" s="1" t="n">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2328" s="1" t="n">
+        <v>2327</v>
+      </c>
+      <c r="C2328" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2328" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2328" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2329" s="1" t="n">
+        <v>2328</v>
+      </c>
+      <c r="C2329" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2329" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2329" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2330" s="1" t="n">
+        <v>2329</v>
+      </c>
+      <c r="C2330" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2330" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2330" s="1" t="n">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="2331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2331" s="1" t="n">
+        <v>2330</v>
+      </c>
+      <c r="C2331" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2331" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2331" s="1" t="n">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="2332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2332" s="1" t="n">
+        <v>2331</v>
+      </c>
+      <c r="C2332" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2332" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2332" s="1" t="n">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="2333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2333" s="1" t="n">
+        <v>2332</v>
+      </c>
+      <c r="C2333" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2333" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2333" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2334" s="1" t="n">
+        <v>2333</v>
+      </c>
+      <c r="C2334" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2334" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2334" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2335" s="1" t="n">
+        <v>2334</v>
+      </c>
+      <c r="C2335" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2335" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2335" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2336" s="1" t="n">
+        <v>2335</v>
+      </c>
+      <c r="C2336" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2336" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2336" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2337" s="1" t="n">
+        <v>2336</v>
+      </c>
+      <c r="C2337" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2337" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2337" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2338" s="1" t="n">
+        <v>2337</v>
+      </c>
+      <c r="C2338" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2338" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2338" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2339" s="1" t="n">
+        <v>2338</v>
+      </c>
+      <c r="C2339" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2339" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2339" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2340" s="1" t="n">
+        <v>2339</v>
+      </c>
+      <c r="C2340" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2340" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2340" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2341" s="1" t="n">
+        <v>2340</v>
+      </c>
+      <c r="C2341" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2341" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2341" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2342" s="1" t="n">
+        <v>2341</v>
+      </c>
+      <c r="C2342" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2342" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2342" s="1" t="n">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="2343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2343" s="1" t="n">
+        <v>2342</v>
+      </c>
+      <c r="C2343" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2343" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2344" s="1" t="n">
+        <v>2343</v>
+      </c>
+      <c r="C2344" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2344" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2345" s="1" t="n">
+        <v>2344</v>
+      </c>
+      <c r="C2345" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2345" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2345" s="1" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="2346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2346" s="1" t="n">
+        <v>2345</v>
+      </c>
+      <c r="C2346" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2346" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2346" s="1" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="2347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2347" s="1" t="n">
+        <v>2346</v>
+      </c>
+      <c r="C2347" s="5" t="n">
+        <v>44624</v>
+      </c>
+      <c r="D2347" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2347" s="1" t="n">
+        <v>1090</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="45">
   <si>
     <t xml:space="preserve">num_matsue</t>
   </si>
@@ -292,13 +292,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2347"/>
+  <dimension ref="A1:J2705"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.39"/>
@@ -37445,6 +37445,5100 @@
         <v>1090</v>
       </c>
     </row>
+    <row r="2348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2348" s="1" t="n">
+        <v>2347</v>
+      </c>
+      <c r="C2348" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2348" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2349" s="1" t="n">
+        <v>2348</v>
+      </c>
+      <c r="C2349" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2349" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2350" s="1" t="n">
+        <v>2349</v>
+      </c>
+      <c r="C2350" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2350" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2350" s="1" t="n">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="2351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2351" s="1" t="n">
+        <v>2350</v>
+      </c>
+      <c r="C2351" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2351" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2351" s="1" t="n">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="2352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2352" s="1" t="n">
+        <v>2351</v>
+      </c>
+      <c r="C2352" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2352" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2352" s="1" t="n">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="2353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2353" s="1" t="n">
+        <v>2352</v>
+      </c>
+      <c r="C2353" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2353" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2353" s="1" t="n">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="2354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2354" s="1" t="n">
+        <v>2353</v>
+      </c>
+      <c r="C2354" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2354" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2354" s="1" t="n">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="2355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2355" s="1" t="n">
+        <v>2354</v>
+      </c>
+      <c r="C2355" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2355" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2355" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2356" s="1" t="n">
+        <v>2355</v>
+      </c>
+      <c r="C2356" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2356" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2357" s="1" t="n">
+        <v>2356</v>
+      </c>
+      <c r="C2357" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2357" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2357" s="1" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="2358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2358" s="1" t="n">
+        <v>2357</v>
+      </c>
+      <c r="C2358" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2358" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2358" s="1" t="n">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="2359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2359" s="1" t="n">
+        <v>2358</v>
+      </c>
+      <c r="C2359" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2359" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2359" s="1" t="n">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="2360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2360" s="1" t="n">
+        <v>2359</v>
+      </c>
+      <c r="C2360" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2360" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2360" s="1" t="n">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="2361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2361" s="1" t="n">
+        <v>2360</v>
+      </c>
+      <c r="C2361" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2361" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2361" s="1" t="n">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="2362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2362" s="1" t="n">
+        <v>2361</v>
+      </c>
+      <c r="C2362" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2362" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2362" s="1" t="n">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="2363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2363" s="1" t="n">
+        <v>2362</v>
+      </c>
+      <c r="C2363" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2363" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2363" s="1" t="n">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="2364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2364" s="1" t="n">
+        <v>2363</v>
+      </c>
+      <c r="C2364" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2364" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2365" s="1" t="n">
+        <v>2364</v>
+      </c>
+      <c r="C2365" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2365" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2366" s="1" t="n">
+        <v>2365</v>
+      </c>
+      <c r="C2366" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2366" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2367" s="1" t="n">
+        <v>2366</v>
+      </c>
+      <c r="C2367" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2367" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2367" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2368" s="1" t="n">
+        <v>2367</v>
+      </c>
+      <c r="C2368" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2368" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2368" s="1" t="n">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="2369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2369" s="1" t="n">
+        <v>2368</v>
+      </c>
+      <c r="C2369" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2369" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2369" s="1" t="n">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="2370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2370" s="1" t="n">
+        <v>2369</v>
+      </c>
+      <c r="C2370" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2370" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2371" s="1" t="n">
+        <v>2370</v>
+      </c>
+      <c r="C2371" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2371" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2371" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2372" s="1" t="n">
+        <v>2371</v>
+      </c>
+      <c r="C2372" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2372" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2372" s="1" t="n">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="2373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2373" s="1" t="n">
+        <v>2372</v>
+      </c>
+      <c r="C2373" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2373" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2373" s="1" t="n">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="2374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2374" s="1" t="n">
+        <v>2373</v>
+      </c>
+      <c r="C2374" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2374" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2375" s="1" t="n">
+        <v>2374</v>
+      </c>
+      <c r="C2375" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2375" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2375" s="1" t="n">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="2376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2376" s="1" t="n">
+        <v>2375</v>
+      </c>
+      <c r="C2376" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2376" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2376" s="1" t="n">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="2377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2377" s="1" t="n">
+        <v>2376</v>
+      </c>
+      <c r="C2377" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2377" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2377" s="1" t="n">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="2378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2378" s="1" t="n">
+        <v>2377</v>
+      </c>
+      <c r="C2378" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2378" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2378" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2379" s="1" t="n">
+        <v>2378</v>
+      </c>
+      <c r="C2379" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2379" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2379" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2380" s="1" t="n">
+        <v>2379</v>
+      </c>
+      <c r="C2380" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2380" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2380" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2381" s="1" t="n">
+        <v>2380</v>
+      </c>
+      <c r="C2381" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2381" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2381" s="1" t="n">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="2382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2382" s="1" t="n">
+        <v>2381</v>
+      </c>
+      <c r="C2382" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2382" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2382" s="1" t="n">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="2383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2383" s="1" t="n">
+        <v>2382</v>
+      </c>
+      <c r="C2383" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2383" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2383" s="1" t="n">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="2384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2384" s="1" t="n">
+        <v>2383</v>
+      </c>
+      <c r="C2384" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2384" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2384" s="1" t="n">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="2385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2385" s="1" t="n">
+        <v>2384</v>
+      </c>
+      <c r="C2385" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2385" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2385" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2386" s="1" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C2386" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2386" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2386" s="1" t="n">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="2387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2387" s="1" t="n">
+        <v>2386</v>
+      </c>
+      <c r="C2387" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2387" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2387" s="1" t="n">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="2388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2388" s="1" t="n">
+        <v>2387</v>
+      </c>
+      <c r="C2388" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2388" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2388" s="1" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="2389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2389" s="1" t="n">
+        <v>2388</v>
+      </c>
+      <c r="C2389" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2389" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2389" s="1" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="2390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2390" s="1" t="n">
+        <v>2389</v>
+      </c>
+      <c r="C2390" s="5" t="n">
+        <v>44625</v>
+      </c>
+      <c r="D2390" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2390" s="1" t="n">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="2391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2391" s="1" t="n">
+        <v>2390</v>
+      </c>
+      <c r="C2391" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2391" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2391" s="1" t="n">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="2392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2392" s="1" t="n">
+        <v>2391</v>
+      </c>
+      <c r="C2392" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2392" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2393" s="1" t="n">
+        <v>2392</v>
+      </c>
+      <c r="C2393" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2393" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2394" s="1" t="n">
+        <v>2393</v>
+      </c>
+      <c r="C2394" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2394" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2394" s="1" t="n">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="2395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2395" s="1" t="n">
+        <v>2394</v>
+      </c>
+      <c r="C2395" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2395" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2396" s="1" t="n">
+        <v>2395</v>
+      </c>
+      <c r="C2396" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2396" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2396" s="1" t="n">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="2397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2397" s="1" t="n">
+        <v>2396</v>
+      </c>
+      <c r="C2397" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2397" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2397" s="1" t="n">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="2398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2398" s="1" t="n">
+        <v>2397</v>
+      </c>
+      <c r="C2398" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2398" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2398" s="1" t="n">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="2399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2399" s="1" t="n">
+        <v>2398</v>
+      </c>
+      <c r="C2399" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2399" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2399" s="1" t="n">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="2400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2400" s="1" t="n">
+        <v>2399</v>
+      </c>
+      <c r="C2400" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2400" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2400" s="1" t="n">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="2401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2401" s="1" t="n">
+        <v>2400</v>
+      </c>
+      <c r="C2401" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2401" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2401" s="1" t="n">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="2402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2402" s="1" t="n">
+        <v>2401</v>
+      </c>
+      <c r="C2402" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2402" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2402" s="1" t="n">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="2403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2403" s="1" t="n">
+        <v>2402</v>
+      </c>
+      <c r="C2403" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2403" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2403" s="1" t="n">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="2404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2404" s="1" t="n">
+        <v>2403</v>
+      </c>
+      <c r="C2404" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2404" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2405" s="1" t="n">
+        <v>2404</v>
+      </c>
+      <c r="C2405" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2405" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2405" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2406" s="1" t="n">
+        <v>2405</v>
+      </c>
+      <c r="C2406" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2406" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2406" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2407" s="1" t="n">
+        <v>2406</v>
+      </c>
+      <c r="C2407" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2407" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2407" s="1" t="n">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2408" s="1" t="n">
+        <v>2407</v>
+      </c>
+      <c r="C2408" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2408" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2408" s="1" t="n">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="2409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2409" s="1" t="n">
+        <v>2408</v>
+      </c>
+      <c r="C2409" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2409" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2410" s="1" t="n">
+        <v>2409</v>
+      </c>
+      <c r="C2410" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2410" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2411" s="1" t="n">
+        <v>2410</v>
+      </c>
+      <c r="C2411" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2411" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2412" s="1" t="n">
+        <v>2411</v>
+      </c>
+      <c r="C2412" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2412" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2412" s="1" t="n">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="2413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2413" s="1" t="n">
+        <v>2412</v>
+      </c>
+      <c r="C2413" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2413" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2413" s="1" t="n">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2414" s="1" t="n">
+        <v>2413</v>
+      </c>
+      <c r="C2414" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2414" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2415" s="1" t="n">
+        <v>2414</v>
+      </c>
+      <c r="C2415" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2415" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2415" s="1" t="n">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="2416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2416" s="1" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C2416" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2416" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2416" s="1" t="n">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="2417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2417" s="1" t="n">
+        <v>2416</v>
+      </c>
+      <c r="C2417" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2417" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2417" s="1" t="n">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="2418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2418" s="1" t="n">
+        <v>2417</v>
+      </c>
+      <c r="C2418" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2418" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2418" s="1" t="n">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2419" s="1" t="n">
+        <v>2418</v>
+      </c>
+      <c r="C2419" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2419" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2419" s="1" t="n">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="2420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2420" s="1" t="n">
+        <v>2419</v>
+      </c>
+      <c r="C2420" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2420" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2420" s="1" t="n">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2421" s="1" t="n">
+        <v>2420</v>
+      </c>
+      <c r="C2421" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2421" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2421" s="1" t="n">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2422" s="1" t="n">
+        <v>2421</v>
+      </c>
+      <c r="C2422" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2422" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2422" s="1" t="n">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2423" s="1" t="n">
+        <v>2422</v>
+      </c>
+      <c r="C2423" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2423" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2423" s="1" t="n">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2424" s="1" t="n">
+        <v>2423</v>
+      </c>
+      <c r="C2424" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2424" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2424" s="1" t="n">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2425" s="1" t="n">
+        <v>2424</v>
+      </c>
+      <c r="C2425" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2425" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2425" s="1" t="n">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="2426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2426" s="1" t="n">
+        <v>2425</v>
+      </c>
+      <c r="C2426" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2426" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2426" s="1" t="n">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="2427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2427" s="1" t="n">
+        <v>2426</v>
+      </c>
+      <c r="C2427" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2427" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2428" s="1" t="n">
+        <v>2427</v>
+      </c>
+      <c r="C2428" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2428" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2428" s="1" t="n">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="2429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2429" s="1" t="n">
+        <v>2428</v>
+      </c>
+      <c r="C2429" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2429" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2429" s="1" t="n">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="2430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2430" s="1" t="n">
+        <v>2429</v>
+      </c>
+      <c r="C2430" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2430" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2430" s="1" t="n">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="2431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2431" s="1" t="n">
+        <v>2430</v>
+      </c>
+      <c r="C2431" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2431" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2431" s="1" t="n">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="2432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2432" s="1" t="n">
+        <v>2431</v>
+      </c>
+      <c r="C2432" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2432" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2432" s="1" t="n">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="2433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2433" s="1" t="n">
+        <v>2432</v>
+      </c>
+      <c r="C2433" s="5" t="n">
+        <v>44626</v>
+      </c>
+      <c r="D2433" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2434" s="1" t="n">
+        <v>2433</v>
+      </c>
+      <c r="C2434" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2434" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2435" s="1" t="n">
+        <v>2434</v>
+      </c>
+      <c r="C2435" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2435" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2436" s="1" t="n">
+        <v>2435</v>
+      </c>
+      <c r="C2436" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2436" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2437" s="1" t="n">
+        <v>2436</v>
+      </c>
+      <c r="C2437" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2437" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2437" s="1" t="n">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="2438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2438" s="1" t="n">
+        <v>2437</v>
+      </c>
+      <c r="C2438" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2438" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2438" s="1" t="n">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="2439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2439" s="1" t="n">
+        <v>2438</v>
+      </c>
+      <c r="C2439" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2439" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2439" s="1" t="n">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="2440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2440" s="1" t="n">
+        <v>2439</v>
+      </c>
+      <c r="C2440" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2440" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2440" s="1" t="n">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="2441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2441" s="1" t="n">
+        <v>2440</v>
+      </c>
+      <c r="C2441" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2441" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2442" s="1" t="n">
+        <v>2441</v>
+      </c>
+      <c r="C2442" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2442" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2442" s="1" t="n">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="2443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2443" s="1" t="n">
+        <v>2442</v>
+      </c>
+      <c r="C2443" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2443" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2443" s="1" t="n">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="2444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2444" s="1" t="n">
+        <v>2443</v>
+      </c>
+      <c r="C2444" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2444" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2444" s="1" t="n">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="2445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2445" s="1" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C2445" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2445" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2445" s="1" t="n">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="2446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2446" s="1" t="n">
+        <v>2445</v>
+      </c>
+      <c r="C2446" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2446" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2447" s="1" t="n">
+        <v>2446</v>
+      </c>
+      <c r="C2447" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2447" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2447" s="1" t="n">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="2448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2448" s="1" t="n">
+        <v>2447</v>
+      </c>
+      <c r="C2448" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2448" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2449" s="1" t="n">
+        <v>2448</v>
+      </c>
+      <c r="C2449" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2449" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2450" s="1" t="n">
+        <v>2449</v>
+      </c>
+      <c r="C2450" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2450" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2451" s="1" t="n">
+        <v>2450</v>
+      </c>
+      <c r="C2451" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2451" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2452" s="1" t="n">
+        <v>2451</v>
+      </c>
+      <c r="C2452" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2452" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2452" s="1" t="n">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="2453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2453" s="1" t="n">
+        <v>2452</v>
+      </c>
+      <c r="C2453" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2453" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2453" s="1" t="n">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="2454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2454" s="1" t="n">
+        <v>2453</v>
+      </c>
+      <c r="C2454" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2454" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2454" s="1" t="n">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="2455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2455" s="1" t="n">
+        <v>2454</v>
+      </c>
+      <c r="C2455" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2455" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2455" s="1" t="n">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="2456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2456" s="1" t="n">
+        <v>2455</v>
+      </c>
+      <c r="C2456" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2456" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2456" s="1" t="n">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="2457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2457" s="1" t="n">
+        <v>2456</v>
+      </c>
+      <c r="C2457" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2457" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2457" s="1" t="n">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="2458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2458" s="1" t="n">
+        <v>2457</v>
+      </c>
+      <c r="C2458" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2458" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2458" s="1" t="n">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="2459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2459" s="1" t="n">
+        <v>2458</v>
+      </c>
+      <c r="C2459" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2459" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2459" s="1" t="n">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="2460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2460" s="1" t="n">
+        <v>2459</v>
+      </c>
+      <c r="C2460" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2460" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2460" s="1" t="n">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="2461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2461" s="1" t="n">
+        <v>2460</v>
+      </c>
+      <c r="C2461" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2461" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2462" s="1" t="n">
+        <v>2461</v>
+      </c>
+      <c r="C2462" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2462" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2462" s="1" t="n">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="2463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2463" s="1" t="n">
+        <v>2462</v>
+      </c>
+      <c r="C2463" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2463" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2464" s="1" t="n">
+        <v>2463</v>
+      </c>
+      <c r="C2464" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2464" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2464" s="1" t="n">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="2465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2465" s="1" t="n">
+        <v>2464</v>
+      </c>
+      <c r="C2465" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2465" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2465" s="1" t="n">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="2466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2466" s="1" t="n">
+        <v>2465</v>
+      </c>
+      <c r="C2466" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2466" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2466" s="1" t="n">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="2467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2467" s="1" t="n">
+        <v>2466</v>
+      </c>
+      <c r="C2467" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2467" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2467" s="1" t="n">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="2468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2468" s="1" t="n">
+        <v>2467</v>
+      </c>
+      <c r="C2468" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2468" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2468" s="1" t="n">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="2469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2469" s="1" t="n">
+        <v>2468</v>
+      </c>
+      <c r="C2469" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2469" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2469" s="1" t="n">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="2470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2470" s="1" t="n">
+        <v>2469</v>
+      </c>
+      <c r="C2470" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2470" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2471" s="1" t="n">
+        <v>2470</v>
+      </c>
+      <c r="C2471" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2471" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2472" s="1" t="n">
+        <v>2471</v>
+      </c>
+      <c r="C2472" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2472" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2473" s="1" t="n">
+        <v>2472</v>
+      </c>
+      <c r="C2473" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2473" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2474" s="1" t="n">
+        <v>2473</v>
+      </c>
+      <c r="C2474" s="5" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D2474" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2474" s="1" t="n">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2475" s="1" t="n">
+        <v>2474</v>
+      </c>
+      <c r="C2475" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2475" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2475" s="1" t="n">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="2476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2476" s="1" t="n">
+        <v>2475</v>
+      </c>
+      <c r="C2476" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2476" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2477" s="1" t="n">
+        <v>2476</v>
+      </c>
+      <c r="C2477" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2477" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2478" s="1" t="n">
+        <v>2477</v>
+      </c>
+      <c r="C2478" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2478" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2478" s="1" t="n">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="2479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2479" s="1" t="n">
+        <v>2478</v>
+      </c>
+      <c r="C2479" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2479" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2479" s="1" t="n">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="2480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2480" s="1" t="n">
+        <v>2479</v>
+      </c>
+      <c r="C2480" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2480" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2480" s="1" t="n">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="2481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2481" s="1" t="n">
+        <v>2480</v>
+      </c>
+      <c r="C2481" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2481" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2482" s="1" t="n">
+        <v>2481</v>
+      </c>
+      <c r="C2482" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2482" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2483" s="1" t="n">
+        <v>2482</v>
+      </c>
+      <c r="C2483" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2483" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2484" s="1" t="n">
+        <v>2483</v>
+      </c>
+      <c r="C2484" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2484" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2484" s="1" t="n">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="2485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2485" s="1" t="n">
+        <v>2484</v>
+      </c>
+      <c r="C2485" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2485" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2485" s="1" t="n">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="2486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2486" s="1" t="n">
+        <v>2485</v>
+      </c>
+      <c r="C2486" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2486" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2487" s="1" t="n">
+        <v>2486</v>
+      </c>
+      <c r="C2487" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2487" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2488" s="1" t="n">
+        <v>2487</v>
+      </c>
+      <c r="C2488" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2488" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2489" s="1" t="n">
+        <v>2488</v>
+      </c>
+      <c r="C2489" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2489" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2490" s="1" t="n">
+        <v>2489</v>
+      </c>
+      <c r="C2490" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2490" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2490" s="1" t="n">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="2491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2491" s="1" t="n">
+        <v>2490</v>
+      </c>
+      <c r="C2491" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2491" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2491" s="1" t="n">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="2492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2492" s="1" t="n">
+        <v>2491</v>
+      </c>
+      <c r="C2492" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2492" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2492" s="1" t="n">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="2493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2493" s="1" t="n">
+        <v>2492</v>
+      </c>
+      <c r="C2493" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2493" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2493" s="1" t="n">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="2494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2494" s="1" t="n">
+        <v>2493</v>
+      </c>
+      <c r="C2494" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2494" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2494" s="1" t="n">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="2495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2495" s="1" t="n">
+        <v>2494</v>
+      </c>
+      <c r="C2495" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2495" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2495" s="1" t="n">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="2496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2496" s="1" t="n">
+        <v>2495</v>
+      </c>
+      <c r="C2496" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2496" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2496" s="1" t="n">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="2497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2497" s="1" t="n">
+        <v>2496</v>
+      </c>
+      <c r="C2497" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2497" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2497" s="1" t="n">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="2498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2498" s="1" t="n">
+        <v>2497</v>
+      </c>
+      <c r="C2498" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2498" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2498" s="1" t="n">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="2499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2499" s="1" t="n">
+        <v>2498</v>
+      </c>
+      <c r="C2499" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2499" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2500" s="1" t="n">
+        <v>2499</v>
+      </c>
+      <c r="C2500" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2500" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2500" s="1" t="n">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="2501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2501" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C2501" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2501" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2501" s="1" t="n">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="2502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2502" s="1" t="n">
+        <v>2501</v>
+      </c>
+      <c r="C2502" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2502" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2502" s="1" t="n">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="2503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2503" s="1" t="n">
+        <v>2502</v>
+      </c>
+      <c r="C2503" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2503" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2503" s="1" t="n">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="2504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2504" s="1" t="n">
+        <v>2503</v>
+      </c>
+      <c r="C2504" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2504" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2504" s="1" t="n">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="2505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2505" s="1" t="n">
+        <v>2504</v>
+      </c>
+      <c r="C2505" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2505" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2505" s="1" t="n">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="2506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2506" s="1" t="n">
+        <v>2505</v>
+      </c>
+      <c r="C2506" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2506" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2506" s="1" t="n">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="2507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2507" s="1" t="n">
+        <v>2506</v>
+      </c>
+      <c r="C2507" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2507" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2507" s="1" t="n">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="2508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2508" s="1" t="n">
+        <v>2507</v>
+      </c>
+      <c r="C2508" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2508" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2509" s="1" t="n">
+        <v>2508</v>
+      </c>
+      <c r="C2509" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2509" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2510" s="1" t="n">
+        <v>2509</v>
+      </c>
+      <c r="C2510" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2510" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2511" s="1" t="n">
+        <v>2510</v>
+      </c>
+      <c r="C2511" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2511" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2512" s="1" t="n">
+        <v>2511</v>
+      </c>
+      <c r="C2512" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2512" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2512" s="1" t="n">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2513" s="1" t="n">
+        <v>2512</v>
+      </c>
+      <c r="C2513" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2513" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2513" s="1" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="2514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2514" s="1" t="n">
+        <v>2513</v>
+      </c>
+      <c r="C2514" s="5" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D2514" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2514" s="1" t="n">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="2515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2515" s="1" t="n">
+        <v>2514</v>
+      </c>
+      <c r="C2515" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2515" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2515" s="1" t="n">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="2516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2516" s="1" t="n">
+        <v>2515</v>
+      </c>
+      <c r="C2516" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2516" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2516" s="1" t="n">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="2517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2517" s="1" t="n">
+        <v>2516</v>
+      </c>
+      <c r="C2517" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2517" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2517" s="1" t="n">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="2518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2518" s="1" t="n">
+        <v>2517</v>
+      </c>
+      <c r="C2518" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2518" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2518" s="1" t="n">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="2519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2519" s="1" t="n">
+        <v>2518</v>
+      </c>
+      <c r="C2519" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2519" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2520" s="1" t="n">
+        <v>2519</v>
+      </c>
+      <c r="C2520" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2520" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2520" s="1" t="n">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="2521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2521" s="1" t="n">
+        <v>2520</v>
+      </c>
+      <c r="C2521" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2521" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2521" s="1" t="n">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="2522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2522" s="1" t="n">
+        <v>2521</v>
+      </c>
+      <c r="C2522" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2522" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2523" s="1" t="n">
+        <v>2522</v>
+      </c>
+      <c r="C2523" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2523" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2523" s="1" t="n">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="2524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2524" s="1" t="n">
+        <v>2523</v>
+      </c>
+      <c r="C2524" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2524" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2525" s="1" t="n">
+        <v>2524</v>
+      </c>
+      <c r="C2525" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2525" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2526" s="1" t="n">
+        <v>2525</v>
+      </c>
+      <c r="C2526" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2526" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2527" s="1" t="n">
+        <v>2526</v>
+      </c>
+      <c r="C2527" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2527" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2528" s="1" t="n">
+        <v>2527</v>
+      </c>
+      <c r="C2528" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2528" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2529" s="1" t="n">
+        <v>2528</v>
+      </c>
+      <c r="C2529" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2529" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2530" s="1" t="n">
+        <v>2529</v>
+      </c>
+      <c r="C2530" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2530" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2531" s="1" t="n">
+        <v>2530</v>
+      </c>
+      <c r="C2531" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2531" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2532" s="1" t="n">
+        <v>2531</v>
+      </c>
+      <c r="C2532" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2532" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2532" s="1" t="n">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="2533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2533" s="1" t="n">
+        <v>2532</v>
+      </c>
+      <c r="C2533" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2533" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2533" s="1" t="n">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="2534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2534" s="1" t="n">
+        <v>2533</v>
+      </c>
+      <c r="C2534" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2534" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2534" s="1" t="n">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="2535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2535" s="1" t="n">
+        <v>2534</v>
+      </c>
+      <c r="C2535" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2535" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2535" s="1" t="n">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="2536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2536" s="1" t="n">
+        <v>2535</v>
+      </c>
+      <c r="C2536" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2536" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2536" s="1" t="n">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="2537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2537" s="1" t="n">
+        <v>2536</v>
+      </c>
+      <c r="C2537" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2537" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2537" s="1" t="n">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="2538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2538" s="1" t="n">
+        <v>2537</v>
+      </c>
+      <c r="C2538" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2538" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2538" s="1" t="n">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="2539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2539" s="1" t="n">
+        <v>2538</v>
+      </c>
+      <c r="C2539" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2539" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2539" s="1" t="n">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="2540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2540" s="1" t="n">
+        <v>2539</v>
+      </c>
+      <c r="C2540" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2540" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2540" s="1" t="n">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="2541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2541" s="1" t="n">
+        <v>2540</v>
+      </c>
+      <c r="C2541" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2541" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2541" s="1" t="n">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="2542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2542" s="1" t="n">
+        <v>2541</v>
+      </c>
+      <c r="C2542" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2542" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2542" s="1" t="n">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="2543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2543" s="1" t="n">
+        <v>2542</v>
+      </c>
+      <c r="C2543" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2543" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2543" s="1" t="n">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="2544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2544" s="1" t="n">
+        <v>2543</v>
+      </c>
+      <c r="C2544" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2544" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2544" s="1" t="n">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="2545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2545" s="1" t="n">
+        <v>2544</v>
+      </c>
+      <c r="C2545" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2545" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2545" s="1" t="n">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="2546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2546" s="1" t="n">
+        <v>2545</v>
+      </c>
+      <c r="C2546" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2546" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2546" s="1" t="n">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="2547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2547" s="1" t="n">
+        <v>2546</v>
+      </c>
+      <c r="C2547" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2547" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2547" s="1" t="n">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="2548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2548" s="1" t="n">
+        <v>2547</v>
+      </c>
+      <c r="C2548" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2548" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2548" s="1" t="n">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="2549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2549" s="1" t="n">
+        <v>2548</v>
+      </c>
+      <c r="C2549" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2549" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2549" s="1" t="n">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="2550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2550" s="1" t="n">
+        <v>2549</v>
+      </c>
+      <c r="C2550" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2550" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2550" s="1" t="n">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="2551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2551" s="1" t="n">
+        <v>2550</v>
+      </c>
+      <c r="C2551" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2551" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2551" s="1" t="n">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="2552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2552" s="1" t="n">
+        <v>2551</v>
+      </c>
+      <c r="C2552" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2552" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2553" s="1" t="n">
+        <v>2552</v>
+      </c>
+      <c r="C2553" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2553" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2554" s="1" t="n">
+        <v>2553</v>
+      </c>
+      <c r="C2554" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2554" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2554" s="1" t="n">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="2555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2555" s="1" t="n">
+        <v>2554</v>
+      </c>
+      <c r="C2555" s="5" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D2555" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2555" s="1" t="n">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="2556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2556" s="1" t="n">
+        <v>2555</v>
+      </c>
+      <c r="C2556" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2556" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2557" s="1" t="n">
+        <v>2556</v>
+      </c>
+      <c r="C2557" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2557" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2558" s="1" t="n">
+        <v>2557</v>
+      </c>
+      <c r="C2558" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2558" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2559" s="1" t="n">
+        <v>2558</v>
+      </c>
+      <c r="C2559" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2559" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2559" s="1" t="n">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="2560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2560" s="1" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C2560" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2560" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2560" s="1" t="n">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="2561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2561" s="1" t="n">
+        <v>2560</v>
+      </c>
+      <c r="C2561" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2561" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2561" s="1" t="n">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="2562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2562" s="1" t="n">
+        <v>2561</v>
+      </c>
+      <c r="C2562" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2562" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2562" s="1" t="n">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="2563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2563" s="1" t="n">
+        <v>2562</v>
+      </c>
+      <c r="C2563" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2563" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2563" s="1" t="n">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="2564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2564" s="1" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C2564" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2564" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2564" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2565" s="1" t="n">
+        <v>2564</v>
+      </c>
+      <c r="C2565" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2565" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2565" s="1" t="n">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="2566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2566" s="1" t="n">
+        <v>2565</v>
+      </c>
+      <c r="C2566" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2566" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2567" s="1" t="n">
+        <v>2566</v>
+      </c>
+      <c r="C2567" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2567" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2568" s="1" t="n">
+        <v>2567</v>
+      </c>
+      <c r="C2568" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2568" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2569" s="1" t="n">
+        <v>2568</v>
+      </c>
+      <c r="C2569" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2569" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2570" s="1" t="n">
+        <v>2569</v>
+      </c>
+      <c r="C2570" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2570" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2570" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2571" s="1" t="n">
+        <v>2570</v>
+      </c>
+      <c r="C2571" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2571" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2571" s="1" t="n">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="2572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2572" s="1" t="n">
+        <v>2571</v>
+      </c>
+      <c r="C2572" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2572" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2572" s="1" t="n">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="2573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2573" s="1" t="n">
+        <v>2572</v>
+      </c>
+      <c r="C2573" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2573" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2573" s="1" t="n">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="2574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2574" s="1" t="n">
+        <v>2573</v>
+      </c>
+      <c r="C2574" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2574" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2574" s="1" t="n">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="2575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2575" s="1" t="n">
+        <v>2574</v>
+      </c>
+      <c r="C2575" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2575" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2575" s="1" t="n">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="2576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2576" s="1" t="n">
+        <v>2575</v>
+      </c>
+      <c r="C2576" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2576" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2576" s="1" t="n">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="2577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2577" s="1" t="n">
+        <v>2576</v>
+      </c>
+      <c r="C2577" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2577" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2578" s="1" t="n">
+        <v>2577</v>
+      </c>
+      <c r="C2578" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2578" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2578" s="1" t="n">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="2579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2579" s="1" t="n">
+        <v>2578</v>
+      </c>
+      <c r="C2579" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2579" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2579" s="1" t="n">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="2580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2580" s="1" t="n">
+        <v>2579</v>
+      </c>
+      <c r="C2580" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2580" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2580" s="1" t="n">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="2581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2581" s="1" t="n">
+        <v>2580</v>
+      </c>
+      <c r="C2581" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2581" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2581" s="1" t="n">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="2582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2582" s="1" t="n">
+        <v>2581</v>
+      </c>
+      <c r="C2582" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2582" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2582" s="1" t="n">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="2583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2583" s="1" t="n">
+        <v>2582</v>
+      </c>
+      <c r="C2583" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2583" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2583" s="1" t="n">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="2584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2584" s="1" t="n">
+        <v>2583</v>
+      </c>
+      <c r="C2584" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2584" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2584" s="1" t="n">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="2585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2585" s="1" t="n">
+        <v>2584</v>
+      </c>
+      <c r="C2585" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2585" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2585" s="1" t="n">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="2586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2586" s="1" t="n">
+        <v>2585</v>
+      </c>
+      <c r="C2586" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2586" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2586" s="1" t="n">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="2587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2587" s="1" t="n">
+        <v>2586</v>
+      </c>
+      <c r="C2587" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2587" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2587" s="1" t="n">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="2588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2588" s="1" t="n">
+        <v>2587</v>
+      </c>
+      <c r="C2588" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2588" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2588" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2589" s="1" t="n">
+        <v>2588</v>
+      </c>
+      <c r="C2589" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2589" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2590" s="1" t="n">
+        <v>2589</v>
+      </c>
+      <c r="C2590" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2590" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2590" s="1" t="n">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="2591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2591" s="1" t="n">
+        <v>2590</v>
+      </c>
+      <c r="C2591" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2591" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2592" s="1" t="n">
+        <v>2591</v>
+      </c>
+      <c r="C2592" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2592" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2593" s="1" t="n">
+        <v>2592</v>
+      </c>
+      <c r="C2593" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2593" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2594" s="1" t="n">
+        <v>2593</v>
+      </c>
+      <c r="C2594" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2594" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2595" s="1" t="n">
+        <v>2594</v>
+      </c>
+      <c r="C2595" s="5" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D2595" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2596" s="1" t="n">
+        <v>2595</v>
+      </c>
+      <c r="C2596" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2596" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2597" s="1" t="n">
+        <v>2596</v>
+      </c>
+      <c r="C2597" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2597" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2597" s="1" t="n">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="2598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2598" s="1" t="n">
+        <v>2597</v>
+      </c>
+      <c r="C2598" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2598" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2598" s="1" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2599" s="1" t="n">
+        <v>2598</v>
+      </c>
+      <c r="C2599" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2599" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2600" s="1" t="n">
+        <v>2599</v>
+      </c>
+      <c r="C2600" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2600" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2600" s="1" t="n">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="2601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2601" s="1" t="n">
+        <v>2600</v>
+      </c>
+      <c r="C2601" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2601" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2601" s="1" t="n">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="2602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2602" s="1" t="n">
+        <v>2601</v>
+      </c>
+      <c r="C2602" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2602" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2602" s="1" t="n">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="2603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2603" s="1" t="n">
+        <v>2602</v>
+      </c>
+      <c r="C2603" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2603" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2603" s="1" t="n">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="2604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2604" s="1" t="n">
+        <v>2603</v>
+      </c>
+      <c r="C2604" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2604" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2604" s="1" t="n">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="2605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2605" s="1" t="n">
+        <v>2604</v>
+      </c>
+      <c r="C2605" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2605" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2605" s="1" t="n">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="2606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2606" s="1" t="n">
+        <v>2605</v>
+      </c>
+      <c r="C2606" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2606" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2606" s="1" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="2607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2607" s="1" t="n">
+        <v>2606</v>
+      </c>
+      <c r="C2607" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2607" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2607" s="1" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="2608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2608" s="1" t="n">
+        <v>2607</v>
+      </c>
+      <c r="C2608" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2608" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2608" s="1" t="n">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2609" s="1" t="n">
+        <v>2608</v>
+      </c>
+      <c r="C2609" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2609" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2609" s="1" t="n">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="2610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2610" s="1" t="n">
+        <v>2609</v>
+      </c>
+      <c r="C2610" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2610" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2610" s="1" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="2611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2611" s="1" t="n">
+        <v>2610</v>
+      </c>
+      <c r="C2611" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2611" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2611" s="1" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="2612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2612" s="1" t="n">
+        <v>2611</v>
+      </c>
+      <c r="C2612" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2612" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2612" s="1" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="2613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2613" s="1" t="n">
+        <v>2612</v>
+      </c>
+      <c r="C2613" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2613" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2613" s="1" t="n">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="2614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2614" s="1" t="n">
+        <v>2613</v>
+      </c>
+      <c r="C2614" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2614" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2614" s="1" t="n">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="2615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2615" s="1" t="n">
+        <v>2614</v>
+      </c>
+      <c r="C2615" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2615" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2615" s="1" t="n">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="2616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2616" s="1" t="n">
+        <v>2615</v>
+      </c>
+      <c r="C2616" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2616" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2616" s="1" t="n">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="2617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2617" s="1" t="n">
+        <v>2616</v>
+      </c>
+      <c r="C2617" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2617" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2617" s="1" t="n">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="2618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2618" s="1" t="n">
+        <v>2617</v>
+      </c>
+      <c r="C2618" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2618" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2618" s="1" t="n">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="2619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2619" s="1" t="n">
+        <v>2618</v>
+      </c>
+      <c r="C2619" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2619" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2619" s="1" t="n">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="2620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2620" s="1" t="n">
+        <v>2619</v>
+      </c>
+      <c r="C2620" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2620" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2620" s="1" t="n">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="2621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2621" s="1" t="n">
+        <v>2620</v>
+      </c>
+      <c r="C2621" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2621" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2621" s="1" t="n">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="2622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2622" s="1" t="n">
+        <v>2621</v>
+      </c>
+      <c r="C2622" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2622" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2623" s="1" t="n">
+        <v>2622</v>
+      </c>
+      <c r="C2623" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2623" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2623" s="1" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="2624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2624" s="1" t="n">
+        <v>2623</v>
+      </c>
+      <c r="C2624" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2624" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2624" s="1" t="n">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="2625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2625" s="1" t="n">
+        <v>2624</v>
+      </c>
+      <c r="C2625" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2625" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2625" s="1" t="n">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="2626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2626" s="1" t="n">
+        <v>2625</v>
+      </c>
+      <c r="C2626" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2626" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2626" s="1" t="n">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="2627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2627" s="1" t="n">
+        <v>2626</v>
+      </c>
+      <c r="C2627" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2627" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2627" s="1" t="n">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="2628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2628" s="1" t="n">
+        <v>2627</v>
+      </c>
+      <c r="C2628" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2628" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2628" s="1" t="n">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="2629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2629" s="1" t="n">
+        <v>2628</v>
+      </c>
+      <c r="C2629" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2629" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2630" s="1" t="n">
+        <v>2629</v>
+      </c>
+      <c r="C2630" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2630" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2631" s="1" t="n">
+        <v>2630</v>
+      </c>
+      <c r="C2631" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2631" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2631" s="1" t="n">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="2632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2632" s="1" t="n">
+        <v>2631</v>
+      </c>
+      <c r="C2632" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2632" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2633" s="1" t="n">
+        <v>2632</v>
+      </c>
+      <c r="C2633" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2633" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2633" s="1" t="n">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="2634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2634" s="1" t="n">
+        <v>2633</v>
+      </c>
+      <c r="C2634" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2634" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2634" s="1" t="n">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="2635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2635" s="1" t="n">
+        <v>2634</v>
+      </c>
+      <c r="C2635" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2635" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2636" s="1" t="n">
+        <v>2635</v>
+      </c>
+      <c r="C2636" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2636" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2636" s="1" t="n">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="2637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2637" s="1" t="n">
+        <v>2636</v>
+      </c>
+      <c r="C2637" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2637" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2637" s="1" t="n">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="2638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2638" s="1" t="n">
+        <v>2637</v>
+      </c>
+      <c r="C2638" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2638" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2638" s="1" t="n">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="2639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2639" s="1" t="n">
+        <v>2638</v>
+      </c>
+      <c r="C2639" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2639" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2639" s="1" t="n">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="2640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2640" s="1" t="n">
+        <v>2639</v>
+      </c>
+      <c r="C2640" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2640" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2640" s="1" t="n">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="2641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2641" s="1" t="n">
+        <v>2640</v>
+      </c>
+      <c r="C2641" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2641" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2641" s="1" t="n">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="2642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2642" s="1" t="n">
+        <v>2641</v>
+      </c>
+      <c r="C2642" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2642" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2642" s="1" t="n">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="2643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2643" s="1" t="n">
+        <v>2642</v>
+      </c>
+      <c r="C2643" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2643" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2644" s="1" t="n">
+        <v>2643</v>
+      </c>
+      <c r="C2644" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2644" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2644" s="1" t="n">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="2645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2645" s="1" t="n">
+        <v>2644</v>
+      </c>
+      <c r="C2645" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2645" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2646" s="1" t="n">
+        <v>2645</v>
+      </c>
+      <c r="C2646" s="5" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D2646" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2646" s="1" t="n">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="2647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2647" s="1" t="n">
+        <v>2646</v>
+      </c>
+      <c r="C2647" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2647" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2648" s="1" t="n">
+        <v>2647</v>
+      </c>
+      <c r="C2648" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2648" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2649" s="1" t="n">
+        <v>2648</v>
+      </c>
+      <c r="C2649" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2649" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2649" s="1" t="n">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="2650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2650" s="1" t="n">
+        <v>2649</v>
+      </c>
+      <c r="C2650" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2650" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2650" s="1" t="n">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="2651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2651" s="1" t="n">
+        <v>2650</v>
+      </c>
+      <c r="C2651" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2651" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2651" s="1" t="n">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="2652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2652" s="1" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C2652" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2652" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2653" s="1" t="n">
+        <v>2652</v>
+      </c>
+      <c r="C2653" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2653" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2654" s="1" t="n">
+        <v>2653</v>
+      </c>
+      <c r="C2654" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2654" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2654" s="1" t="n">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="2655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2655" s="1" t="n">
+        <v>2654</v>
+      </c>
+      <c r="C2655" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2655" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2655" s="1" t="n">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="2656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2656" s="1" t="n">
+        <v>2655</v>
+      </c>
+      <c r="C2656" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2656" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2657" s="1" t="n">
+        <v>2656</v>
+      </c>
+      <c r="C2657" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2657" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2657" s="1" t="n">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="2658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2658" s="1" t="n">
+        <v>2657</v>
+      </c>
+      <c r="C2658" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2658" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2658" s="1" t="n">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="2659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2659" s="1" t="n">
+        <v>2658</v>
+      </c>
+      <c r="C2659" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2659" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2659" s="1" t="n">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="2660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2660" s="1" t="n">
+        <v>2659</v>
+      </c>
+      <c r="C2660" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2660" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2660" s="1" t="n">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="2661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2661" s="1" t="n">
+        <v>2660</v>
+      </c>
+      <c r="C2661" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2661" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2662" s="1" t="n">
+        <v>2661</v>
+      </c>
+      <c r="C2662" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2662" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2662" s="1" t="n">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="2663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2663" s="1" t="n">
+        <v>2662</v>
+      </c>
+      <c r="C2663" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2663" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2664" s="1" t="n">
+        <v>2663</v>
+      </c>
+      <c r="C2664" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2664" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2665" s="1" t="n">
+        <v>2664</v>
+      </c>
+      <c r="C2665" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2665" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2665" s="1" t="n">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="2666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2666" s="1" t="n">
+        <v>2665</v>
+      </c>
+      <c r="C2666" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2666" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2666" s="1" t="n">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="2667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2667" s="1" t="n">
+        <v>2666</v>
+      </c>
+      <c r="C2667" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2667" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2667" s="1" t="n">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="2668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2668" s="1" t="n">
+        <v>2667</v>
+      </c>
+      <c r="C2668" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2668" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2668" s="1" t="n">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="2669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2669" s="1" t="n">
+        <v>2668</v>
+      </c>
+      <c r="C2669" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2669" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2669" s="1" t="n">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="2670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2670" s="1" t="n">
+        <v>2669</v>
+      </c>
+      <c r="C2670" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2670" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2670" s="1" t="n">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2671" s="1" t="n">
+        <v>2670</v>
+      </c>
+      <c r="C2671" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2671" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2671" s="1" t="n">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="2672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2672" s="1" t="n">
+        <v>2671</v>
+      </c>
+      <c r="C2672" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2672" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2672" s="1" t="n">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="2673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2673" s="1" t="n">
+        <v>2672</v>
+      </c>
+      <c r="C2673" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2673" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2673" s="1" t="n">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="2674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2674" s="1" t="n">
+        <v>2673</v>
+      </c>
+      <c r="C2674" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2674" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2674" s="1" t="n">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2675" s="1" t="n">
+        <v>2674</v>
+      </c>
+      <c r="C2675" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2675" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2675" s="1" t="n">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2676" s="1" t="n">
+        <v>2675</v>
+      </c>
+      <c r="C2676" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2676" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2676" s="1" t="n">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2677" s="1" t="n">
+        <v>2676</v>
+      </c>
+      <c r="C2677" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2677" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2677" s="1" t="n">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="2678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2678" s="1" t="n">
+        <v>2677</v>
+      </c>
+      <c r="C2678" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2678" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2678" s="1" t="n">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="2679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2679" s="1" t="n">
+        <v>2678</v>
+      </c>
+      <c r="C2679" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2679" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2679" s="1" t="n">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="2680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2680" s="1" t="n">
+        <v>2679</v>
+      </c>
+      <c r="C2680" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2680" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2680" s="1" t="n">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="2681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2681" s="1" t="n">
+        <v>2680</v>
+      </c>
+      <c r="C2681" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2681" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2682" s="1" t="n">
+        <v>2681</v>
+      </c>
+      <c r="C2682" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2682" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2683" s="1" t="n">
+        <v>2682</v>
+      </c>
+      <c r="C2683" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2683" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2683" s="1" t="n">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="2684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2684" s="1" t="n">
+        <v>2683</v>
+      </c>
+      <c r="C2684" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2684" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2684" s="1" t="n">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="2685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2685" s="1" t="n">
+        <v>2684</v>
+      </c>
+      <c r="C2685" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2685" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2685" s="1" t="n">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="2686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2686" s="1" t="n">
+        <v>2685</v>
+      </c>
+      <c r="C2686" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2686" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2686" s="1" t="n">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="2687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2687" s="1" t="n">
+        <v>2686</v>
+      </c>
+      <c r="C2687" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2687" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2687" s="1" t="n">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="2688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2688" s="1" t="n">
+        <v>2687</v>
+      </c>
+      <c r="C2688" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2688" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2688" s="1" t="n">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="2689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2689" s="1" t="n">
+        <v>2688</v>
+      </c>
+      <c r="C2689" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2689" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2689" s="1" t="n">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="2690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2690" s="1" t="n">
+        <v>2689</v>
+      </c>
+      <c r="C2690" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2690" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2690" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2691" s="1" t="n">
+        <v>2690</v>
+      </c>
+      <c r="C2691" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2691" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2691" s="1" t="n">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="2692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2692" s="1" t="n">
+        <v>2691</v>
+      </c>
+      <c r="C2692" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2692" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2692" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2693" s="1" t="n">
+        <v>2692</v>
+      </c>
+      <c r="C2693" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2693" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2693" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2694" s="1" t="n">
+        <v>2693</v>
+      </c>
+      <c r="C2694" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2694" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2694" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2695" s="1" t="n">
+        <v>2694</v>
+      </c>
+      <c r="C2695" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2695" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2695" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2696" s="1" t="n">
+        <v>2695</v>
+      </c>
+      <c r="C2696" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2696" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2696" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2697" s="1" t="n">
+        <v>2696</v>
+      </c>
+      <c r="C2697" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2697" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2697" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2698" s="1" t="n">
+        <v>2697</v>
+      </c>
+      <c r="C2698" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2698" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2698" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2699" s="1" t="n">
+        <v>2698</v>
+      </c>
+      <c r="C2699" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2699" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2699" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2700" s="1" t="n">
+        <v>2699</v>
+      </c>
+      <c r="C2700" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2700" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2700" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2701" s="1" t="n">
+        <v>2700</v>
+      </c>
+      <c r="C2701" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2701" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2701" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2702" s="1" t="n">
+        <v>2701</v>
+      </c>
+      <c r="C2702" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2702" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2702" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2703" s="1" t="n">
+        <v>2702</v>
+      </c>
+      <c r="C2703" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2703" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2703" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2704" s="1" t="n">
+        <v>2703</v>
+      </c>
+      <c r="C2704" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2704" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2704" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2705" s="1" t="n">
+        <v>2704</v>
+      </c>
+      <c r="C2705" s="5" t="n">
+        <v>44632</v>
+      </c>
+      <c r="D2705" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2705" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/matsue/matsue-infections.xlsx
+++ b/report/matsue/matsue-infections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="52">
   <si>
     <t xml:space="preserve">num_matsue</t>
   </si>
@@ -155,6 +155,27 @@
   </si>
   <si>
     <t xml:space="preserve">s6682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s7637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s7687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s7600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s7230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s7928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s7883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s7708</t>
   </si>
 </sst>
 </file>
@@ -292,13 +313,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2705"/>
+  <dimension ref="A1:J2972"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.39"/>
@@ -42539,6 +42560,3750 @@
         <v>2631</v>
       </c>
     </row>
+    <row r="2706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2706" s="1" t="n">
+        <v>2705</v>
+      </c>
+      <c r="C2706" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2706" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2707" s="1" t="n">
+        <v>2706</v>
+      </c>
+      <c r="C2707" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2707" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2707" s="1" t="n">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="2708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2708" s="1" t="n">
+        <v>2707</v>
+      </c>
+      <c r="C2708" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2708" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2708" s="1" t="n">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="2709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2709" s="1" t="n">
+        <v>2708</v>
+      </c>
+      <c r="C2709" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2709" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2709" s="1" t="n">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="2710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2710" s="1" t="n">
+        <v>2709</v>
+      </c>
+      <c r="C2710" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2710" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2710" s="1" t="n">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="2711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2711" s="1" t="n">
+        <v>2710</v>
+      </c>
+      <c r="C2711" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2711" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2711" s="1" t="n">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="2712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2712" s="1" t="n">
+        <v>2711</v>
+      </c>
+      <c r="C2712" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2712" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2712" s="1" t="n">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="2713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2713" s="1" t="n">
+        <v>2712</v>
+      </c>
+      <c r="C2713" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2713" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2713" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2714" s="1" t="n">
+        <v>2713</v>
+      </c>
+      <c r="C2714" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2714" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2714" s="1" t="n">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="2715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2715" s="1" t="n">
+        <v>2714</v>
+      </c>
+      <c r="C2715" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2715" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2715" s="1" t="n">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="2716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2716" s="1" t="n">
+        <v>2715</v>
+      </c>
+      <c r="C2716" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2716" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2716" s="1" t="n">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="2717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2717" s="1" t="n">
+        <v>2716</v>
+      </c>
+      <c r="C2717" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2717" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2717" s="1" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="2718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2718" s="1" t="n">
+        <v>2717</v>
+      </c>
+      <c r="C2718" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2718" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2719" s="1" t="n">
+        <v>2718</v>
+      </c>
+      <c r="C2719" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2719" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2719" s="1" t="n">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="2720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2720" s="1" t="n">
+        <v>2719</v>
+      </c>
+      <c r="C2720" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2720" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2721" s="1" t="n">
+        <v>2720</v>
+      </c>
+      <c r="C2721" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2721" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2722" s="1" t="n">
+        <v>2721</v>
+      </c>
+      <c r="C2722" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2722" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2723" s="1" t="n">
+        <v>2722</v>
+      </c>
+      <c r="C2723" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2723" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2723" s="1" t="n">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="2724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2724" s="1" t="n">
+        <v>2723</v>
+      </c>
+      <c r="C2724" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2724" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2724" s="1" t="n">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="2725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2725" s="1" t="n">
+        <v>2724</v>
+      </c>
+      <c r="C2725" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2725" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2725" s="1" t="n">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="2726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2726" s="1" t="n">
+        <v>2725</v>
+      </c>
+      <c r="C2726" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2726" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2726" s="1" t="n">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="2727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2727" s="1" t="n">
+        <v>2726</v>
+      </c>
+      <c r="C2727" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2727" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2727" s="1" t="n">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="2728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2728" s="1" t="n">
+        <v>2727</v>
+      </c>
+      <c r="C2728" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2728" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2728" s="1" t="n">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="2729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2729" s="1" t="n">
+        <v>2728</v>
+      </c>
+      <c r="C2729" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2729" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2729" s="1" t="n">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="2730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2730" s="1" t="n">
+        <v>2729</v>
+      </c>
+      <c r="C2730" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2730" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2730" s="1" t="n">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="2731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2731" s="1" t="n">
+        <v>2730</v>
+      </c>
+      <c r="C2731" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2731" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2731" s="1" t="n">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="2732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2732" s="1" t="n">
+        <v>2731</v>
+      </c>
+      <c r="C2732" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2732" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2732" s="1" t="n">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="2733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2733" s="1" t="n">
+        <v>2732</v>
+      </c>
+      <c r="C2733" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2733" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2734" s="1" t="n">
+        <v>2733</v>
+      </c>
+      <c r="C2734" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2734" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2734" s="1" t="n">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="2735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2735" s="1" t="n">
+        <v>2734</v>
+      </c>
+      <c r="C2735" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2735" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2735" s="1" t="n">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="2736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2736" s="1" t="n">
+        <v>2735</v>
+      </c>
+      <c r="C2736" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2736" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2736" s="1" t="n">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="2737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2737" s="1" t="n">
+        <v>2736</v>
+      </c>
+      <c r="C2737" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2737" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2737" s="1" t="n">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="2738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2738" s="1" t="n">
+        <v>2737</v>
+      </c>
+      <c r="C2738" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2738" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2738" s="1" t="n">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="2739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2739" s="1" t="n">
+        <v>2738</v>
+      </c>
+      <c r="C2739" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2739" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2739" s="1" t="n">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="2740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2740" s="1" t="n">
+        <v>2739</v>
+      </c>
+      <c r="C2740" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2740" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2740" s="1" t="n">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="2741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2741" s="1" t="n">
+        <v>2740</v>
+      </c>
+      <c r="C2741" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2741" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2741" s="1" t="n">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="2742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2742" s="1" t="n">
+        <v>2741</v>
+      </c>
+      <c r="C2742" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2742" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2742" s="1" t="n">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2743" s="1" t="n">
+        <v>2742</v>
+      </c>
+      <c r="C2743" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2743" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2743" s="1" t="n">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="2744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2744" s="1" t="n">
+        <v>2743</v>
+      </c>
+      <c r="C2744" s="5" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D2744" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2744" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2745" s="1" t="n">
+        <v>2744</v>
+      </c>
+      <c r="C2745" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2745" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2746" s="1" t="n">
+        <v>2745</v>
+      </c>
+      <c r="C2746" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2746" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2746" s="1" t="n">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="2747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2747" s="1" t="n">
+        <v>2746</v>
+      </c>
+      <c r="C2747" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2747" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2747" s="1" t="n">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="2748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2748" s="1" t="n">
+        <v>2747</v>
+      </c>
+      <c r="C2748" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2748" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2748" s="1" t="n">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="2749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2749" s="1" t="n">
+        <v>2748</v>
+      </c>
+      <c r="C2749" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2749" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2749" s="1" t="n">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="2750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2750" s="1" t="n">
+        <v>2749</v>
+      </c>
+      <c r="C2750" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2750" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2750" s="1" t="n">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="2751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2751" s="1" t="n">
+        <v>2750</v>
+      </c>
+      <c r="C2751" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2751" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2751" s="1" t="n">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="2752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2752" s="1" t="n">
+        <v>2751</v>
+      </c>
+      <c r="C2752" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2752" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2752" s="1" t="n">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="2753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2753" s="1" t="n">
+        <v>2752</v>
+      </c>
+      <c r="C2753" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2753" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2753" s="1" t="n">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="2754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2754" s="1" t="n">
+        <v>2753</v>
+      </c>
+      <c r="C2754" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2754" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2754" s="1" t="n">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="2755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2755" s="1" t="n">
+        <v>2754</v>
+      </c>
+      <c r="C2755" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2755" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2755" s="1" t="n">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="2756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2756" s="1" t="n">
+        <v>2755</v>
+      </c>
+      <c r="C2756" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2756" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2756" s="1" t="n">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="2757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2757" s="1" t="n">
+        <v>2756</v>
+      </c>
+      <c r="C2757" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2757" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2758" s="1" t="n">
+        <v>2757</v>
+      </c>
+      <c r="C2758" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2758" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2758" s="1" t="n">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="2759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2759" s="1" t="n">
+        <v>2758</v>
+      </c>
+      <c r="C2759" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2759" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2760" s="1" t="n">
+        <v>2759</v>
+      </c>
+      <c r="C2760" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2760" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2761" s="1" t="n">
+        <v>2760</v>
+      </c>
+      <c r="C2761" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2761" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2761" s="1" t="n">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="2762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2762" s="1" t="n">
+        <v>2761</v>
+      </c>
+      <c r="C2762" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2762" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2762" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2763" s="1" t="n">
+        <v>2762</v>
+      </c>
+      <c r="C2763" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2763" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2763" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2764" s="1" t="n">
+        <v>2763</v>
+      </c>
+      <c r="C2764" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2764" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2764" s="1" t="n">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="2765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2765" s="1" t="n">
+        <v>2764</v>
+      </c>
+      <c r="C2765" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2765" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2766" s="1" t="n">
+        <v>2765</v>
+      </c>
+      <c r="C2766" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2766" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2767" s="1" t="n">
+        <v>2766</v>
+      </c>
+      <c r="C2767" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2767" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2767" s="1" t="n">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="2768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2768" s="1" t="n">
+        <v>2767</v>
+      </c>
+      <c r="C2768" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2768" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2768" s="1" t="n">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="2769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2769" s="1" t="n">
+        <v>2768</v>
+      </c>
+      <c r="C2769" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2769" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2769" s="1" t="n">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="2770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2770" s="1" t="n">
+        <v>2769</v>
+      </c>
+      <c r="C2770" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2770" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2771" s="1" t="n">
+        <v>2770</v>
+      </c>
+      <c r="C2771" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2771" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2771" s="1" t="n">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="2772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2772" s="1" t="n">
+        <v>2771</v>
+      </c>
+      <c r="C2772" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2772" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2772" s="1" t="n">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="2773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2773" s="1" t="n">
+        <v>2772</v>
+      </c>
+      <c r="C2773" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2773" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2773" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2774" s="1" t="n">
+        <v>2773</v>
+      </c>
+      <c r="C2774" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2774" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2774" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2775" s="1" t="n">
+        <v>2774</v>
+      </c>
+      <c r="C2775" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2775" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2775" s="1" t="n">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="2776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2776" s="1" t="n">
+        <v>2775</v>
+      </c>
+      <c r="C2776" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2776" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2776" s="1" t="n">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="2777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2777" s="1" t="n">
+        <v>2776</v>
+      </c>
+      <c r="C2777" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2777" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2777" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2778" s="1" t="n">
+        <v>2777</v>
+      </c>
+      <c r="C2778" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2778" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2778" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2779" s="1" t="n">
+        <v>2778</v>
+      </c>
+      <c r="C2779" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2779" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2779" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2780" s="1" t="n">
+        <v>2779</v>
+      </c>
+      <c r="C2780" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2780" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2781" s="1" t="n">
+        <v>2780</v>
+      </c>
+      <c r="C2781" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2781" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2782" s="1" t="n">
+        <v>2781</v>
+      </c>
+      <c r="C2782" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2782" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2782" s="1" t="n">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="2783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2783" s="1" t="n">
+        <v>2782</v>
+      </c>
+      <c r="C2783" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2783" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2784" s="1" t="n">
+        <v>2783</v>
+      </c>
+      <c r="C2784" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2784" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2785" s="1" t="n">
+        <v>2784</v>
+      </c>
+      <c r="C2785" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2785" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2786" s="1" t="n">
+        <v>2785</v>
+      </c>
+      <c r="C2786" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2786" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2787" s="1" t="n">
+        <v>2786</v>
+      </c>
+      <c r="C2787" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2787" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2788" s="1" t="n">
+        <v>2787</v>
+      </c>
+      <c r="C2788" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2788" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2789" s="1" t="n">
+        <v>2788</v>
+      </c>
+      <c r="C2789" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2789" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2789" s="1" t="n">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="2790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2790" s="1" t="n">
+        <v>2789</v>
+      </c>
+      <c r="C2790" s="5" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D2790" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2790" s="1" t="n">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="2791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2791" s="1" t="n">
+        <v>2790</v>
+      </c>
+      <c r="C2791" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2791" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2792" s="1" t="n">
+        <v>2791</v>
+      </c>
+      <c r="C2792" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2792" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2793" s="1" t="n">
+        <v>2792</v>
+      </c>
+      <c r="C2793" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2793" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2793" s="1" t="n">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="2794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2794" s="1" t="n">
+        <v>2793</v>
+      </c>
+      <c r="C2794" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2794" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2795" s="1" t="n">
+        <v>2794</v>
+      </c>
+      <c r="C2795" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2795" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2796" s="1" t="n">
+        <v>2795</v>
+      </c>
+      <c r="C2796" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2796" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2797" s="1" t="n">
+        <v>2796</v>
+      </c>
+      <c r="C2797" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2797" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2797" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2798" s="1" t="n">
+        <v>2797</v>
+      </c>
+      <c r="C2798" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2798" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2798" s="1" t="n">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="2799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2799" s="1" t="n">
+        <v>2798</v>
+      </c>
+      <c r="C2799" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2799" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2799" s="1" t="n">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="2800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2800" s="1" t="n">
+        <v>2799</v>
+      </c>
+      <c r="C2800" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2800" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2800" s="1" t="n">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="2801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2801" s="1" t="n">
+        <v>2800</v>
+      </c>
+      <c r="C2801" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2801" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2801" s="1" t="n">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="2802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2802" s="1" t="n">
+        <v>2801</v>
+      </c>
+      <c r="C2802" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2802" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2802" s="1" t="n">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="2803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2803" s="1" t="n">
+        <v>2802</v>
+      </c>
+      <c r="C2803" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2803" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2803" s="1" t="n">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="2804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2804" s="1" t="n">
+        <v>2803</v>
+      </c>
+      <c r="C2804" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2804" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2804" s="1" t="n">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="2805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2805" s="1" t="n">
+        <v>2804</v>
+      </c>
+      <c r="C2805" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2805" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2805" s="1" t="n">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="2806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2806" s="1" t="n">
+        <v>2805</v>
+      </c>
+      <c r="C2806" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2806" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2807" s="1" t="n">
+        <v>2806</v>
+      </c>
+      <c r="C2807" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2807" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2808" s="1" t="n">
+        <v>2807</v>
+      </c>
+      <c r="C2808" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2808" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2809" s="1" t="n">
+        <v>2808</v>
+      </c>
+      <c r="C2809" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2809" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2809" s="1" t="n">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="2810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2810" s="1" t="n">
+        <v>2809</v>
+      </c>
+      <c r="C2810" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2810" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2810" s="1" t="n">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="2811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2811" s="1" t="n">
+        <v>2810</v>
+      </c>
+      <c r="C2811" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2811" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2812" s="1" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C2812" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2812" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2812" s="1" t="n">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="2813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2813" s="1" t="n">
+        <v>2812</v>
+      </c>
+      <c r="C2813" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2813" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2813" s="1" t="n">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="2814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2814" s="1" t="n">
+        <v>2813</v>
+      </c>
+      <c r="C2814" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2814" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2814" s="1" t="n">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="2815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2815" s="1" t="n">
+        <v>2814</v>
+      </c>
+      <c r="C2815" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2815" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2815" s="1" t="n">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="2816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2816" s="1" t="n">
+        <v>2815</v>
+      </c>
+      <c r="C2816" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2816" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2817" s="1" t="n">
+        <v>2816</v>
+      </c>
+      <c r="C2817" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2817" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2817" s="1" t="n">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="2818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2818" s="1" t="n">
+        <v>2817</v>
+      </c>
+      <c r="C2818" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2818" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2818" s="1" t="n">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="2819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2819" s="1" t="n">
+        <v>2818</v>
+      </c>
+      <c r="C2819" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2819" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2819" s="1" t="n">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="2820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2820" s="1" t="n">
+        <v>2819</v>
+      </c>
+      <c r="C2820" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2820" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2820" s="1" t="n">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="2821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2821" s="1" t="n">
+        <v>2820</v>
+      </c>
+      <c r="C2821" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2821" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2821" s="1" t="n">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="2822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2822" s="1" t="n">
+        <v>2821</v>
+      </c>
+      <c r="C2822" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2822" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2823" s="1" t="n">
+        <v>2822</v>
+      </c>
+      <c r="C2823" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2823" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2823" s="1" t="n">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="2824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2824" s="1" t="n">
+        <v>2823</v>
+      </c>
+      <c r="C2824" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2824" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2825" s="1" t="n">
+        <v>2824</v>
+      </c>
+      <c r="C2825" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2825" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2826" s="1" t="n">
+        <v>2825</v>
+      </c>
+      <c r="C2826" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2826" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2826" s="1" t="n">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="2827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2827" s="1" t="n">
+        <v>2826</v>
+      </c>
+      <c r="C2827" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2827" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2827" s="1" t="n">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="2828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2828" s="1" t="n">
+        <v>2827</v>
+      </c>
+      <c r="C2828" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2828" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2828" s="1" t="n">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="2829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2829" s="1" t="n">
+        <v>2828</v>
+      </c>
+      <c r="C2829" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2829" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2829" s="1" t="n">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="2830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2830" s="1" t="n">
+        <v>2829</v>
+      </c>
+      <c r="C2830" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2830" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2830" s="1" t="n">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="2831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2831" s="1" t="n">
+        <v>2830</v>
+      </c>
+      <c r="C2831" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2831" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2831" s="1" t="n">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="2832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2832" s="1" t="n">
+        <v>2831</v>
+      </c>
+      <c r="C2832" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2832" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2832" s="1" t="n">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="2833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2833" s="1" t="n">
+        <v>2832</v>
+      </c>
+      <c r="C2833" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2833" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2834" s="1" t="n">
+        <v>2833</v>
+      </c>
+      <c r="C2834" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2834" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2835" s="1" t="n">
+        <v>2834</v>
+      </c>
+      <c r="C2835" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2835" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2835" s="1" t="n">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="2836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2836" s="1" t="n">
+        <v>2835</v>
+      </c>
+      <c r="C2836" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2836" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2837" s="1" t="n">
+        <v>2836</v>
+      </c>
+      <c r="C2837" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2837" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2838" s="1" t="n">
+        <v>2837</v>
+      </c>
+      <c r="C2838" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2838" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2839" s="1" t="n">
+        <v>2838</v>
+      </c>
+      <c r="C2839" s="5" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D2839" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2840" s="1" t="n">
+        <v>2839</v>
+      </c>
+      <c r="C2840" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2840" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2841" s="1" t="n">
+        <v>2840</v>
+      </c>
+      <c r="C2841" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2841" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2842" s="1" t="n">
+        <v>2841</v>
+      </c>
+      <c r="C2842" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2842" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2842" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2843" s="1" t="n">
+        <v>2842</v>
+      </c>
+      <c r="C2843" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2843" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2843" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2844" s="1" t="n">
+        <v>2843</v>
+      </c>
+      <c r="C2844" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2844" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2844" s="1" t="n">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="2845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2845" s="1" t="n">
+        <v>2844</v>
+      </c>
+      <c r="C2845" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2845" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2846" s="1" t="n">
+        <v>2845</v>
+      </c>
+      <c r="C2846" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2846" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2846" s="1" t="n">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="2847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2847" s="1" t="n">
+        <v>2846</v>
+      </c>
+      <c r="C2847" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2847" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2847" s="1" t="n">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="2848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2848" s="1" t="n">
+        <v>2847</v>
+      </c>
+      <c r="C2848" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2848" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2848" s="1" t="n">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="2849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2849" s="1" t="n">
+        <v>2848</v>
+      </c>
+      <c r="C2849" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2849" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2849" s="1" t="n">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="2850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2850" s="1" t="n">
+        <v>2849</v>
+      </c>
+      <c r="C2850" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2850" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2850" s="1" t="n">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="2851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2851" s="1" t="n">
+        <v>2850</v>
+      </c>
+      <c r="C2851" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2851" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2851" s="1" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="2852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2852" s="1" t="n">
+        <v>2851</v>
+      </c>
+      <c r="C2852" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2852" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2852" s="1" t="n">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="2853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2853" s="1" t="n">
+        <v>2852</v>
+      </c>
+      <c r="C2853" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2853" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2853" s="1" t="n">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="2854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2854" s="1" t="n">
+        <v>2853</v>
+      </c>
+      <c r="C2854" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2854" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2854" s="1" t="n">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="2855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2855" s="1" t="n">
+        <v>2854</v>
+      </c>
+      <c r="C2855" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2855" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2855" s="1" t="n">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="2856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2856" s="1" t="n">
+        <v>2855</v>
+      </c>
+      <c r="C2856" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2856" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2856" s="1" t="n">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="2857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2857" s="1" t="n">
+        <v>2856</v>
+      </c>
+      <c r="C2857" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2857" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2857" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2858" s="1" t="n">
+        <v>2857</v>
+      </c>
+      <c r="C2858" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2858" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2858" s="1" t="n">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="2859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2859" s="1" t="n">
+        <v>2858</v>
+      </c>
+      <c r="C2859" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2859" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2859" s="1" t="n">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="2860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2860" s="1" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C2860" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2860" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2860" s="1" t="n">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="2861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2861" s="1" t="n">
+        <v>2860</v>
+      </c>
+      <c r="C2861" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2861" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2862" s="1" t="n">
+        <v>2861</v>
+      </c>
+      <c r="C2862" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2862" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2863" s="1" t="n">
+        <v>2862</v>
+      </c>
+      <c r="C2863" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2863" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2863" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2864" s="1" t="n">
+        <v>2863</v>
+      </c>
+      <c r="C2864" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2864" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2865" s="1" t="n">
+        <v>2864</v>
+      </c>
+      <c r="C2865" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2865" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2865" s="1" t="n">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="2866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2866" s="1" t="n">
+        <v>2865</v>
+      </c>
+      <c r="C2866" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2866" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2867" s="1" t="n">
+        <v>2866</v>
+      </c>
+      <c r="C2867" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2867" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2867" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2868" s="1" t="n">
+        <v>2867</v>
+      </c>
+      <c r="C2868" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2868" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2868" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2869" s="1" t="n">
+        <v>2868</v>
+      </c>
+      <c r="C2869" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2869" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2869" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2870" s="1" t="n">
+        <v>2869</v>
+      </c>
+      <c r="C2870" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2870" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2870" s="1" t="n">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="2871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2871" s="1" t="n">
+        <v>2870</v>
+      </c>
+      <c r="C2871" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2871" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2872" s="1" t="n">
+        <v>2871</v>
+      </c>
+      <c r="C2872" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2872" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2873" s="1" t="n">
+        <v>2872</v>
+      </c>
+      <c r="C2873" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2873" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2873" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2874" s="1" t="n">
+        <v>2873</v>
+      </c>
+      <c r="C2874" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2874" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2874" s="1" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2875" s="1" t="n">
+        <v>2874</v>
+      </c>
+      <c r="C2875" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2875" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2876" s="1" t="n">
+        <v>2875</v>
+      </c>
+      <c r="C2876" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2876" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2876" s="1" t="n">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="2877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2877" s="1" t="n">
+        <v>2876</v>
+      </c>
+      <c r="C2877" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2877" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2877" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2878" s="1" t="n">
+        <v>2877</v>
+      </c>
+      <c r="C2878" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2878" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2879" s="1" t="n">
+        <v>2878</v>
+      </c>
+      <c r="C2879" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2879" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2879" s="1" t="n">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="2880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2880" s="1" t="n">
+        <v>2879</v>
+      </c>
+      <c r="C2880" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2880" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2881" s="1" t="n">
+        <v>2880</v>
+      </c>
+      <c r="C2881" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2881" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2882" s="1" t="n">
+        <v>2881</v>
+      </c>
+      <c r="C2882" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2882" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2882" s="1" t="n">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="2883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2883" s="1" t="n">
+        <v>2882</v>
+      </c>
+      <c r="C2883" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2883" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2884" s="1" t="n">
+        <v>2883</v>
+      </c>
+      <c r="C2884" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2884" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2885" s="1" t="n">
+        <v>2884</v>
+      </c>
+      <c r="C2885" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2885" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2886" s="1" t="n">
+        <v>2885</v>
+      </c>
+      <c r="C2886" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2886" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2887" s="1" t="n">
+        <v>2886</v>
+      </c>
+      <c r="C2887" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2887" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2888" s="1" t="n">
+        <v>2887</v>
+      </c>
+      <c r="C2888" s="5" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D2888" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2889" s="1" t="n">
+        <v>2888</v>
+      </c>
+      <c r="C2889" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2889" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2890" s="1" t="n">
+        <v>2889</v>
+      </c>
+      <c r="C2890" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2890" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2890" s="1" t="n">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="2891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2891" s="1" t="n">
+        <v>2890</v>
+      </c>
+      <c r="C2891" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2891" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2892" s="1" t="n">
+        <v>2891</v>
+      </c>
+      <c r="C2892" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2892" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2893" s="1" t="n">
+        <v>2892</v>
+      </c>
+      <c r="C2893" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2893" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2894" s="1" t="n">
+        <v>2893</v>
+      </c>
+      <c r="C2894" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2894" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2894" s="1" t="n">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="2895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2895" s="1" t="n">
+        <v>2894</v>
+      </c>
+      <c r="C2895" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2895" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2895" s="1" t="n">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="2896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2896" s="1" t="n">
+        <v>2895</v>
+      </c>
+      <c r="C2896" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2896" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2896" s="1" t="n">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="2897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2897" s="1" t="n">
+        <v>2896</v>
+      </c>
+      <c r="C2897" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2897" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2897" s="1" t="n">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="2898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2898" s="1" t="n">
+        <v>2897</v>
+      </c>
+      <c r="C2898" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2898" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2898" s="1" t="n">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="2899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2899" s="1" t="n">
+        <v>2898</v>
+      </c>
+      <c r="C2899" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2899" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2899" s="1" t="n">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="2900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2900" s="1" t="n">
+        <v>2899</v>
+      </c>
+      <c r="C2900" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2900" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2900" s="1" t="n">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="2901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2901" s="1" t="n">
+        <v>2900</v>
+      </c>
+      <c r="C2901" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2901" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2901" s="1" t="n">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="2902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2902" s="1" t="n">
+        <v>2901</v>
+      </c>
+      <c r="C2902" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2902" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2902" s="1" t="n">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="2903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2903" s="1" t="n">
+        <v>2902</v>
+      </c>
+      <c r="C2903" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2903" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2903" s="1" t="n">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="2904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2904" s="1" t="n">
+        <v>2903</v>
+      </c>
+      <c r="C2904" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2904" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2905" s="1" t="n">
+        <v>2904</v>
+      </c>
+      <c r="C2905" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2905" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2905" s="1" t="n">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="2906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2906" s="1" t="n">
+        <v>2905</v>
+      </c>
+      <c r="C2906" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2906" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2906" s="1" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="2907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2907" s="1" t="n">
+        <v>2906</v>
+      </c>
+      <c r="C2907" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2907" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2907" s="1" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="2908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2908" s="1" t="n">
+        <v>2907</v>
+      </c>
+      <c r="C2908" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2908" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2908" s="1" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="2909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2909" s="1" t="n">
+        <v>2908</v>
+      </c>
+      <c r="C2909" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2909" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2909" s="1" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="2910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2910" s="1" t="n">
+        <v>2909</v>
+      </c>
+      <c r="C2910" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2910" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2910" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2911" s="1" t="n">
+        <v>2910</v>
+      </c>
+      <c r="C2911" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2911" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2911" s="1" t="n">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2912" s="1" t="n">
+        <v>2911</v>
+      </c>
+      <c r="C2912" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2912" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2913" s="1" t="n">
+        <v>2912</v>
+      </c>
+      <c r="C2913" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2913" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2913" s="1" t="n">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="2914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2914" s="1" t="n">
+        <v>2913</v>
+      </c>
+      <c r="C2914" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2914" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2914" s="1" t="n">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="2915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2915" s="1" t="n">
+        <v>2914</v>
+      </c>
+      <c r="C2915" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2915" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2915" s="1" t="n">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="2916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2916" s="1" t="n">
+        <v>2915</v>
+      </c>
+      <c r="C2916" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2916" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2917" s="1" t="n">
+        <v>2916</v>
+      </c>
+      <c r="C2917" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2917" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2918" s="1" t="n">
+        <v>2917</v>
+      </c>
+      <c r="C2918" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2918" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2918" s="1" t="n">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="2919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2919" s="1" t="n">
+        <v>2918</v>
+      </c>
+      <c r="C2919" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2919" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2919" s="1" t="n">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="2920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2920" s="1" t="n">
+        <v>2919</v>
+      </c>
+      <c r="C2920" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2920" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2920" s="1" t="n">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="2921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2921" s="1" t="n">
+        <v>2920</v>
+      </c>
+      <c r="C2921" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2921" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2921" s="1" t="n">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="2922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2922" s="1" t="n">
+        <v>2921</v>
+      </c>
+      <c r="C2922" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2922" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2922" s="1" t="n">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="2923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2923" s="1" t="n">
+        <v>2922</v>
+      </c>
+      <c r="C2923" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2923" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2924" s="1" t="n">
+        <v>2923</v>
+      </c>
+      <c r="C2924" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2924" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2924" s="1" t="n">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="2925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2925" s="1" t="n">
+        <v>2924</v>
+      </c>
+      <c r="C2925" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2925" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2926" s="1" t="n">
+        <v>2925</v>
+      </c>
+      <c r="C2926" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2926" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2927" s="1" t="n">
+        <v>2926</v>
+      </c>
+      <c r="C2927" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2927" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2928" s="1" t="n">
+        <v>2927</v>
+      </c>
+      <c r="C2928" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2928" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2929" s="1" t="n">
+        <v>2928</v>
+      </c>
+      <c r="C2929" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2929" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2930" s="1" t="n">
+        <v>2929</v>
+      </c>
+      <c r="C2930" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2930" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2930" s="1" t="n">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="2931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2931" s="1" t="n">
+        <v>2930</v>
+      </c>
+      <c r="C2931" s="5" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D2931" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2932" s="1" t="n">
+        <v>2931</v>
+      </c>
+      <c r="C2932" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2932" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2933" s="1" t="n">
+        <v>2932</v>
+      </c>
+      <c r="C2933" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2933" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2933" s="1" t="n">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="2934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2934" s="1" t="n">
+        <v>2933</v>
+      </c>
+      <c r="C2934" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2934" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2934" s="1" t="n">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="2935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2935" s="1" t="n">
+        <v>2934</v>
+      </c>
+      <c r="C2935" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2935" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2935" s="1" t="n">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="2936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2936" s="1" t="n">
+        <v>2935</v>
+      </c>
+      <c r="C2936" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2936" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2936" s="1" t="n">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="2937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2937" s="1" t="n">
+        <v>2936</v>
+      </c>
+      <c r="C2937" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2937" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2937" s="1" t="n">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="2938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2938" s="1" t="n">
+        <v>2937</v>
+      </c>
+      <c r="C2938" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2938" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2939" s="1" t="n">
+        <v>2938</v>
+      </c>
+      <c r="C2939" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2939" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2940" s="1" t="n">
+        <v>2939</v>
+      </c>
+      <c r="C2940" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2940" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2941" s="1" t="n">
+        <v>2940</v>
+      </c>
+      <c r="C2941" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2941" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2941" s="1" t="n">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="2942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2942" s="1" t="n">
+        <v>2941</v>
+      </c>
+      <c r="C2942" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2942" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2943" s="1" t="n">
+        <v>2942</v>
+      </c>
+      <c r="C2943" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2943" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2944" s="1" t="n">
+        <v>2943</v>
+      </c>
+      <c r="C2944" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2944" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2944" s="1" t="n">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="2945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2945" s="1" t="n">
+        <v>2944</v>
+      </c>
+      <c r="C2945" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2945" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2945" s="1" t="n">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="2946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2946" s="1" t="n">
+        <v>2945</v>
+      </c>
+      <c r="C2946" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2946" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2946" s="1" t="n">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="2947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2947" s="1" t="n">
+        <v>2946</v>
+      </c>
+      <c r="C2947" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2947" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2947" s="1" t="n">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="2948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2948" s="1" t="n">
+        <v>2947</v>
+      </c>
+      <c r="C2948" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2948" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2948" s="1" t="n">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="2949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2949" s="1" t="n">
+        <v>2948</v>
+      </c>
+      <c r="C2949" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2949" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2950" s="1" t="n">
+        <v>2949</v>
+      </c>
+      <c r="C2950" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2950" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2951" s="1" t="n">
+        <v>2950</v>
+      </c>
+      <c r="C2951" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2951" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2951" s="1" t="n">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="2952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2952" s="1" t="n">
+        <v>2951</v>
+      </c>
+      <c r="C2952" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2952" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2952" s="1" t="n">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="2953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2953" s="1" t="n">
+        <v>2952</v>
+      </c>
+      <c r="C2953" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2953" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2953" s="1" t="n">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="2954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2954" s="1" t="n">
+        <v>2953</v>
+      </c>
+      <c r="C2954" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2954" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2954" s="1" t="n">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="2955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2955" s="1" t="n">
+        <v>2954</v>
+      </c>
+      <c r="C2955" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2955" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2955" s="1" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="2956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2956" s="1" t="n">
+        <v>2955</v>
+      </c>
+      <c r="C2956" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2956" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2956" s="1" t="n">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="2957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2957" s="1" t="n">
+        <v>2956</v>
+      </c>
+      <c r="C2957" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2957" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2957" s="1" t="n">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="2958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2958" s="1" t="n">
+        <v>2957</v>
+      </c>
+      <c r="C2958" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2958" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2958" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2959" s="1" t="n">
+        <v>2958</v>
+      </c>
+      <c r="C2959" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2959" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2959" s="1" t="n">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="2960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2960" s="1" t="n">
+        <v>2959</v>
+      </c>
+      <c r="C2960" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2960" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2961" s="1" t="n">
+        <v>2960</v>
+      </c>
+      <c r="C2961" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2961" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2962" s="1" t="n">
+        <v>2961</v>
+      </c>
+      <c r="C2962" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2962" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2963" s="1" t="n">
+        <v>2962</v>
+      </c>
+      <c r="C2963" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2963" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2964" s="1" t="n">
+        <v>2963</v>
+      </c>
+      <c r="C2964" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2964" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2964" s="1" t="n">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="2965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2965" s="1" t="n">
+        <v>2964</v>
+      </c>
+      <c r="C2965" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2965" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2965" s="1" t="n">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="2966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2966" s="1" t="n">
+        <v>2965</v>
+      </c>
+      <c r="C2966" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2966" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2966" s="1" t="n">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="2967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2967" s="1" t="n">
+        <v>2966</v>
+      </c>
+      <c r="C2967" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2967" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2967" s="1" t="n">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="2968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2968" s="1" t="n">
+        <v>2967</v>
+      </c>
+      <c r="C2968" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2968" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2968" s="1" t="n">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="2969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2969" s="1" t="n">
+        <v>2968</v>
+      </c>
+      <c r="C2969" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2969" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2969" s="1" t="n">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="2970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2970" s="1" t="n">
+        <v>2969</v>
+      </c>
+      <c r="C2970" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2970" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2970" s="1" t="n">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="2971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2971" s="1" t="n">
+        <v>2970</v>
+      </c>
+      <c r="C2971" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2971" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2972" s="1" t="n">
+        <v>2971</v>
+      </c>
+      <c r="C2972" s="5" t="n">
+        <v>44638</v>
+      </c>
+      <c r="D2972" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2972" s="1" t="n">
+        <v>2836</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
